--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\cvfindr\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55F7061-B71C-4D72-9D6A-5A2802C3214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1BA912-3BD0-4ABB-B8F4-59C4224CB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2355" windowWidth="19200" windowHeight="12405" activeTab="1" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,9 +314,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -400,25 +400,24 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -773,10 +772,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -827,17 +826,17 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <f>SUM(C3:C6)</f>
         <v>61</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f>SUM(F3:F5)</f>
         <v>54</v>
       </c>
@@ -853,7 +852,7 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>80</v>
       </c>
     </row>
@@ -865,7 +864,7 @@
         <f>C10*D11</f>
         <v>24</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -877,7 +876,7 @@
         <f>C10*D12</f>
         <v>2.56</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -891,10 +890,10 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f>C14*C12</f>
         <v>1520</v>
       </c>
@@ -949,7 +948,7 @@
         <f>C15-C16-C18-C19</f>
         <v>1139.3767441860464</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f>C21/C15</f>
         <v>0.7495899632802937</v>
       </c>
@@ -996,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D050417B-3273-4955-A7A8-F9E9DF39BEC5}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1013,236 +1012,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>100</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <f>B3</f>
         <v>100</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <f>B22</f>
         <v>620.63595348837202</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f t="shared" ref="D4:Y4" si="0">C22</f>
         <v>2612.5951255813957</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>2480.6955293023257</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
         <v>6878.8040617674424</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>11193.240204502325</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
         <v>5332.8844966548822</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f t="shared" si="0"/>
         <v>11324.066392513489</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>15881.812400907904</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>5044.3972027795307</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <f t="shared" si="0"/>
         <v>14870.055401389764</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <f t="shared" si="0"/>
         <v>21769.150823950695</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <f t="shared" si="0"/>
         <v>6539.8183329055792</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <f t="shared" si="0"/>
         <v>21209.365033894654</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <f t="shared" si="0"/>
         <v>29792.358277412448</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <f t="shared" si="0"/>
         <v>8809.1204573108698</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <f t="shared" si="0"/>
         <v>28397.213051911247</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <f t="shared" si="0"/>
         <v>40458.464135257949</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="9">
         <f t="shared" si="0"/>
         <v>11821.059235070838</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <f t="shared" si="0"/>
         <v>38416.074791954023</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="9">
         <f t="shared" si="0"/>
         <v>54238.142047139794</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <f t="shared" si="0"/>
         <v>15500.56665147688</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="9">
         <f t="shared" si="0"/>
         <v>46421.473442017501</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <f t="shared" si="0"/>
         <v>63058.017825659917</v>
       </c>
@@ -1251,76 +1250,76 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>50</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>200</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>350</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>500</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>650</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>700</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>850</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1000</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>1100</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>1200</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>1400</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>1500</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>1650</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>1750</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>1950</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>2200</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>2400</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>2600</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>2800</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>3000</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>3200</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <v>3300</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="3">
         <v>3400</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="3">
         <v>3600</v>
       </c>
     </row>
@@ -1328,227 +1327,227 @@
       <c r="A6" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <f>B4-B5</f>
         <v>50</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f t="shared" ref="C6:Y6" si="1">C4-C5</f>
         <v>420.63595348837202</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f t="shared" si="1"/>
         <v>2262.5951255813957</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <f t="shared" si="1"/>
         <v>1980.6955293023257</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>6228.8040617674424</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <f t="shared" si="1"/>
         <v>10493.240204502325</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <f t="shared" si="1"/>
         <v>4482.8844966548822</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <f t="shared" si="1"/>
         <v>10324.066392513489</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <f t="shared" si="1"/>
         <v>14781.812400907904</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <f t="shared" si="1"/>
         <v>3844.3972027795307</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
         <v>13470.055401389764</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <f t="shared" si="1"/>
         <v>20269.150823950695</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="15">
         <f t="shared" si="1"/>
         <v>4889.8183329055792</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <f t="shared" si="1"/>
         <v>19459.365033894654</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <f t="shared" si="1"/>
         <v>27842.358277412448</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <f t="shared" si="1"/>
         <v>6609.1204573108698</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="15">
         <f t="shared" si="1"/>
         <v>25997.213051911247</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="15">
         <f t="shared" si="1"/>
         <v>37858.464135257949</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <f t="shared" si="1"/>
         <v>9021.0592350708375</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="15">
         <f t="shared" si="1"/>
         <v>35416.074791954023</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <f t="shared" si="1"/>
         <v>51038.142047139794</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="15">
         <f t="shared" si="1"/>
         <v>12200.56665147688</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="15">
         <f t="shared" si="1"/>
         <v>43021.473442017501</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="15">
         <f t="shared" si="1"/>
         <v>59458.017825659917</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="1">
-        <f>B38+B44</f>
+        <f t="shared" ref="B8:Y8" si="2">B38+B44</f>
         <v>950</v>
       </c>
       <c r="C8" s="1">
-        <f>C38+C44</f>
+        <f t="shared" si="2"/>
         <v>3895</v>
       </c>
       <c r="D8" s="1">
-        <f>D38+D44</f>
+        <f t="shared" si="2"/>
         <v>7030.0000000000009</v>
       </c>
       <c r="E8" s="1">
-        <f>E38+E44</f>
+        <f t="shared" si="2"/>
         <v>10165</v>
       </c>
       <c r="F8" s="1">
-        <f>F38+F44</f>
+        <f t="shared" si="2"/>
         <v>13300</v>
       </c>
       <c r="G8" s="1">
-        <f>G38+G44</f>
+        <f t="shared" si="2"/>
         <v>16017</v>
       </c>
       <c r="H8" s="1">
-        <f>H38+H44</f>
+        <f t="shared" si="2"/>
         <v>19414.2</v>
       </c>
       <c r="I8" s="1">
-        <f>I38+I44</f>
+        <f t="shared" si="2"/>
         <v>22902.6</v>
       </c>
       <c r="J8" s="1">
-        <f>J38+J44</f>
+        <f t="shared" si="2"/>
         <v>25328.9</v>
       </c>
       <c r="K8" s="1">
-        <f>K38+K44</f>
+        <f t="shared" si="2"/>
         <v>27648.799999999999</v>
       </c>
       <c r="L8" s="1">
-        <f>L38+L44</f>
+        <f t="shared" si="2"/>
         <v>32096.7</v>
       </c>
       <c r="M8" s="1">
-        <f>M38+M44</f>
+        <f t="shared" si="2"/>
         <v>34629.4</v>
       </c>
       <c r="N8" s="1">
-        <f>N38+N44</f>
+        <f t="shared" si="2"/>
         <v>40046.300000000003</v>
       </c>
       <c r="O8" s="1">
-        <f>O38+O44</f>
+        <f t="shared" si="2"/>
         <v>42808.9</v>
       </c>
       <c r="P8" s="1">
-        <f>P38+P44</f>
+        <f t="shared" si="2"/>
         <v>47498.1</v>
       </c>
       <c r="Q8" s="1">
-        <f>Q38+Q44</f>
+        <f t="shared" si="2"/>
         <v>53530.6</v>
       </c>
       <c r="R8" s="1">
-        <f>R38+R44</f>
+        <f t="shared" si="2"/>
         <v>58573.2</v>
       </c>
       <c r="S8" s="1">
-        <f>S38+S44</f>
+        <f t="shared" si="2"/>
         <v>63486.6</v>
       </c>
       <c r="T8" s="1">
-        <f>T38+T44</f>
+        <f t="shared" si="2"/>
         <v>72312.100000000006</v>
       </c>
       <c r="U8" s="1">
-        <f>U38+U44</f>
+        <f t="shared" si="2"/>
         <v>77900</v>
       </c>
       <c r="V8" s="1">
-        <f>V38+V44</f>
+        <f t="shared" si="2"/>
         <v>83125</v>
       </c>
       <c r="W8" s="1">
-        <f>W38+W44</f>
+        <f t="shared" si="2"/>
         <v>85975</v>
       </c>
       <c r="X8" s="1">
-        <f>X38+X44</f>
+        <f t="shared" si="2"/>
         <v>88587.5</v>
       </c>
       <c r="Y8" s="1">
-        <f>Y38+Y44</f>
+        <f t="shared" si="2"/>
         <v>93575</v>
       </c>
     </row>
@@ -1759,99 +1758,99 @@
         <v>78</v>
       </c>
       <c r="B11" s="1">
-        <f>B8*5%</f>
+        <f t="shared" ref="B11:Y11" si="3">B8*5%</f>
         <v>47.5</v>
       </c>
       <c r="C11" s="1">
-        <f>C8*5%</f>
+        <f t="shared" si="3"/>
         <v>194.75</v>
       </c>
       <c r="D11" s="1">
-        <f>D8*5%</f>
+        <f t="shared" si="3"/>
         <v>351.50000000000006</v>
       </c>
       <c r="E11" s="1">
-        <f>E8*5%</f>
+        <f t="shared" si="3"/>
         <v>508.25</v>
       </c>
       <c r="F11" s="1">
-        <f>F8*5%</f>
+        <f t="shared" si="3"/>
         <v>665</v>
       </c>
       <c r="G11" s="1">
-        <f>G8*5%</f>
+        <f t="shared" si="3"/>
         <v>800.85</v>
       </c>
       <c r="H11" s="1">
-        <f>H8*5%</f>
+        <f t="shared" si="3"/>
         <v>970.71</v>
       </c>
       <c r="I11" s="1">
-        <f>I8*5%</f>
+        <f t="shared" si="3"/>
         <v>1145.1299999999999</v>
       </c>
       <c r="J11" s="1">
-        <f>J8*5%</f>
+        <f t="shared" si="3"/>
         <v>1266.4450000000002</v>
       </c>
       <c r="K11" s="1">
-        <f>K8*5%</f>
+        <f t="shared" si="3"/>
         <v>1382.44</v>
       </c>
       <c r="L11" s="1">
-        <f>L8*5%</f>
+        <f t="shared" si="3"/>
         <v>1604.835</v>
       </c>
       <c r="M11" s="1">
-        <f>M8*5%</f>
+        <f t="shared" si="3"/>
         <v>1731.4700000000003</v>
       </c>
       <c r="N11" s="1">
-        <f>N8*5%</f>
+        <f t="shared" si="3"/>
         <v>2002.3150000000003</v>
       </c>
       <c r="O11" s="1">
-        <f>O8*5%</f>
+        <f t="shared" si="3"/>
         <v>2140.4450000000002</v>
       </c>
       <c r="P11" s="1">
-        <f>P8*5%</f>
+        <f t="shared" si="3"/>
         <v>2374.9050000000002</v>
       </c>
       <c r="Q11" s="1">
-        <f>Q8*5%</f>
+        <f t="shared" si="3"/>
         <v>2676.53</v>
       </c>
       <c r="R11" s="1">
-        <f>R8*5%</f>
+        <f t="shared" si="3"/>
         <v>2928.66</v>
       </c>
       <c r="S11" s="1">
-        <f>S8*5%</f>
+        <f t="shared" si="3"/>
         <v>3174.33</v>
       </c>
       <c r="T11" s="1">
-        <f>T8*5%</f>
+        <f t="shared" si="3"/>
         <v>3615.6050000000005</v>
       </c>
       <c r="U11" s="1">
-        <f>U8*5%</f>
+        <f t="shared" si="3"/>
         <v>3895</v>
       </c>
       <c r="V11" s="1">
-        <f>V8*5%</f>
+        <f t="shared" si="3"/>
         <v>4156.25</v>
       </c>
       <c r="W11" s="1">
-        <f>W8*5%</f>
+        <f t="shared" si="3"/>
         <v>4298.75</v>
       </c>
       <c r="X11" s="1">
-        <f>X8*5%</f>
+        <f t="shared" si="3"/>
         <v>4429.375</v>
       </c>
       <c r="Y11" s="1">
-        <f>Y8*5%</f>
+        <f t="shared" si="3"/>
         <v>4678.75</v>
       </c>
     </row>
@@ -1882,103 +1881,103 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="10">
-        <f>B8-B16-B10-B9-B11</f>
+      <c r="B13" s="9">
+        <f t="shared" ref="B13:Y13" si="4">B8-B16-B10-B9-B11</f>
         <v>836.62279069767442</v>
       </c>
-      <c r="C13" s="10">
-        <f>C8-C16-C10-C9-C11</f>
+      <c r="C13" s="9">
+        <f t="shared" si="4"/>
         <v>3598.7411627906977</v>
       </c>
-      <c r="D13" s="10">
-        <f>D8-D16-D10-D9-D11</f>
+      <c r="D13" s="9">
+        <f t="shared" si="4"/>
         <v>4047.6095348837216</v>
       </c>
-      <c r="E13" s="10">
-        <f>E8-E16-E10-E9-E11</f>
+      <c r="E13" s="9">
+        <f t="shared" si="4"/>
         <v>9483.9779069767446</v>
       </c>
-      <c r="F13" s="10">
-        <f>F8-F16-F10-F9-F11</f>
+      <c r="F13" s="9">
+        <f t="shared" si="4"/>
         <v>12426.596279069767</v>
       </c>
-      <c r="G13" s="10">
-        <f>G8-G16-G10-G9-G11</f>
+      <c r="G13" s="9">
+        <f t="shared" si="4"/>
         <v>6686.1206232558143</v>
       </c>
-      <c r="H13" s="10">
-        <f>H8-H16-H10-H9-H11</f>
+      <c r="H13" s="9">
+        <f t="shared" si="4"/>
         <v>18165.248288372095</v>
       </c>
-      <c r="I13" s="10">
-        <f>I8-I16-I10-I9-I11</f>
+      <c r="I13" s="9">
+        <f t="shared" si="4"/>
         <v>21439.558409302324</v>
       </c>
-      <c r="J13" s="10">
-        <f>J8-J16-J10-J9-J11</f>
+      <c r="J13" s="9">
+        <f t="shared" si="4"/>
         <v>9512.5790046511629</v>
       </c>
-      <c r="K13" s="10">
-        <f>K8-K16-K10-K9-K11</f>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
         <v>25895.713599999999</v>
       </c>
-      <c r="L13" s="10">
-        <f>L8-L16-L10-L9-L11</f>
+      <c r="L13" s="9">
+        <f t="shared" si="4"/>
         <v>30068.24624651163</v>
       </c>
-      <c r="M13" s="10">
-        <f>M8-M16-M10-M9-M11</f>
+      <c r="M13" s="9">
+        <f t="shared" si="4"/>
         <v>12629.214841860467</v>
       </c>
-      <c r="N13" s="10">
-        <f>N8-N16-N10-N9-N11</f>
+      <c r="N13" s="9">
+        <f t="shared" si="4"/>
         <v>37528.911734883724</v>
       </c>
-      <c r="O13" s="10">
-        <f>O8-O16-O10-O9-O11</f>
+      <c r="O13" s="9">
+        <f t="shared" si="4"/>
         <v>40125.351520930235</v>
       </c>
-      <c r="P13" s="10">
-        <f>P8-P16-P10-P9-P11</f>
+      <c r="P13" s="9">
+        <f t="shared" si="4"/>
         <v>17150.075637209298</v>
       </c>
-      <c r="Q13" s="10">
-        <f>Q8-Q16-Q10-Q9-Q11</f>
+      <c r="Q13" s="9">
+        <f t="shared" si="4"/>
         <v>50185.305646511624</v>
       </c>
-      <c r="R13" s="10">
-        <f>R8-R16-R10-R9-R11</f>
+      <c r="R13" s="9">
+        <f t="shared" si="4"/>
         <v>54919.715218604644</v>
       </c>
-      <c r="S13" s="10">
-        <f>S8-S16-S10-S9-S11</f>
+      <c r="S13" s="9">
+        <f t="shared" si="4"/>
         <v>22657.638334883726</v>
       </c>
-      <c r="T13" s="10">
-        <f>T8-T16-T10-T9-T11</f>
+      <c r="T13" s="9">
+        <f t="shared" si="4"/>
         <v>67811.090348837213</v>
       </c>
-      <c r="U13" s="10">
-        <f>U8-U16-U10-U9-U11</f>
+      <c r="U13" s="9">
+        <f t="shared" si="4"/>
         <v>73060.209302325587</v>
       </c>
-      <c r="V13" s="10">
-        <f>V8-V16-V10-V9-V11</f>
+      <c r="V13" s="9">
+        <f t="shared" si="4"/>
         <v>28963.78225581396</v>
       </c>
-      <c r="W13" s="10">
-        <f>W8-W16-W10-W9-W11</f>
+      <c r="W13" s="9">
+        <f t="shared" si="4"/>
         <v>80642.380232558135</v>
       </c>
-      <c r="X13" s="10">
-        <f>X8-X16-X10-X9-X11</f>
+      <c r="X13" s="9">
+        <f t="shared" si="4"/>
         <v>83094.562209302327</v>
       </c>
-      <c r="Y13" s="10">
-        <f>Y8-Y16-Y10-Y9-Y11</f>
+      <c r="Y13" s="9">
+        <f t="shared" si="4"/>
         <v>31464.426162790696</v>
       </c>
     </row>
@@ -1986,128 +1985,128 @@
       <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="11">
-        <f>B13/B8</f>
+      <c r="B14" s="10">
+        <f t="shared" ref="B14:Y14" si="5">B13/B8</f>
         <v>0.88065556915544674</v>
       </c>
-      <c r="C14" s="11">
-        <f>C13/C8</f>
+      <c r="C14" s="10">
+        <f t="shared" si="5"/>
         <v>0.92393868107591726</v>
       </c>
-      <c r="D14" s="11">
-        <f>D13/D8</f>
+      <c r="D14" s="10">
+        <f t="shared" si="5"/>
         <v>0.57576238049555062</v>
       </c>
-      <c r="E14" s="11">
-        <f>E13/E8</f>
+      <c r="E14" s="10">
+        <f t="shared" si="5"/>
         <v>0.933003237282513</v>
       </c>
-      <c r="F14" s="11">
-        <f>F13/F8</f>
+      <c r="F14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93433054729847875</v>
       </c>
-      <c r="G14" s="11">
-        <f>G13/G8</f>
+      <c r="G14" s="10">
+        <f t="shared" si="5"/>
         <v>0.41743901000535771</v>
       </c>
-      <c r="H14" s="11">
-        <f>H13/H8</f>
+      <c r="H14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93566813406537963</v>
       </c>
-      <c r="I14" s="11">
-        <f>I13/I8</f>
+      <c r="I14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93611897379783626</v>
       </c>
-      <c r="J14" s="11">
-        <f>J13/J8</f>
+      <c r="J14" s="10">
+        <f t="shared" si="5"/>
         <v>0.37556226305331708</v>
       </c>
-      <c r="K14" s="11">
-        <f>K13/K8</f>
+      <c r="K14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93659448511327792</v>
       </c>
-      <c r="L14" s="11">
-        <f>L13/L8</f>
+      <c r="L14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93680179727235602</v>
       </c>
-      <c r="M14" s="11">
-        <f>M13/M8</f>
+      <c r="M14" s="10">
+        <f t="shared" si="5"/>
         <v>0.36469632283148035</v>
       </c>
-      <c r="N14" s="11">
-        <f>N13/N8</f>
+      <c r="N14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93713805607218947</v>
       </c>
-      <c r="O14" s="11">
-        <f>O13/O8</f>
+      <c r="O14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93731330449813555</v>
       </c>
-      <c r="P14" s="11">
-        <f>P13/P8</f>
+      <c r="P14" s="10">
+        <f t="shared" si="5"/>
         <v>0.36106866668791593</v>
       </c>
-      <c r="Q14" s="11">
-        <f>Q13/Q8</f>
+      <c r="Q14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93750687730964388</v>
       </c>
-      <c r="R14" s="11">
-        <f>R13/R8</f>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93762531701536955</v>
       </c>
-      <c r="S14" s="11">
-        <f>S13/S8</f>
+      <c r="S14" s="10">
+        <f t="shared" si="5"/>
         <v>0.35688851403105104</v>
       </c>
-      <c r="T14" s="11">
-        <f>T13/T8</f>
+      <c r="T14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93775578843426211</v>
       </c>
-      <c r="U14" s="11">
-        <f>U13/U8</f>
+      <c r="U14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93787174970892928</v>
       </c>
-      <c r="V14" s="11">
-        <f>V13/V8</f>
+      <c r="V14" s="10">
+        <f t="shared" si="5"/>
         <v>0.34843647826543112</v>
       </c>
-      <c r="W14" s="11">
-        <f>W13/W8</f>
+      <c r="W14" s="10">
+        <f t="shared" si="5"/>
         <v>0.93797476280963232</v>
       </c>
-      <c r="X14" s="11">
-        <f>X13/X8</f>
+      <c r="X14" s="10">
+        <f t="shared" si="5"/>
         <v>0.9379942114779436</v>
       </c>
-      <c r="Y14" s="11">
-        <f>Y13/Y8</f>
+      <c r="Y14" s="10">
+        <f t="shared" si="5"/>
         <v>0.33624820906001279</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2212,87 +2211,87 @@
         <v>3816.4546604651168</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" ref="E18:Y18" si="2">E6+E13-E16</f>
+        <f t="shared" ref="E18:Y18" si="6">E6+E13-E16</f>
         <v>11464.67343627907</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18655.400340837208</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8888.1408277581377</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22648.132785026977</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31763.624801815815</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10088.794405559063</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29740.110802779531</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43538.30164790139</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13079.636665811158</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>42418.730067789307</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>59584.716554824889</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17618.240914621743</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56794.426103822494</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80916.928270515898</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23642.118470141679</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>76832.149583908045</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>108476.2840942796</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31001.133302953764</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>92842.946884035016</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>126116.03565131983</v>
       </c>
       <c r="Y18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34613.568988450614</v>
       </c>
     </row>
@@ -2305,95 +2304,95 @@
         <v>177.3245581395349</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:Y19" si="3">C18*C20</f>
+        <f t="shared" ref="C19:Y19" si="7">C18*C20</f>
         <v>1004.8442790697675</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>954.11366511627921</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3439.4020308837212</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5596.6201022511623</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2666.4422483274411</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9059.2531140107913</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12705.449920726327</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4035.5177622236256</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11896.044321111813</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17415.320659160556</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5231.8546663244633</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16967.492027115724</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23833.886621929956</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7047.2963658486979</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22717.770441528999</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32366.77130820636</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9456.8473880566726</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30732.85983356322</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>43390.513637711847</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12400.453321181507</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>37137.178753614011</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>50446.414260527934</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13845.427595380246</v>
       </c>
     </row>
@@ -2401,76 +2400,76 @@
       <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>0.2</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0.25</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>0.25</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>0.3</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>0.3</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>0.3</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>0.4</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>0.4</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>0.4</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>0.4</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>0.4</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>0.4</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>0.4</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>0.4</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <v>0.4</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13">
         <v>0.4</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="13">
         <v>0.4</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="13">
         <v>0.4</v>
       </c>
-      <c r="T20" s="14">
+      <c r="T20" s="13">
         <v>0.4</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="13">
         <v>0.4</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="13">
         <v>0.4</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W20" s="13">
         <v>0.4</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20" s="13">
         <v>0.4</v>
       </c>
-      <c r="Y20" s="14">
+      <c r="Y20" s="13">
         <v>0.4</v>
       </c>
     </row>
@@ -2483,196 +2482,196 @@
         <v>88.66227906976745</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ref="C21:Y21" si="4">C18*10%</f>
+        <f t="shared" ref="C21:Y21" si="8">C18*10%</f>
         <v>401.93771162790699</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>381.64546604651173</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1146.467343627907</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1865.5400340837209</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>888.81408277581386</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2264.8132785026978</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3176.3624801815818</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1008.8794405559064</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2974.0110802779532</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4353.830164790139</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1307.9636665811158</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4241.8730067789311</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5958.471655482489</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1761.8240914621745</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5679.4426103822498</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8091.69282705159</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2364.2118470141681</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>7683.2149583908049</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10847.628409427962</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3100.1133302953767</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9284.2946884035027</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12611.603565131983</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3461.3568988450616</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <f>B18-B19-B21</f>
         <v>620.63595348837202</v>
       </c>
-      <c r="C22" s="10">
-        <f t="shared" ref="C22:Y22" si="5">C18-C19-C21</f>
+      <c r="C22" s="9">
+        <f t="shared" ref="C22:Y22" si="9">C18-C19-C21</f>
         <v>2612.5951255813957</v>
       </c>
-      <c r="D22" s="10">
-        <f t="shared" si="5"/>
+      <c r="D22" s="9">
+        <f t="shared" si="9"/>
         <v>2480.6955293023257</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="5"/>
+      <c r="E22" s="9">
+        <f t="shared" si="9"/>
         <v>6878.8040617674424</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="5"/>
+      <c r="F22" s="9">
+        <f t="shared" si="9"/>
         <v>11193.240204502325</v>
       </c>
-      <c r="G22" s="10">
-        <f t="shared" si="5"/>
+      <c r="G22" s="9">
+        <f t="shared" si="9"/>
         <v>5332.8844966548822</v>
       </c>
-      <c r="H22" s="10">
-        <f t="shared" si="5"/>
+      <c r="H22" s="9">
+        <f t="shared" si="9"/>
         <v>11324.066392513489</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="5"/>
+      <c r="I22" s="9">
+        <f t="shared" si="9"/>
         <v>15881.812400907904</v>
       </c>
-      <c r="J22" s="10">
-        <f t="shared" si="5"/>
+      <c r="J22" s="9">
+        <f t="shared" si="9"/>
         <v>5044.3972027795307</v>
       </c>
-      <c r="K22" s="10">
-        <f t="shared" si="5"/>
+      <c r="K22" s="9">
+        <f t="shared" si="9"/>
         <v>14870.055401389764</v>
       </c>
-      <c r="L22" s="10">
-        <f t="shared" si="5"/>
+      <c r="L22" s="9">
+        <f t="shared" si="9"/>
         <v>21769.150823950695</v>
       </c>
-      <c r="M22" s="10">
-        <f t="shared" si="5"/>
+      <c r="M22" s="9">
+        <f t="shared" si="9"/>
         <v>6539.8183329055792</v>
       </c>
-      <c r="N22" s="10">
-        <f t="shared" si="5"/>
+      <c r="N22" s="9">
+        <f t="shared" si="9"/>
         <v>21209.365033894654</v>
       </c>
-      <c r="O22" s="10">
-        <f t="shared" si="5"/>
+      <c r="O22" s="9">
+        <f t="shared" si="9"/>
         <v>29792.358277412448</v>
       </c>
-      <c r="P22" s="10">
-        <f t="shared" si="5"/>
+      <c r="P22" s="9">
+        <f t="shared" si="9"/>
         <v>8809.1204573108698</v>
       </c>
-      <c r="Q22" s="10">
-        <f t="shared" si="5"/>
+      <c r="Q22" s="9">
+        <f t="shared" si="9"/>
         <v>28397.213051911247</v>
       </c>
-      <c r="R22" s="10">
-        <f t="shared" si="5"/>
+      <c r="R22" s="9">
+        <f t="shared" si="9"/>
         <v>40458.464135257949</v>
       </c>
-      <c r="S22" s="10">
-        <f t="shared" si="5"/>
+      <c r="S22" s="9">
+        <f t="shared" si="9"/>
         <v>11821.059235070838</v>
       </c>
-      <c r="T22" s="10">
-        <f t="shared" si="5"/>
+      <c r="T22" s="9">
+        <f t="shared" si="9"/>
         <v>38416.074791954023</v>
       </c>
-      <c r="U22" s="10">
-        <f t="shared" si="5"/>
+      <c r="U22" s="9">
+        <f t="shared" si="9"/>
         <v>54238.142047139794</v>
       </c>
-      <c r="V22" s="10">
-        <f t="shared" si="5"/>
+      <c r="V22" s="9">
+        <f t="shared" si="9"/>
         <v>15500.56665147688</v>
       </c>
-      <c r="W22" s="10">
-        <f t="shared" si="5"/>
+      <c r="W22" s="9">
+        <f t="shared" si="9"/>
         <v>46421.473442017501</v>
       </c>
-      <c r="X22" s="10">
-        <f t="shared" si="5"/>
+      <c r="X22" s="9">
+        <f t="shared" si="9"/>
         <v>63058.017825659917</v>
       </c>
-      <c r="Y22" s="10">
-        <f t="shared" si="5"/>
+      <c r="Y22" s="9">
+        <f t="shared" si="9"/>
         <v>17306.784494225307</v>
       </c>
     </row>
@@ -2680,100 +2679,100 @@
       <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <f>B8*12</f>
         <v>11400</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <f>C8*12</f>
         <v>46740</v>
       </c>
-      <c r="D24" s="17">
-        <f t="shared" ref="D24:Y24" si="6">D8*12</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:Y24" si="10">D8*12</f>
         <v>84360.000000000015</v>
       </c>
-      <c r="E24" s="17">
-        <f t="shared" si="6"/>
+      <c r="E24" s="16">
+        <f t="shared" si="10"/>
         <v>121980</v>
       </c>
-      <c r="F24" s="17">
-        <f t="shared" si="6"/>
+      <c r="F24" s="16">
+        <f t="shared" si="10"/>
         <v>159600</v>
       </c>
-      <c r="G24" s="17">
-        <f t="shared" si="6"/>
+      <c r="G24" s="16">
+        <f t="shared" si="10"/>
         <v>192204</v>
       </c>
-      <c r="H24" s="17">
-        <f t="shared" si="6"/>
+      <c r="H24" s="16">
+        <f t="shared" si="10"/>
         <v>232970.40000000002</v>
       </c>
-      <c r="I24" s="17">
-        <f t="shared" si="6"/>
+      <c r="I24" s="16">
+        <f t="shared" si="10"/>
         <v>274831.19999999995</v>
       </c>
-      <c r="J24" s="17">
-        <f t="shared" si="6"/>
+      <c r="J24" s="16">
+        <f t="shared" si="10"/>
         <v>303946.80000000005</v>
       </c>
-      <c r="K24" s="17">
-        <f t="shared" si="6"/>
+      <c r="K24" s="16">
+        <f t="shared" si="10"/>
         <v>331785.59999999998</v>
       </c>
-      <c r="L24" s="17">
-        <f t="shared" si="6"/>
+      <c r="L24" s="16">
+        <f t="shared" si="10"/>
         <v>385160.4</v>
       </c>
-      <c r="M24" s="17">
-        <f t="shared" si="6"/>
+      <c r="M24" s="16">
+        <f t="shared" si="10"/>
         <v>415552.80000000005</v>
       </c>
-      <c r="N24" s="17">
-        <f t="shared" si="6"/>
+      <c r="N24" s="16">
+        <f t="shared" si="10"/>
         <v>480555.60000000003</v>
       </c>
-      <c r="O24" s="17">
-        <f t="shared" si="6"/>
+      <c r="O24" s="16">
+        <f t="shared" si="10"/>
         <v>513706.80000000005</v>
       </c>
-      <c r="P24" s="17">
-        <f t="shared" si="6"/>
+      <c r="P24" s="16">
+        <f t="shared" si="10"/>
         <v>569977.19999999995</v>
       </c>
-      <c r="Q24" s="17">
-        <f t="shared" si="6"/>
+      <c r="Q24" s="16">
+        <f t="shared" si="10"/>
         <v>642367.19999999995</v>
       </c>
-      <c r="R24" s="17">
-        <f t="shared" si="6"/>
+      <c r="R24" s="16">
+        <f t="shared" si="10"/>
         <v>702878.39999999991</v>
       </c>
-      <c r="S24" s="17">
-        <f t="shared" si="6"/>
+      <c r="S24" s="16">
+        <f t="shared" si="10"/>
         <v>761839.2</v>
       </c>
-      <c r="T24" s="17">
-        <f t="shared" si="6"/>
+      <c r="T24" s="16">
+        <f t="shared" si="10"/>
         <v>867745.20000000007</v>
       </c>
-      <c r="U24" s="17">
-        <f t="shared" si="6"/>
+      <c r="U24" s="16">
+        <f t="shared" si="10"/>
         <v>934800</v>
       </c>
-      <c r="V24" s="17">
-        <f t="shared" si="6"/>
+      <c r="V24" s="16">
+        <f t="shared" si="10"/>
         <v>997500</v>
       </c>
-      <c r="W24" s="17">
-        <f t="shared" si="6"/>
+      <c r="W24" s="16">
+        <f t="shared" si="10"/>
         <v>1031700</v>
       </c>
-      <c r="X24" s="17">
-        <f t="shared" si="6"/>
+      <c r="X24" s="16">
+        <f t="shared" si="10"/>
         <v>1063050</v>
       </c>
-      <c r="Y24" s="17">
-        <f t="shared" si="6"/>
+      <c r="Y24" s="16">
+        <f t="shared" si="10"/>
         <v>1122900</v>
       </c>
     </row>
@@ -2781,127 +2780,127 @@
       <c r="A25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="6">
-        <f>C24/B24</f>
+      <c r="C25" s="5">
+        <f t="shared" ref="C25:Y25" si="11">C24/B24</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="D25" s="6">
-        <f>D24/C24</f>
+      <c r="D25" s="5">
+        <f t="shared" si="11"/>
         <v>1.8048780487804881</v>
       </c>
-      <c r="E25" s="6">
-        <f>E24/D24</f>
+      <c r="E25" s="5">
+        <f t="shared" si="11"/>
         <v>1.4459459459459456</v>
       </c>
-      <c r="F25" s="6">
-        <f>F24/E24</f>
+      <c r="F25" s="5">
+        <f t="shared" si="11"/>
         <v>1.308411214953271</v>
       </c>
-      <c r="G25" s="6">
-        <f>G24/F24</f>
+      <c r="G25" s="5">
+        <f t="shared" si="11"/>
         <v>1.2042857142857142</v>
       </c>
-      <c r="H25" s="6">
-        <f>H24/G24</f>
+      <c r="H25" s="5">
+        <f t="shared" si="11"/>
         <v>1.212099644128114</v>
       </c>
-      <c r="I25" s="6">
-        <f>I24/H24</f>
+      <c r="I25" s="5">
+        <f t="shared" si="11"/>
         <v>1.1796829125073396</v>
       </c>
-      <c r="J25" s="6">
-        <f>J24/I24</f>
+      <c r="J25" s="5">
+        <f t="shared" si="11"/>
         <v>1.1059399369503902</v>
       </c>
-      <c r="K25" s="6">
-        <f>K24/J24</f>
+      <c r="K25" s="5">
+        <f t="shared" si="11"/>
         <v>1.091591028429975</v>
       </c>
-      <c r="L25" s="6">
-        <f>L24/K24</f>
+      <c r="L25" s="5">
+        <f t="shared" si="11"/>
         <v>1.16087135788895</v>
       </c>
-      <c r="M25" s="6">
-        <f>M24/L24</f>
+      <c r="M25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0789084236074113</v>
       </c>
-      <c r="N25" s="6">
-        <f>N24/M24</f>
+      <c r="N25" s="5">
+        <f t="shared" si="11"/>
         <v>1.1564248875233183</v>
       </c>
-      <c r="O25" s="6">
-        <f>O24/N24</f>
+      <c r="O25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0689851496892346</v>
       </c>
-      <c r="P25" s="6">
-        <f>P24/O24</f>
+      <c r="P25" s="5">
+        <f t="shared" si="11"/>
         <v>1.1095379699081265</v>
       </c>
-      <c r="Q25" s="6">
-        <f>Q24/P24</f>
+      <c r="Q25" s="5">
+        <f t="shared" si="11"/>
         <v>1.1270050802032081</v>
       </c>
-      <c r="R25" s="6">
-        <f>R24/Q24</f>
+      <c r="R25" s="5">
+        <f t="shared" si="11"/>
         <v>1.094200326542202</v>
       </c>
-      <c r="S25" s="6">
-        <f>S24/R24</f>
+      <c r="S25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0838847800700662</v>
       </c>
-      <c r="T25" s="6">
-        <f>T24/S24</f>
+      <c r="T25" s="5">
+        <f t="shared" si="11"/>
         <v>1.1390135871191718</v>
       </c>
-      <c r="U25" s="6">
-        <f>U24/T24</f>
+      <c r="U25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0772747576131794</v>
       </c>
-      <c r="V25" s="6">
-        <f>V24/U24</f>
+      <c r="V25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0670731707317074</v>
       </c>
-      <c r="W25" s="6">
-        <f>W24/V24</f>
+      <c r="W25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0342857142857143</v>
       </c>
-      <c r="X25" s="6">
-        <f>X24/W24</f>
+      <c r="X25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0303867403314917</v>
       </c>
-      <c r="Y25" s="6">
-        <f>Y24/X24</f>
+      <c r="Y25" s="5">
+        <f t="shared" si="11"/>
         <v>1.0563002680965148</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2909,100 +2908,100 @@
       <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="16">
-        <f>B5</f>
+      <c r="B30" s="15">
+        <f t="shared" ref="B30:Y30" si="12">B5</f>
         <v>50</v>
       </c>
-      <c r="C30" s="16">
-        <f>C5</f>
+      <c r="C30" s="15">
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="D30" s="16">
-        <f>D5</f>
+      <c r="D30" s="15">
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
-      <c r="E30" s="16">
-        <f>E5</f>
+      <c r="E30" s="15">
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
-      <c r="F30" s="16">
-        <f>F5</f>
+      <c r="F30" s="15">
+        <f t="shared" si="12"/>
         <v>650</v>
       </c>
-      <c r="G30" s="16">
-        <f>G5</f>
+      <c r="G30" s="15">
+        <f t="shared" si="12"/>
         <v>700</v>
       </c>
-      <c r="H30" s="16">
-        <f>H5</f>
+      <c r="H30" s="15">
+        <f t="shared" si="12"/>
         <v>850</v>
       </c>
-      <c r="I30" s="16">
-        <f>I5</f>
+      <c r="I30" s="15">
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
-      <c r="J30" s="16">
-        <f>J5</f>
+      <c r="J30" s="15">
+        <f t="shared" si="12"/>
         <v>1100</v>
       </c>
-      <c r="K30" s="16">
-        <f>K5</f>
+      <c r="K30" s="15">
+        <f t="shared" si="12"/>
         <v>1200</v>
       </c>
-      <c r="L30" s="16">
-        <f>L5</f>
+      <c r="L30" s="15">
+        <f t="shared" si="12"/>
         <v>1400</v>
       </c>
-      <c r="M30" s="16">
-        <f>M5</f>
+      <c r="M30" s="15">
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
-      <c r="N30" s="16">
-        <f>N5</f>
+      <c r="N30" s="15">
+        <f t="shared" si="12"/>
         <v>1650</v>
       </c>
-      <c r="O30" s="16">
-        <f>O5</f>
+      <c r="O30" s="15">
+        <f t="shared" si="12"/>
         <v>1750</v>
       </c>
-      <c r="P30" s="16">
-        <f>P5</f>
+      <c r="P30" s="15">
+        <f t="shared" si="12"/>
         <v>1950</v>
       </c>
-      <c r="Q30" s="16">
-        <f>Q5</f>
+      <c r="Q30" s="15">
+        <f t="shared" si="12"/>
         <v>2200</v>
       </c>
-      <c r="R30" s="16">
-        <f>R5</f>
+      <c r="R30" s="15">
+        <f t="shared" si="12"/>
         <v>2400</v>
       </c>
-      <c r="S30" s="16">
-        <f>S5</f>
+      <c r="S30" s="15">
+        <f t="shared" si="12"/>
         <v>2600</v>
       </c>
-      <c r="T30" s="16">
-        <f>T5</f>
+      <c r="T30" s="15">
+        <f t="shared" si="12"/>
         <v>2800</v>
       </c>
-      <c r="U30" s="16">
-        <f>U5</f>
+      <c r="U30" s="15">
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
-      <c r="V30" s="16">
-        <f>V5</f>
+      <c r="V30" s="15">
+        <f t="shared" si="12"/>
         <v>3200</v>
       </c>
-      <c r="W30" s="16">
-        <f>W5</f>
+      <c r="W30" s="15">
+        <f t="shared" si="12"/>
         <v>3300</v>
       </c>
-      <c r="X30" s="16">
-        <f>X5</f>
+      <c r="X30" s="15">
+        <f t="shared" si="12"/>
         <v>3400</v>
       </c>
-      <c r="Y30" s="16">
-        <f>Y5</f>
+      <c r="Y30" s="15">
+        <f t="shared" si="12"/>
         <v>3600</v>
       </c>
     </row>
@@ -3010,76 +3009,76 @@
       <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>0.9</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>0.9</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <v>0.9</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <v>0.9</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>0.9</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <v>0.9</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <v>0.9</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <v>0.85</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <v>0.85</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>0.85</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <v>0.85</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="3">
         <v>0.85</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="3">
         <v>0.85</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <v>0.8</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31" s="3">
         <v>0.8</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31" s="3">
         <v>0.8</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="3">
         <v>0.8</v>
       </c>
-      <c r="X31" s="4">
+      <c r="X31" s="3">
         <v>0.8</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="Y31" s="3">
         <v>0.8</v>
       </c>
     </row>
@@ -3088,23 +3087,23 @@
         <v>55</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:F32" si="7">ROUND(B30/B31,0)</f>
+        <f t="shared" ref="B32:F32" si="13">ROUND(B30/B31,0)</f>
         <v>50</v>
       </c>
       <c r="C32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="D32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>350</v>
       </c>
       <c r="E32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>650</v>
       </c>
       <c r="G32">
@@ -3112,75 +3111,75 @@
         <v>778</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:Y32" si="8">ROUND(H30/H31,0)</f>
+        <f t="shared" ref="H32:Y32" si="14">ROUND(H30/H31,0)</f>
         <v>944</v>
       </c>
       <c r="I32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1111</v>
       </c>
       <c r="J32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1222</v>
       </c>
       <c r="K32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1333</v>
       </c>
       <c r="L32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1556</v>
       </c>
       <c r="M32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1667</v>
       </c>
       <c r="N32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1941</v>
       </c>
       <c r="O32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2059</v>
       </c>
       <c r="P32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2294</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2588</v>
       </c>
       <c r="R32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2824</v>
       </c>
       <c r="S32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3059</v>
       </c>
       <c r="T32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3500</v>
       </c>
       <c r="U32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3750</v>
       </c>
       <c r="V32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4000</v>
       </c>
       <c r="W32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4125</v>
       </c>
       <c r="X32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4250</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4500</v>
       </c>
     </row>
@@ -3289,76 +3288,76 @@
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="R35" s="12">
+      <c r="R35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="S35" s="12">
+      <c r="S35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="T35" s="12">
+      <c r="T35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U35" s="12">
+      <c r="U35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="V35" s="12">
+      <c r="V35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="W35" s="12">
+      <c r="W35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="X35" s="12">
+      <c r="X35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y35" s="11">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -3379,193 +3378,193 @@
         <v>11.200000000000001</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:M36" si="9">E32*E35</f>
+        <f t="shared" ref="E36:M36" si="15">E32*E35</f>
         <v>16</v>
       </c>
       <c r="F36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>20.8</v>
       </c>
       <c r="G36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>24.896000000000001</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>30.208000000000002</v>
       </c>
       <c r="I36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>35.552</v>
       </c>
       <c r="J36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>39.103999999999999</v>
       </c>
       <c r="K36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>42.655999999999999</v>
       </c>
       <c r="L36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>49.792000000000002</v>
       </c>
       <c r="M36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>53.344000000000001</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36" si="10">N32*N35</f>
+        <f t="shared" ref="N36" si="16">N32*N35</f>
         <v>62.112000000000002</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36" si="11">O32*O35</f>
+        <f t="shared" ref="O36" si="17">O32*O35</f>
         <v>65.888000000000005</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36" si="12">P32*P35</f>
+        <f t="shared" ref="P36" si="18">P32*P35</f>
         <v>73.408000000000001</v>
       </c>
       <c r="Q36">
-        <f t="shared" ref="Q36" si="13">Q32*Q35</f>
+        <f t="shared" ref="Q36" si="19">Q32*Q35</f>
         <v>82.816000000000003</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36" si="14">R32*R35</f>
+        <f t="shared" ref="R36" si="20">R32*R35</f>
         <v>90.367999999999995</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36" si="15">S32*S35</f>
+        <f t="shared" ref="S36" si="21">S32*S35</f>
         <v>97.888000000000005</v>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36" si="16">T32*T35</f>
+        <f t="shared" ref="T36" si="22">T32*T35</f>
         <v>112</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36" si="17">U32*U35</f>
+        <f t="shared" ref="U36" si="23">U32*U35</f>
         <v>120</v>
       </c>
       <c r="V36">
-        <f t="shared" ref="V36" si="18">V32*V35</f>
+        <f t="shared" ref="V36" si="24">V32*V35</f>
         <v>128</v>
       </c>
       <c r="W36">
-        <f t="shared" ref="W36" si="19">W32*W35</f>
+        <f t="shared" ref="W36" si="25">W32*W35</f>
         <v>132</v>
       </c>
       <c r="X36">
-        <f t="shared" ref="X36" si="20">X32*X35</f>
+        <f t="shared" ref="X36" si="26">X32*X35</f>
         <v>136</v>
       </c>
       <c r="Y36">
-        <f t="shared" ref="Y36" si="21">Y32*Y35</f>
+        <f t="shared" ref="Y36" si="27">Y32*Y35</f>
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <f>B34*B36</f>
         <v>950</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <f>C34*C36</f>
         <v>3800</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <f>D34*D36</f>
         <v>6650.0000000000009</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" ref="E38:M38" si="22">E34*E36</f>
+      <c r="E38" s="9">
+        <f t="shared" ref="E38:M38" si="28">E34*E36</f>
         <v>9500</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="22"/>
+      <c r="F38" s="9">
+        <f t="shared" si="28"/>
         <v>12350</v>
       </c>
-      <c r="G38" s="10">
-        <f t="shared" si="22"/>
+      <c r="G38" s="9">
+        <f t="shared" si="28"/>
         <v>14782</v>
       </c>
-      <c r="H38" s="10">
-        <f t="shared" si="22"/>
+      <c r="H38" s="9">
+        <f t="shared" si="28"/>
         <v>17936</v>
       </c>
-      <c r="I38" s="10">
-        <f t="shared" si="22"/>
+      <c r="I38" s="9">
+        <f t="shared" si="28"/>
         <v>21109</v>
       </c>
-      <c r="J38" s="10">
-        <f t="shared" si="22"/>
+      <c r="J38" s="9">
+        <f t="shared" si="28"/>
         <v>23218</v>
       </c>
-      <c r="K38" s="10">
-        <f t="shared" si="22"/>
+      <c r="K38" s="9">
+        <f t="shared" si="28"/>
         <v>25327</v>
       </c>
-      <c r="L38" s="10">
-        <f t="shared" si="22"/>
+      <c r="L38" s="9">
+        <f t="shared" si="28"/>
         <v>29564</v>
       </c>
-      <c r="M38" s="10">
-        <f t="shared" si="22"/>
+      <c r="M38" s="9">
+        <f t="shared" si="28"/>
         <v>31673</v>
       </c>
-      <c r="N38" s="10">
-        <f t="shared" ref="N38:Y38" si="23">N34*N36</f>
+      <c r="N38" s="9">
+        <f t="shared" ref="N38:Y38" si="29">N34*N36</f>
         <v>36879</v>
       </c>
-      <c r="O38" s="10">
-        <f t="shared" si="23"/>
+      <c r="O38" s="9">
+        <f t="shared" si="29"/>
         <v>39121</v>
       </c>
-      <c r="P38" s="10">
-        <f t="shared" si="23"/>
+      <c r="P38" s="9">
+        <f t="shared" si="29"/>
         <v>43586</v>
       </c>
-      <c r="Q38" s="10">
-        <f t="shared" si="23"/>
+      <c r="Q38" s="9">
+        <f t="shared" si="29"/>
         <v>49172</v>
       </c>
-      <c r="R38" s="10">
-        <f t="shared" si="23"/>
+      <c r="R38" s="9">
+        <f t="shared" si="29"/>
         <v>53656</v>
       </c>
-      <c r="S38" s="10">
-        <f t="shared" si="23"/>
+      <c r="S38" s="9">
+        <f t="shared" si="29"/>
         <v>58121</v>
       </c>
-      <c r="T38" s="10">
-        <f t="shared" si="23"/>
+      <c r="T38" s="9">
+        <f t="shared" si="29"/>
         <v>66500</v>
       </c>
-      <c r="U38" s="10">
-        <f t="shared" si="23"/>
+      <c r="U38" s="9">
+        <f t="shared" si="29"/>
         <v>71250</v>
       </c>
-      <c r="V38" s="10">
-        <f t="shared" si="23"/>
+      <c r="V38" s="9">
+        <f t="shared" si="29"/>
         <v>76000</v>
       </c>
-      <c r="W38" s="10">
-        <f t="shared" si="23"/>
+      <c r="W38" s="9">
+        <f t="shared" si="29"/>
         <v>78375</v>
       </c>
-      <c r="X38" s="10">
-        <f t="shared" si="23"/>
+      <c r="X38" s="9">
+        <f t="shared" si="29"/>
         <v>80750</v>
       </c>
-      <c r="Y38" s="10">
-        <f t="shared" si="23"/>
+      <c r="Y38" s="9">
+        <f t="shared" si="29"/>
         <v>85500</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3573,170 +3572,170 @@
       <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <v>0.1</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>0.1</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>0.1</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="13">
         <v>0.1</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="13">
         <v>0.1</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <v>0.1</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="13">
         <v>0.1</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="13">
         <v>0.1</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <v>0.1</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="13">
         <v>0.1</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M43" s="13">
         <v>0.1</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="13">
         <v>0.1</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="13">
         <v>0.1</v>
       </c>
-      <c r="P43" s="14">
+      <c r="P43" s="13">
         <v>0.1</v>
       </c>
-      <c r="Q43" s="14">
+      <c r="Q43" s="13">
         <v>0.1</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="13">
         <v>0.1</v>
       </c>
-      <c r="S43" s="14">
+      <c r="S43" s="13">
         <v>0.1</v>
       </c>
-      <c r="T43" s="14">
+      <c r="T43" s="13">
         <v>0.1</v>
       </c>
-      <c r="U43" s="14">
+      <c r="U43" s="13">
         <v>0.1</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="13">
         <v>0.1</v>
       </c>
-      <c r="W43" s="14">
+      <c r="W43" s="13">
         <v>0.1</v>
       </c>
-      <c r="X43" s="14">
+      <c r="X43" s="13">
         <v>0.1</v>
       </c>
-      <c r="Y43" s="14">
+      <c r="Y43" s="13">
         <v>0.1</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <f>B36*C43*B34</f>
         <v>95.000000000000014</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <f>C36*D43*C34</f>
         <v>380.00000000000006</v>
       </c>
-      <c r="E44" s="10">
-        <f t="shared" ref="E44:M44" si="24">D36*E43*D34</f>
+      <c r="E44" s="9">
+        <f t="shared" ref="E44:M44" si="30">D36*E43*D34</f>
         <v>665.00000000000011</v>
       </c>
-      <c r="F44" s="10">
-        <f t="shared" si="24"/>
+      <c r="F44" s="9">
+        <f t="shared" si="30"/>
         <v>950</v>
       </c>
-      <c r="G44" s="10">
-        <f t="shared" si="24"/>
+      <c r="G44" s="9">
+        <f t="shared" si="30"/>
         <v>1235</v>
       </c>
-      <c r="H44" s="10">
-        <f t="shared" si="24"/>
+      <c r="H44" s="9">
+        <f t="shared" si="30"/>
         <v>1478.2</v>
       </c>
-      <c r="I44" s="10">
-        <f t="shared" si="24"/>
+      <c r="I44" s="9">
+        <f t="shared" si="30"/>
         <v>1793.6000000000001</v>
       </c>
-      <c r="J44" s="10">
-        <f t="shared" si="24"/>
+      <c r="J44" s="9">
+        <f t="shared" si="30"/>
         <v>2110.9</v>
       </c>
-      <c r="K44" s="10">
-        <f t="shared" si="24"/>
+      <c r="K44" s="9">
+        <f t="shared" si="30"/>
         <v>2321.8000000000002</v>
       </c>
-      <c r="L44" s="10">
-        <f t="shared" si="24"/>
+      <c r="L44" s="9">
+        <f t="shared" si="30"/>
         <v>2532.6999999999998</v>
       </c>
-      <c r="M44" s="10">
-        <f t="shared" si="24"/>
+      <c r="M44" s="9">
+        <f t="shared" si="30"/>
         <v>2956.4</v>
       </c>
-      <c r="N44" s="10">
-        <f t="shared" ref="N44" si="25">M36*N43*M34</f>
+      <c r="N44" s="9">
+        <f t="shared" ref="N44" si="31">M36*N43*M34</f>
         <v>3167.3</v>
       </c>
-      <c r="O44" s="10">
-        <f t="shared" ref="O44" si="26">N36*O43*N34</f>
+      <c r="O44" s="9">
+        <f t="shared" ref="O44" si="32">N36*O43*N34</f>
         <v>3687.9000000000005</v>
       </c>
-      <c r="P44" s="10">
-        <f t="shared" ref="P44" si="27">O36*P43*O34</f>
+      <c r="P44" s="9">
+        <f t="shared" ref="P44" si="33">O36*P43*O34</f>
         <v>3912.1000000000004</v>
       </c>
-      <c r="Q44" s="10">
-        <f t="shared" ref="Q44" si="28">P36*Q43*P34</f>
+      <c r="Q44" s="9">
+        <f t="shared" ref="Q44" si="34">P36*Q43*P34</f>
         <v>4358.6000000000004</v>
       </c>
-      <c r="R44" s="10">
-        <f t="shared" ref="R44" si="29">Q36*R43*Q34</f>
+      <c r="R44" s="9">
+        <f t="shared" ref="R44" si="35">Q36*R43*Q34</f>
         <v>4917.2000000000007</v>
       </c>
-      <c r="S44" s="10">
-        <f t="shared" ref="S44" si="30">R36*S43*R34</f>
+      <c r="S44" s="9">
+        <f t="shared" ref="S44" si="36">R36*S43*R34</f>
         <v>5365.5999999999995</v>
       </c>
-      <c r="T44" s="10">
-        <f t="shared" ref="T44" si="31">S36*T43*S34</f>
+      <c r="T44" s="9">
+        <f t="shared" ref="T44" si="37">S36*T43*S34</f>
         <v>5812.1000000000013</v>
       </c>
-      <c r="U44" s="10">
-        <f t="shared" ref="U44" si="32">T36*U43*T34</f>
+      <c r="U44" s="9">
+        <f t="shared" ref="U44" si="38">T36*U43*T34</f>
         <v>6650.0000000000009</v>
       </c>
-      <c r="V44" s="10">
-        <f t="shared" ref="V44" si="33">U36*V43*U34</f>
+      <c r="V44" s="9">
+        <f t="shared" ref="V44" si="39">U36*V43*U34</f>
         <v>7125</v>
       </c>
-      <c r="W44" s="10">
-        <f t="shared" ref="W44" si="34">V36*W43*V34</f>
+      <c r="W44" s="9">
+        <f t="shared" ref="W44" si="40">V36*W43*V34</f>
         <v>7600</v>
       </c>
-      <c r="X44" s="10">
-        <f t="shared" ref="X44" si="35">W36*X43*W34</f>
+      <c r="X44" s="9">
+        <f t="shared" ref="X44" si="41">W36*X43*W34</f>
         <v>7837.5000000000009</v>
       </c>
-      <c r="Y44" s="10">
-        <f t="shared" ref="Y44" si="36">X36*Y43*X34</f>
+      <c r="Y44" s="9">
+        <f t="shared" ref="Y44" si="42">X36*Y43*X34</f>
         <v>8075.0000000000009</v>
       </c>
     </row>
@@ -3766,9 +3765,9 @@
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3792,8 +3791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
   <dimension ref="C5:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3808,13 +3807,13 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.45</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.35</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -3846,22 +3845,22 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.19</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.37</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="I8" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I8" s="6">
-        <v>0.63</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.69</v>
       </c>
     </row>
@@ -3869,27 +3868,27 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <f>D10+D10*D8</f>
         <v>297.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <f>E10+E10*E8</f>
-        <v>678.15</v>
-      </c>
-      <c r="F9" s="3">
+        <v>633.6</v>
+      </c>
+      <c r="F9">
         <f>F10+F10*F8</f>
         <v>2109.8000000000002</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <f>H10+H10*H8</f>
-        <v>5450.9999999999991</v>
-      </c>
-      <c r="I9" s="3">
+        <v>5140.4999999999991</v>
+      </c>
+      <c r="I9">
         <f>I10+I10*I8</f>
-        <v>7237.2</v>
-      </c>
-      <c r="J9" s="3">
+        <v>7015.2</v>
+      </c>
+      <c r="J9">
         <f>J10+J10*J8</f>
         <v>8450</v>
       </c>
@@ -3927,22 +3926,22 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>200</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>500</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>2000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>5000</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>12000</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>20000</v>
       </c>
     </row>
@@ -3964,7 +3963,7 @@
       </c>
       <c r="E13" s="1">
         <f>E9/E11</f>
-        <v>1.3563000000000001</v>
+        <v>1.2672000000000001</v>
       </c>
       <c r="F13" s="1">
         <f>F9/F11</f>
@@ -3972,11 +3971,11 @@
       </c>
       <c r="H13" s="1">
         <f>H9/H11</f>
-        <v>1.0901999999999998</v>
+        <v>1.0280999999999998</v>
       </c>
       <c r="I13" s="1">
         <f>I9/I11</f>
-        <v>0.60309999999999997</v>
+        <v>0.58460000000000001</v>
       </c>
       <c r="J13" s="1">
         <f>J9/J11</f>
@@ -3987,22 +3986,22 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>1.25</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>0.99</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.77</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0.69</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>0.37</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>0.25</v>
       </c>
     </row>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7606E7B1-F793-4550-B8DE-FD7DE8C47134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CABE287-F479-4294-8CE9-E47B8C5150E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="345" yWindow="1575" windowWidth="19200" windowHeight="12405" activeTab="2" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
   <si>
     <t>Shared Plus Hosting</t>
   </si>
@@ -320,6 +322,54 @@
   </si>
   <si>
     <t>domein</t>
+  </si>
+  <si>
+    <t>Worklog</t>
+  </si>
+  <si>
+    <t>Sended 83 emails</t>
+  </si>
+  <si>
+    <t>at 13:52</t>
+  </si>
+  <si>
+    <t>1min</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Took</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Find template</t>
+  </si>
+  <si>
+    <t>Build Django Site and host</t>
+  </si>
+  <si>
+    <t>Hubspot email campaine komt in spam terecht, build email bot dat niet in spam komt</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Sendded mail</t>
+  </si>
+  <si>
+    <t>Check 1 week later Conversie</t>
   </si>
 </sst>
 </file>
@@ -327,11 +377,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -412,28 +462,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -769,11 +820,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A449F407-5671-4298-9D79-D2407E4A29DF}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>45374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>45397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>45398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>45399</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="18">
+        <v>45396</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="18">
+        <v>45397</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H22" s="18">
+        <v>45398</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H23" s="18">
+        <v>45399</v>
+      </c>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D7762B-738E-4C31-B036-23C8D83BCAF8}">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,10 +1065,10 @@
       </c>
       <c r="C12">
         <f>ROUND(C10*D12,0)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>3.2000000000000001E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -911,7 +1086,7 @@
       </c>
       <c r="C15" s="9">
         <f>C14*C12</f>
-        <v>1781.25</v>
+        <v>5937.5</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -920,7 +1095,7 @@
       </c>
       <c r="C16" s="1">
         <f>C15*21%</f>
-        <v>374.0625</v>
+        <v>1246.875</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -929,7 +1104,7 @@
       </c>
       <c r="C17" s="2">
         <f>C15/ (AVERAGE(Sheet3!D14:F14))</f>
-        <v>1775.3322259136212</v>
+        <v>5917.7740863787367</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -938,7 +1113,7 @@
       </c>
       <c r="C18" s="1">
         <f>C17/10000 * 49</f>
-        <v>8.6991279069767433</v>
+        <v>28.997093023255808</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -962,11 +1137,11 @@
       </c>
       <c r="C21" s="1">
         <f>C15-C16-C18-C19</f>
-        <v>1344.4883720930231</v>
+        <v>4607.6279069767443</v>
       </c>
       <c r="D21" s="10">
         <f>C21/C15</f>
-        <v>0.75480048959608315</v>
+        <v>0.77602154222766218</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1027,7 +1202,7 @@
       </c>
       <c r="C37" s="1">
         <f>C21+C36</f>
-        <v>394.48837209302314</v>
+        <v>3657.6279069767443</v>
       </c>
     </row>
   </sheetData>
@@ -1035,12 +1210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D050417B-3273-4955-A7A8-F9E9DF39BEC5}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,99 +1311,99 @@
       </c>
       <c r="B2" s="17">
         <f>B22</f>
-        <v>221.34534883720931</v>
+        <v>213.22616279069769</v>
       </c>
       <c r="C2" s="17">
-        <f>C22+B2</f>
-        <v>1212.7707122093022</v>
+        <f t="shared" ref="C2:Y2" si="0">C22+B2</f>
+        <v>1167.1002906976746</v>
       </c>
       <c r="D2" s="17">
-        <f>D22+C2</f>
-        <v>3368.0558466569764</v>
+        <f t="shared" si="0"/>
+        <v>3242.1577180232562</v>
       </c>
       <c r="E2" s="17">
-        <f>E22+D2</f>
-        <v>6994.2193125726735</v>
+        <f t="shared" si="0"/>
+        <v>6708.3133398255814</v>
       </c>
       <c r="F2" s="17">
-        <f>F22+E2</f>
-        <v>12728.256636308139</v>
+        <f t="shared" si="0"/>
+        <v>12218.468776860464</v>
       </c>
       <c r="G2" s="17">
-        <f>G22+F2</f>
-        <v>20463.063696247093</v>
+        <f t="shared" si="0"/>
+        <v>19666.711966406976</v>
       </c>
       <c r="H2" s="17">
-        <f>H22+G2</f>
-        <v>33517.732309314539</v>
+        <f t="shared" si="0"/>
+        <v>32248.553901765117</v>
       </c>
       <c r="I2" s="17">
-        <f>I22+H2</f>
-        <v>44197.849173987794</v>
+        <f t="shared" si="0"/>
+        <v>42399.966729909305</v>
       </c>
       <c r="J2" s="17">
-        <f>J22+I2</f>
-        <v>58552.226210975583</v>
+        <f t="shared" si="0"/>
+        <v>56173.343492818611</v>
       </c>
       <c r="K2" s="17">
-        <f>K22+J2</f>
-        <v>75660.002229469479</v>
+        <f t="shared" si="0"/>
+        <v>72641.494374273258</v>
       </c>
       <c r="L2" s="17">
-        <f>L22+K2</f>
-        <v>95709.745180576894</v>
+        <f t="shared" si="0"/>
+        <v>91965.465454535472</v>
       </c>
       <c r="M2" s="17">
-        <f>M22+L2</f>
-        <v>110842.82014450269</v>
+        <f t="shared" si="0"/>
+        <v>106305.33762257356</v>
       </c>
       <c r="N2" s="17">
-        <f>N22+M2</f>
-        <v>132696.58175437257</v>
+        <f t="shared" si="0"/>
+        <v>127259.10829961585</v>
       </c>
       <c r="O2" s="17">
-        <f>O22+N2</f>
-        <v>158962.33058256333</v>
+        <f t="shared" si="0"/>
+        <v>152538.99538232305</v>
       </c>
       <c r="P2" s="17">
-        <f>P22+O2</f>
-        <v>188999.34046177499</v>
+        <f t="shared" si="0"/>
+        <v>181490.37380739755</v>
       </c>
       <c r="Q2" s="17">
-        <f>Q22+P2</f>
-        <v>212273.75935486919</v>
+        <f t="shared" si="0"/>
+        <v>203548.08453156272</v>
       </c>
       <c r="R2" s="17">
-        <f>R22+Q2</f>
-        <v>244795.13769676513</v>
+        <f t="shared" si="0"/>
+        <v>234730.3820448081</v>
       </c>
       <c r="S2" s="17">
-        <f>S22+R2</f>
-        <v>283795.09605375963</v>
+        <f t="shared" si="0"/>
+        <v>272265.11975491914</v>
       </c>
       <c r="T2" s="17">
-        <f>T22+S2</f>
-        <v>329244.87930202432</v>
+        <f t="shared" si="0"/>
+        <v>316072.94384253281</v>
       </c>
       <c r="U2" s="17">
-        <f>U22+T2</f>
-        <v>363618.50028662174</v>
+        <f t="shared" si="0"/>
+        <v>348651.28292122338</v>
       </c>
       <c r="V2" s="17">
-        <f>V22+U2</f>
-        <v>410645.81543008325</v>
+        <f t="shared" si="0"/>
+        <v>393741.70129777794</v>
       </c>
       <c r="W2" s="17">
-        <f>W22+V2</f>
-        <v>465029.05904832564</v>
+        <f t="shared" si="0"/>
+        <v>446084.7639744273</v>
       </c>
       <c r="X2" s="17">
-        <f>X22+W2</f>
-        <v>524029.09829930728</v>
+        <f t="shared" si="0"/>
+        <v>502960.50345228688</v>
       </c>
       <c r="Y2" s="17">
-        <f>Y22+X2</f>
-        <v>565479.19815735624</v>
+        <f t="shared" si="0"/>
+        <v>542179.29063307715</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1327,95 +1502,95 @@
       </c>
       <c r="C6" s="9">
         <f>B25</f>
-        <v>774.70872093023263</v>
+        <v>746.29156976744184</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:Y6" si="0">C25</f>
-        <v>2577.7059447674419</v>
+        <f t="shared" ref="D6:Y6" si="1">C25</f>
+        <v>2480.0727325581397</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="0"/>
-        <v>5603.741349563953</v>
+        <f t="shared" si="1"/>
+        <v>5395.1493110465117</v>
       </c>
       <c r="F6" s="9">
         <f>E25</f>
-        <v>7252.326931831396</v>
+        <v>6932.3112436046504</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="0"/>
-        <v>11468.074647470932</v>
+        <f t="shared" si="1"/>
+        <v>11020.310874069766</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>15469.614119877908</v>
+        <f t="shared" si="1"/>
+        <v>14896.486379093025</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="0"/>
-        <v>16318.335766334303</v>
+        <f t="shared" si="1"/>
+        <v>15727.302419197673</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="0"/>
-        <v>13350.146080841569</v>
+        <f t="shared" si="1"/>
+        <v>12689.26603518023</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="0"/>
-        <v>17942.97129623474</v>
+        <f t="shared" si="1"/>
+        <v>17216.720953636624</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="0"/>
-        <v>21384.72002311737</v>
+        <f t="shared" si="1"/>
+        <v>20585.188601818314</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="0"/>
-        <v>25062.178688884269</v>
+        <f t="shared" si="1"/>
+        <v>24154.963850327757</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="0"/>
-        <v>18916.343704907249</v>
+        <f t="shared" si="1"/>
+        <v>17924.840210047598</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" si="0"/>
-        <v>27317.20201233734</v>
+        <f t="shared" si="1"/>
+        <v>26192.213346302862</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="0"/>
-        <v>32832.186035238432</v>
+        <f t="shared" si="1"/>
+        <v>31599.858853383979</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="0"/>
-        <v>37546.262349014563</v>
+        <f t="shared" si="1"/>
+        <v>36189.22303134315</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="0"/>
-        <v>29093.02361636774</v>
+        <f t="shared" si="1"/>
+        <v>27572.13840520646</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="0"/>
-        <v>40651.722927369919</v>
+        <f t="shared" si="1"/>
+        <v>38977.871891556715</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="0"/>
-        <v>48749.947946243097</v>
+        <f t="shared" si="1"/>
+        <v>46918.422137638816</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" si="0"/>
-        <v>56812.229060330836</v>
+        <f t="shared" si="1"/>
+        <v>54759.780109517073</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="0"/>
-        <v>42967.026230746815</v>
+        <f t="shared" si="1"/>
+        <v>40722.923848363178</v>
       </c>
       <c r="W6" s="9">
-        <f t="shared" si="0"/>
-        <v>58784.143929326892</v>
+        <f t="shared" si="1"/>
+        <v>56363.022970693215</v>
       </c>
       <c r="X6" s="9">
-        <f t="shared" si="0"/>
-        <v>67979.054522802981</v>
+        <f t="shared" si="1"/>
+        <v>65428.828345811722</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" si="0"/>
-        <v>73750.04906372707</v>
+        <f t="shared" si="1"/>
+        <v>71094.674347324471</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1587,96 +1762,96 @@
         <v>50</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:Y9" si="1">C6-C7-C8</f>
-        <v>574.70872093023263</v>
+        <f t="shared" ref="C9:Y9" si="2">C6-C7-C8</f>
+        <v>546.29156976744184</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="1"/>
-        <v>2227.7059447674419</v>
+        <f t="shared" si="2"/>
+        <v>2130.0727325581397</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
-        <v>2634.928849563953</v>
+        <f t="shared" si="2"/>
+        <v>2426.3368110465117</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
-        <v>6602.326931831396</v>
+        <f t="shared" si="2"/>
+        <v>6282.3112436046504</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
-        <v>10768.074647470932</v>
+        <f t="shared" si="2"/>
+        <v>10320.310874069766</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
-        <v>14619.614119877908</v>
+        <f t="shared" si="2"/>
+        <v>14046.486379093025</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
-        <v>5069.0232663343031</v>
+        <f t="shared" si="2"/>
+        <v>4477.9899191976729</v>
       </c>
       <c r="J9" s="15">
-        <f t="shared" si="1"/>
-        <v>12250.146080841569</v>
+        <f t="shared" si="2"/>
+        <v>11589.26603518023</v>
       </c>
       <c r="K9" s="15">
-        <f t="shared" si="1"/>
-        <v>16742.97129623474</v>
+        <f t="shared" si="2"/>
+        <v>16016.720953636624</v>
       </c>
       <c r="L9" s="15">
-        <f t="shared" si="1"/>
-        <v>19984.72002311737</v>
+        <f t="shared" si="2"/>
+        <v>19185.188601818314</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="1"/>
-        <v>5632.1161888842689</v>
+        <f t="shared" si="2"/>
+        <v>4724.9013503277565</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
-        <v>17266.343704907249</v>
+        <f t="shared" si="2"/>
+        <v>16274.840210047598</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
-        <v>25567.20201233734</v>
+        <f t="shared" si="2"/>
+        <v>24442.213346302862</v>
       </c>
       <c r="P9" s="15">
-        <f t="shared" si="1"/>
-        <v>30882.186035238432</v>
+        <f t="shared" si="2"/>
+        <v>29649.858853383979</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="1"/>
-        <v>8027.2310990145634</v>
+        <f t="shared" si="2"/>
+        <v>6670.1917813431501</v>
       </c>
       <c r="R9" s="15">
-        <f t="shared" si="1"/>
-        <v>26693.02361636774</v>
+        <f t="shared" si="2"/>
+        <v>25172.13840520646</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
-        <v>38051.722927369919</v>
+        <f t="shared" si="2"/>
+        <v>36377.871891556715</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="1"/>
-        <v>45949.947946243097</v>
+        <f t="shared" si="2"/>
+        <v>44118.422137638816</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="1"/>
-        <v>13026.947810330836</v>
+        <f t="shared" si="2"/>
+        <v>10974.498859517073</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" si="1"/>
-        <v>39767.026230746815</v>
+        <f t="shared" si="2"/>
+        <v>37522.923848363178</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" si="1"/>
-        <v>55484.143929326892</v>
+        <f t="shared" si="2"/>
+        <v>53063.022970693215</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="1"/>
-        <v>64579.054522802981</v>
+        <f t="shared" si="2"/>
+        <v>62028.828345811722</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" si="1"/>
-        <v>16035.67406372707</v>
+        <f t="shared" si="2"/>
+        <v>13380.299347324471</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1722,87 +1897,87 @@
         <v>6887.5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11:Y11" si="2">E41+E47</f>
+        <f t="shared" ref="E11:Y11" si="3">E41+E47</f>
         <v>10153.125</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13418.75</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16090.625</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19296.875</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23156.25</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25293.75</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27846.875</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32240.625</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34437.5</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39959.375</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42868.75</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47262.5</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53615.625</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58365.625</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63531.25</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>72318.75</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>77900</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83125</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85975</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88587.5</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93575</v>
       </c>
     </row>
@@ -1913,99 +2088,99 @@
       </c>
       <c r="B13" s="1">
         <f>Sheet1!$C$18 * B39</f>
-        <v>17.398255813953487</v>
+        <v>57.994186046511615</v>
       </c>
       <c r="C13" s="1">
         <f>Sheet1!$C$18 * C39</f>
-        <v>52.194767441860463</v>
+        <v>173.98255813953483</v>
       </c>
       <c r="D13" s="1">
         <f>Sheet1!$C$18 * D39</f>
-        <v>95.690406976744171</v>
+        <v>318.96802325581388</v>
       </c>
       <c r="E13" s="1">
         <f>Sheet1!$C$18 * E39</f>
-        <v>139.18604651162789</v>
+        <v>463.95348837209292</v>
       </c>
       <c r="F13" s="1">
         <f>Sheet1!$C$18 * F39</f>
-        <v>182.6816860465116</v>
+        <v>608.93895348837191</v>
       </c>
       <c r="G13" s="1">
         <f>Sheet1!$C$18 * G39</f>
-        <v>217.4781976744186</v>
+        <v>724.92732558139517</v>
       </c>
       <c r="H13" s="1">
         <f>Sheet1!$C$18 * H39</f>
-        <v>260.9738372093023</v>
+        <v>869.91279069767427</v>
       </c>
       <c r="I13" s="1">
         <f>Sheet1!$C$18 * I39</f>
-        <v>313.16860465116275</v>
+        <v>1043.895348837209</v>
       </c>
       <c r="J13" s="1">
         <f>Sheet1!$C$18 * J39</f>
-        <v>339.26598837209298</v>
+        <v>1130.8866279069764</v>
       </c>
       <c r="K13" s="1">
         <f>Sheet1!$C$18 * K39</f>
-        <v>374.06249999999994</v>
+        <v>1246.8749999999998</v>
       </c>
       <c r="L13" s="1">
         <f>Sheet1!$C$18 * L39</f>
-        <v>434.95639534883719</v>
+        <v>1449.8546511627903</v>
       </c>
       <c r="M13" s="1">
         <f>Sheet1!$C$18 * M39</f>
-        <v>461.05377906976742</v>
+        <v>1536.8459302325577</v>
       </c>
       <c r="N13" s="1">
         <f>Sheet1!$C$18 * N39</f>
-        <v>539.34593023255809</v>
+        <v>1797.81976744186</v>
       </c>
       <c r="O13" s="1">
         <f>Sheet1!$C$18 * O39</f>
-        <v>574.14244186046506</v>
+        <v>1913.8081395348834</v>
       </c>
       <c r="P13" s="1">
         <f>Sheet1!$C$18 * P39</f>
-        <v>635.03633720930225</v>
+        <v>2116.7877906976742</v>
       </c>
       <c r="Q13" s="1">
         <f>Sheet1!$C$18 * Q39</f>
-        <v>722.02761627906966</v>
+        <v>2406.7587209302319</v>
       </c>
       <c r="R13" s="1">
         <f>Sheet1!$C$18 * R39</f>
-        <v>782.92151162790685</v>
+        <v>2609.7383720930225</v>
       </c>
       <c r="S13" s="1">
         <f>Sheet1!$C$18 * S39</f>
-        <v>852.5145348837209</v>
+        <v>2841.7151162790692</v>
       </c>
       <c r="T13" s="1">
         <f>Sheet1!$C$18 * T39</f>
-        <v>974.30232558139528</v>
+        <v>3247.6744186046503</v>
       </c>
       <c r="U13" s="1">
         <f>Sheet1!$C$18 * U39</f>
-        <v>1043.8953488372092</v>
+        <v>3479.6511627906971</v>
       </c>
       <c r="V13" s="1">
         <f>Sheet1!$C$18 * V39</f>
-        <v>1113.4883720930231</v>
+        <v>3711.6279069767434</v>
       </c>
       <c r="W13" s="1">
         <f>Sheet1!$C$18 * W39</f>
-        <v>1148.2848837209301</v>
+        <v>3827.6162790697667</v>
       </c>
       <c r="X13" s="1">
         <f>Sheet1!$C$18 * X39</f>
-        <v>1183.0813953488371</v>
+        <v>3943.6046511627897</v>
       </c>
       <c r="Y13" s="1">
         <f>Sheet1!$C$18 * Y39</f>
-        <v>1252.674418604651</v>
+        <v>4175.5813953488359</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2013,99 +2188,99 @@
         <v>77</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ref="B14:Y14" si="3">B11*5%</f>
+        <f t="shared" ref="B14:Y14" si="4">B11*5%</f>
         <v>59.375</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.0625</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>344.375</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>507.65625</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>670.9375</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>804.53125</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>964.84375</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1157.8125</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1264.6875</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1392.34375</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1612.03125</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1721.875</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1997.96875</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2143.4375</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2363.125</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2680.78125</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2918.28125</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3176.5625</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3615.9375</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3895</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4156.25</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4298.75</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4429.375</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4678.75</v>
       </c>
     </row>
@@ -2141,99 +2316,99 @@
       </c>
       <c r="B16" s="9">
         <f>B11-B13-B12-B14</f>
-        <v>1056.7267441860465</v>
+        <v>1016.1308139534883</v>
       </c>
       <c r="C16" s="9">
-        <f t="shared" ref="C16:D16" si="4">C11-C13-C12-C14</f>
-        <v>3390.9927325581393</v>
+        <f>C11-C13-C12-C14</f>
+        <v>3269.2049418604652</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="4"/>
-        <v>6393.4345930232557</v>
+        <f>D11-D13-D12-D14</f>
+        <v>6170.1569767441861</v>
       </c>
       <c r="E16" s="9">
         <f>E11-E13-E12-E14</f>
-        <v>9452.2827034883721</v>
+        <v>9127.5152616279065</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:Y16" si="5">F11-F13-F12-F14</f>
-        <v>12511.130813953489</v>
+        <v>12084.873546511628</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="5"/>
-        <v>15014.615552325582</v>
+        <v>14507.166424418605</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="5"/>
-        <v>18017.057412790698</v>
+        <v>17408.118459302324</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="5"/>
-        <v>21631.268895348836</v>
+        <v>20900.54215116279</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="5"/>
-        <v>23635.796511627908</v>
+        <v>22844.175872093023</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="5"/>
-        <v>26026.46875</v>
+        <v>25153.65625</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="5"/>
-        <v>30139.637354651164</v>
+        <v>29124.73909883721</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="5"/>
-        <v>32200.571220930229</v>
+        <v>31124.779069767443</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="5"/>
-        <v>37368.060319767443</v>
+        <v>36109.586482558138</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="5"/>
-        <v>40097.170058139534</v>
+        <v>38757.504360465115</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="5"/>
-        <v>44210.338662790695</v>
+        <v>42728.587209302328</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="5"/>
-        <v>50158.816133720931</v>
+        <v>48474.085029069771</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="5"/>
-        <v>54610.422238372092</v>
+        <v>52783.605377906977</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="5"/>
-        <v>59448.172965116282</v>
+        <v>57458.972383720931</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="5"/>
-        <v>67674.51017441861</v>
+        <v>65401.138081395344</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="5"/>
-        <v>72907.104651162794</v>
+        <v>70471.348837209298</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="5"/>
-        <v>77801.261627906977</v>
+        <v>75203.122093023252</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="5"/>
-        <v>80473.965116279069</v>
+        <v>77794.633720930229</v>
       </c>
       <c r="X16" s="9">
         <f t="shared" si="5"/>
-        <v>82921.04360465116</v>
+        <v>80160.520348837206</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="5"/>
-        <v>87589.575581395344</v>
+        <v>84666.66860465116</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -2242,99 +2417,99 @@
       </c>
       <c r="B17" s="10">
         <f>(B16-B11*21%)/B11</f>
-        <v>0.67987515299877599</v>
+        <v>0.64568910648714806</v>
       </c>
       <c r="C17" s="10">
         <f t="shared" ref="C17:Y17" si="6">(C16-C11*21%)/C11</f>
-        <v>0.71115252497334858</v>
+        <v>0.67806925415564423</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="6"/>
-        <v>0.71826636559321322</v>
+        <v>0.68584856286666951</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72097275011273598</v>
+        <v>0.68898580600828874</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72236186783072109</v>
+        <v>0.69059607239956244</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72312817571260168</v>
+        <v>0.69159123243619214</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72367746916486209</v>
+        <v>0.69212111853874392</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72414386592599567</v>
+        <v>0.69258751529987761</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72445204889065118</v>
+        <v>0.69315496405606214</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72462798788014815</v>
+        <v>0.69328470429805855</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="6"/>
-        <v>0.7248341527079939</v>
+        <v>0.69335528851680794</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72504381040813737</v>
+        <v>0.69380483687164984</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72515127100379928</v>
+        <v>0.69365743915059075</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72534731145973541</v>
+        <v>0.69409690883137753</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72542107723439719</v>
+        <v>0.69406955216720079</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72552609213677788</v>
+        <v>0.69410370165543667</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72566071190657333</v>
+        <v>0.69436117796917241</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72573120259897739</v>
+        <v>0.69442061794346766</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="6"/>
-        <v>0.7257809720773466</v>
+        <v>0.69434552700918284</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72590634982237223</v>
+        <v>0.6946386243544197</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72595502710264037</v>
+        <v>0.69469921314915195</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="6"/>
-        <v>0.7260158780608208</v>
+        <v>0.69485180251154677</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72603548587160893</v>
+        <v>0.69487394213446829</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="6"/>
-        <v>0.72603607353882282</v>
+        <v>0.69480009195459425</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2369,100 +2544,100 @@
         <v>80</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" ref="B21:C21" si="7">B9+B16</f>
-        <v>1106.7267441860465</v>
+        <f>B9+B16</f>
+        <v>1066.1308139534883</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="7"/>
-        <v>3965.701453488372</v>
+        <f>C9+C16</f>
+        <v>3815.4965116279072</v>
       </c>
       <c r="D21" s="1">
         <f>D9+D16</f>
-        <v>8621.1405377906976</v>
+        <v>8300.2297093023262</v>
       </c>
       <c r="E21" s="1">
         <f>E9+E16</f>
-        <v>12087.211553052326</v>
+        <v>11553.852072674417</v>
       </c>
       <c r="F21" s="1">
         <f>F9+F16</f>
-        <v>19113.457745784886</v>
+        <v>18367.184790116276</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:Y21" si="8">G9+G16</f>
-        <v>25782.690199796514</v>
+        <f t="shared" ref="G21:Y21" si="7">G9+G16</f>
+        <v>24827.477298488371</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="8"/>
-        <v>32636.671532668606</v>
+        <f t="shared" si="7"/>
+        <v>31454.604838395349</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
-        <v>26700.292161683137</v>
+        <f t="shared" si="7"/>
+        <v>25378.532070360463</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="8"/>
-        <v>35885.942592469481</v>
+        <f t="shared" si="7"/>
+        <v>34433.441907273256</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="8"/>
-        <v>42769.44004623474</v>
+        <f t="shared" si="7"/>
+        <v>41170.377203636628</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="8"/>
-        <v>50124.357377768538</v>
+        <f t="shared" si="7"/>
+        <v>48309.92770065552</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="8"/>
-        <v>37832.687409814498</v>
+        <f t="shared" si="7"/>
+        <v>35849.680420095203</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="8"/>
-        <v>54634.404024674688</v>
+        <f t="shared" si="7"/>
+        <v>52384.426692605732</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="8"/>
-        <v>65664.372070476878</v>
+        <f t="shared" si="7"/>
+        <v>63199.717706767973</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="8"/>
-        <v>75092.524698029127</v>
+        <f t="shared" si="7"/>
+        <v>72378.4460626863</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="8"/>
-        <v>58186.047232735495</v>
+        <f t="shared" si="7"/>
+        <v>55144.276810412921</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="8"/>
-        <v>81303.445854739839</v>
+        <f t="shared" si="7"/>
+        <v>77955.74378311343</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="8"/>
-        <v>97499.895892486209</v>
+        <f t="shared" si="7"/>
+        <v>93836.844275277646</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="8"/>
-        <v>113624.4581206617</v>
+        <f t="shared" si="7"/>
+        <v>109519.56021903416</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="8"/>
-        <v>85934.052461493629</v>
+        <f t="shared" si="7"/>
+        <v>81445.84769672637</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="8"/>
-        <v>117568.28785865378</v>
+        <f t="shared" si="7"/>
+        <v>112726.04594138643</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="8"/>
-        <v>135958.10904560596</v>
+        <f t="shared" si="7"/>
+        <v>130857.65669162344</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="8"/>
-        <v>147500.09812745414</v>
+        <f t="shared" si="7"/>
+        <v>142189.34869464894</v>
       </c>
       <c r="Y21" s="1">
-        <f t="shared" si="8"/>
-        <v>103625.24964512241</v>
+        <f t="shared" si="7"/>
+        <v>98046.967951975632</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2471,99 +2646,99 @@
       </c>
       <c r="B22" s="1">
         <f>B21*B23</f>
-        <v>221.34534883720931</v>
+        <v>213.22616279069769</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:Y22" si="9">C21*C23</f>
-        <v>991.42536337209299</v>
+        <f t="shared" ref="C22:Y22" si="8">C21*C23</f>
+        <v>953.87412790697681</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="9"/>
-        <v>2155.2851344476744</v>
+        <f t="shared" si="8"/>
+        <v>2075.0574273255816</v>
       </c>
       <c r="E22" s="1">
         <f>E21*E23</f>
-        <v>3626.1634659156975</v>
+        <v>3466.1556218023252</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="9"/>
-        <v>5734.0373237354661</v>
+        <f t="shared" si="8"/>
+        <v>5510.1554370348831</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="9"/>
-        <v>7734.8070599389539</v>
+        <f t="shared" si="8"/>
+        <v>7448.2431895465106</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="9"/>
-        <v>13054.668613067442</v>
+        <f t="shared" si="8"/>
+        <v>12581.841935358141</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="9"/>
-        <v>10680.116864673255</v>
+        <f t="shared" si="8"/>
+        <v>10151.412828144186</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="9"/>
-        <v>14354.377036987793</v>
+        <f t="shared" si="8"/>
+        <v>13773.376762909304</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="9"/>
-        <v>17107.776018493896</v>
+        <f t="shared" si="8"/>
+        <v>16468.150881454651</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="9"/>
-        <v>20049.742951107415</v>
+        <f t="shared" si="8"/>
+        <v>19323.97108026221</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="9"/>
-        <v>15133.074963925799</v>
+        <f t="shared" si="8"/>
+        <v>14339.872168038082</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="9"/>
-        <v>21853.761609869878</v>
+        <f t="shared" si="8"/>
+        <v>20953.770677042296</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="9"/>
-        <v>26265.748828190754</v>
+        <f t="shared" si="8"/>
+        <v>25279.887082707191</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="9"/>
-        <v>30037.009879211651</v>
+        <f t="shared" si="8"/>
+        <v>28951.378425074523</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="9"/>
-        <v>23274.4188930942</v>
+        <f t="shared" si="8"/>
+        <v>22057.710724165168</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="9"/>
-        <v>32521.378341895936</v>
+        <f t="shared" si="8"/>
+        <v>31182.297513245372</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="9"/>
-        <v>38999.958356994488</v>
+        <f t="shared" si="8"/>
+        <v>37534.737710111061</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="9"/>
-        <v>45449.783248264685</v>
+        <f t="shared" si="8"/>
+        <v>43807.82408761367</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="9"/>
-        <v>34373.620984597452</v>
+        <f t="shared" si="8"/>
+        <v>32578.339078690551</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="9"/>
-        <v>47027.315143461514</v>
+        <f t="shared" si="8"/>
+        <v>45090.418376554575</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="9"/>
-        <v>54383.243618242384</v>
+        <f t="shared" si="8"/>
+        <v>52343.062676649381</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="9"/>
-        <v>59000.039250981659</v>
+        <f t="shared" si="8"/>
+        <v>56875.739477859577</v>
       </c>
       <c r="Y22" s="1">
-        <f t="shared" si="9"/>
-        <v>41450.099858048969</v>
+        <f t="shared" si="8"/>
+        <v>39218.787180790256</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2649,99 +2824,99 @@
       </c>
       <c r="B24" s="1">
         <f>B21*10%</f>
-        <v>110.67267441860466</v>
+        <v>106.61308139534884</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:Y24" si="10">C21*10%</f>
-        <v>396.57014534883723</v>
+        <f t="shared" ref="C24:Y24" si="9">C21*10%</f>
+        <v>381.54965116279072</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="10"/>
-        <v>862.11405377906976</v>
+        <f t="shared" si="9"/>
+        <v>830.02297093023265</v>
       </c>
       <c r="E24" s="1">
         <f>E21*10%</f>
-        <v>1208.7211553052327</v>
+        <v>1155.3852072674417</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="10"/>
-        <v>1911.3457745784888</v>
+        <f t="shared" si="9"/>
+        <v>1836.7184790116278</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="10"/>
-        <v>2578.2690199796516</v>
+        <f t="shared" si="9"/>
+        <v>2482.7477298488375</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="10"/>
-        <v>3263.6671532668606</v>
+        <f t="shared" si="9"/>
+        <v>3145.4604838395353</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="10"/>
-        <v>2670.0292161683137</v>
+        <f t="shared" si="9"/>
+        <v>2537.8532070360466</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="10"/>
-        <v>3588.5942592469482</v>
+        <f t="shared" si="9"/>
+        <v>3443.3441907273259</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="10"/>
-        <v>4276.944004623474</v>
+        <f t="shared" si="9"/>
+        <v>4117.0377203636626</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="10"/>
-        <v>5012.4357377768538</v>
+        <f t="shared" si="9"/>
+        <v>4830.9927700655526</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="10"/>
-        <v>3783.2687409814498</v>
+        <f t="shared" si="9"/>
+        <v>3584.9680420095206</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="10"/>
-        <v>5463.4404024674695</v>
+        <f t="shared" si="9"/>
+        <v>5238.4426692605739</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="10"/>
-        <v>6566.4372070476884</v>
+        <f t="shared" si="9"/>
+        <v>6319.9717706767979</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="10"/>
-        <v>7509.2524698029129</v>
+        <f t="shared" si="9"/>
+        <v>7237.8446062686307</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="10"/>
-        <v>5818.60472327355</v>
+        <f t="shared" si="9"/>
+        <v>5514.4276810412921</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="10"/>
-        <v>8130.3445854739839</v>
+        <f t="shared" si="9"/>
+        <v>7795.574378311343</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="10"/>
-        <v>9749.989589248622</v>
+        <f t="shared" si="9"/>
+        <v>9383.6844275277654</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="10"/>
-        <v>11362.445812066171</v>
+        <f t="shared" si="9"/>
+        <v>10951.956021903417</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="10"/>
-        <v>8593.4052461493629</v>
+        <f t="shared" si="9"/>
+        <v>8144.5847696726378</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="10"/>
-        <v>11756.828785865378</v>
+        <f t="shared" si="9"/>
+        <v>11272.604594138644</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" si="10"/>
-        <v>13595.810904560596</v>
+        <f t="shared" si="9"/>
+        <v>13085.765669162345</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="10"/>
-        <v>14750.009812745415</v>
+        <f t="shared" si="9"/>
+        <v>14218.934869464894</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="10"/>
-        <v>10362.524964512242</v>
+        <f t="shared" si="9"/>
+        <v>9804.6967951975639</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2750,99 +2925,99 @@
       </c>
       <c r="B25" s="9">
         <f>B21-B22-B24</f>
-        <v>774.70872093023263</v>
+        <v>746.29156976744184</v>
       </c>
       <c r="C25" s="9">
-        <f t="shared" ref="C25:Y25" si="11">C21-C22-C24</f>
-        <v>2577.7059447674419</v>
+        <f t="shared" ref="C25:Y25" si="10">C21-C22-C24</f>
+        <v>2480.0727325581397</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" si="11"/>
-        <v>5603.741349563953</v>
+        <f t="shared" si="10"/>
+        <v>5395.1493110465117</v>
       </c>
       <c r="E25" s="9">
         <f>E21-E22-E24</f>
-        <v>7252.326931831396</v>
+        <v>6932.3112436046504</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="11"/>
-        <v>11468.074647470932</v>
+        <f t="shared" si="10"/>
+        <v>11020.310874069766</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="11"/>
-        <v>15469.614119877908</v>
+        <f t="shared" si="10"/>
+        <v>14896.486379093025</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="11"/>
-        <v>16318.335766334303</v>
+        <f t="shared" si="10"/>
+        <v>15727.302419197673</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="11"/>
-        <v>13350.146080841569</v>
+        <f t="shared" si="10"/>
+        <v>12689.26603518023</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="11"/>
-        <v>17942.97129623474</v>
+        <f t="shared" si="10"/>
+        <v>17216.720953636624</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="11"/>
-        <v>21384.72002311737</v>
+        <f t="shared" si="10"/>
+        <v>20585.188601818314</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="11"/>
-        <v>25062.178688884269</v>
+        <f t="shared" si="10"/>
+        <v>24154.963850327757</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="11"/>
-        <v>18916.343704907249</v>
+        <f t="shared" si="10"/>
+        <v>17924.840210047598</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="11"/>
-        <v>27317.20201233734</v>
+        <f t="shared" si="10"/>
+        <v>26192.213346302862</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" si="11"/>
-        <v>32832.186035238432</v>
+        <f t="shared" si="10"/>
+        <v>31599.858853383979</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="11"/>
-        <v>37546.262349014563</v>
+        <f t="shared" si="10"/>
+        <v>36189.22303134315</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="11"/>
-        <v>29093.02361636774</v>
+        <f t="shared" si="10"/>
+        <v>27572.13840520646</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="11"/>
-        <v>40651.722927369919</v>
+        <f t="shared" si="10"/>
+        <v>38977.871891556715</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="11"/>
-        <v>48749.947946243097</v>
+        <f t="shared" si="10"/>
+        <v>46918.422137638816</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="11"/>
-        <v>56812.229060330836</v>
+        <f t="shared" si="10"/>
+        <v>54759.780109517073</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="11"/>
-        <v>42967.026230746815</v>
+        <f t="shared" si="10"/>
+        <v>40722.923848363178</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="11"/>
-        <v>58784.143929326892</v>
+        <f t="shared" si="10"/>
+        <v>56363.022970693215</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" si="11"/>
-        <v>67979.054522802981</v>
+        <f t="shared" si="10"/>
+        <v>65428.828345811722</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="11"/>
-        <v>73750.04906372707</v>
+        <f t="shared" si="10"/>
+        <v>71094.674347324471</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" si="11"/>
-        <v>51812.624822561207</v>
+        <f t="shared" si="10"/>
+        <v>49023.483975987809</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -2858,91 +3033,91 @@
         <v>44175</v>
       </c>
       <c r="D27" s="16">
-        <f t="shared" ref="D27:Y27" si="12">D11*12</f>
+        <f t="shared" ref="D27:Y27" si="11">D11*12</f>
         <v>82650</v>
       </c>
       <c r="E27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>121837.5</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>161025</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>193087.5</v>
       </c>
       <c r="H27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>231562.5</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>277875</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>303525</v>
       </c>
       <c r="K27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>334162.5</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>386887.5</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>413250</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>479512.5</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>514425</v>
       </c>
       <c r="P27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>567150</v>
       </c>
       <c r="Q27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>643387.5</v>
       </c>
       <c r="R27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>700387.5</v>
       </c>
       <c r="S27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>762375</v>
       </c>
       <c r="T27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>867825</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>934800</v>
       </c>
       <c r="V27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>997500</v>
       </c>
       <c r="W27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1031700</v>
       </c>
       <c r="X27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1063050</v>
       </c>
       <c r="Y27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1122900</v>
       </c>
     </row>
@@ -2951,95 +3126,95 @@
         <v>86</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" ref="C28:Y28" si="13">C27/B27</f>
+        <f t="shared" ref="C28:Y28" si="12">C27/B27</f>
         <v>3.1</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.8709677419354838</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.4741379310344827</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.3216374269005848</v>
       </c>
       <c r="G28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1991150442477876</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1992619926199262</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0923076923076922</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1009389671361502</v>
       </c>
       <c r="L28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1577825159914712</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0681399631675874</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1603448275862069</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0728083209509658</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1024930747922437</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1344221105527639</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0885935769656701</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0885045778229909</v>
       </c>
       <c r="T28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.1383177570093459</v>
       </c>
       <c r="U28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0771756978653531</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0670731707317074</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0342857142857143</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0303867403314917</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.0563002680965148</v>
       </c>
     </row>
@@ -3079,99 +3254,99 @@
         <v>44</v>
       </c>
       <c r="B33" s="15">
-        <f t="shared" ref="B33:Y33" si="14">B8</f>
+        <f t="shared" ref="B33:Y33" si="13">B8</f>
         <v>50</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>350</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>650</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>700</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>850</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1100</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1200</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1400</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1500</v>
       </c>
       <c r="N33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1650</v>
       </c>
       <c r="O33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1750</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1950</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2200</v>
       </c>
       <c r="R33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2400</v>
       </c>
       <c r="S33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2600</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2800</v>
       </c>
       <c r="U33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3000</v>
       </c>
       <c r="V33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3200</v>
       </c>
       <c r="W33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3300</v>
       </c>
       <c r="X33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3400</v>
       </c>
       <c r="Y33" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3600</v>
       </c>
     </row>
@@ -3257,99 +3432,99 @@
         <v>54</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:F35" si="15">ROUND(B33/B34,0)</f>
+        <f t="shared" ref="B35:G35" si="14">ROUND(B33/B34,0)</f>
         <v>50</v>
       </c>
       <c r="C35">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="14"/>
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="14"/>
+        <v>500</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="14"/>
+        <v>650</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="14"/>
+        <v>778</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:Y35" si="15">ROUND(H33/H34,0)</f>
+        <v>944</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="15"/>
-        <v>200</v>
-      </c>
-      <c r="D35">
+        <v>1111</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="15"/>
-        <v>350</v>
-      </c>
-      <c r="E35">
+        <v>1222</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="15"/>
-        <v>500</v>
-      </c>
-      <c r="F35">
+        <v>1333</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="15"/>
-        <v>650</v>
-      </c>
-      <c r="G35">
-        <f>ROUND(G33/G34,0)</f>
-        <v>778</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ref="H35:Y35" si="16">ROUND(H33/H34,0)</f>
-        <v>944</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="16"/>
-        <v>1111</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="16"/>
-        <v>1222</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="16"/>
-        <v>1333</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="16"/>
         <v>1556</v>
       </c>
       <c r="M35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1667</v>
       </c>
       <c r="N35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1941</v>
       </c>
       <c r="O35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2059</v>
       </c>
       <c r="P35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2294</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2588</v>
       </c>
       <c r="R35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2824</v>
       </c>
       <c r="S35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3059</v>
       </c>
       <c r="T35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3500</v>
       </c>
       <c r="U35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3750</v>
       </c>
       <c r="V35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4000</v>
       </c>
       <c r="W35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4125</v>
       </c>
       <c r="X35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4250</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4500</v>
       </c>
     </row>
@@ -3540,95 +3715,95 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:Y39" si="17">ROUND(C35*C38,0)</f>
+        <f t="shared" ref="C39:Y39" si="16">ROUND(C35*C38,0)</f>
         <v>6</v>
       </c>
       <c r="D39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="E39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="F39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="G39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="H39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
       <c r="I39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="J39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="K39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="L39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="M39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="N39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="O39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>66</v>
       </c>
       <c r="P39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>83</v>
       </c>
       <c r="R39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="S39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>98</v>
       </c>
       <c r="T39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>112</v>
       </c>
       <c r="U39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="V39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>128</v>
       </c>
       <c r="W39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="X39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>144</v>
       </c>
     </row>
@@ -3649,87 +3824,87 @@
         <v>6531.25</v>
       </c>
       <c r="E41" s="9">
-        <f t="shared" ref="E41:M41" si="18">E37*E39</f>
+        <f t="shared" ref="E41:M41" si="17">E37*E39</f>
         <v>9500</v>
       </c>
       <c r="F41" s="9">
+        <f t="shared" si="17"/>
+        <v>12468.75</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="17"/>
+        <v>14843.75</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="17"/>
+        <v>17812.5</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="17"/>
+        <v>21375</v>
+      </c>
+      <c r="J41" s="9">
+        <f t="shared" si="17"/>
+        <v>23156.25</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="17"/>
+        <v>25531.25</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="17"/>
+        <v>29687.5</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="17"/>
+        <v>31468.75</v>
+      </c>
+      <c r="N41" s="9">
+        <f t="shared" ref="N41:Y41" si="18">N37*N39</f>
+        <v>36812.5</v>
+      </c>
+      <c r="O41" s="9">
         <f t="shared" si="18"/>
-        <v>12468.75</v>
-      </c>
-      <c r="G41" s="9">
+        <v>39187.5</v>
+      </c>
+      <c r="P41" s="9">
         <f t="shared" si="18"/>
-        <v>14843.75</v>
-      </c>
-      <c r="H41" s="9">
+        <v>43343.75</v>
+      </c>
+      <c r="Q41" s="9">
         <f t="shared" si="18"/>
-        <v>17812.5</v>
-      </c>
-      <c r="I41" s="9">
+        <v>49281.25</v>
+      </c>
+      <c r="R41" s="9">
         <f t="shared" si="18"/>
-        <v>21375</v>
-      </c>
-      <c r="J41" s="9">
+        <v>53437.5</v>
+      </c>
+      <c r="S41" s="9">
         <f t="shared" si="18"/>
-        <v>23156.25</v>
-      </c>
-      <c r="K41" s="9">
+        <v>58187.5</v>
+      </c>
+      <c r="T41" s="9">
         <f t="shared" si="18"/>
-        <v>25531.25</v>
-      </c>
-      <c r="L41" s="9">
+        <v>66500</v>
+      </c>
+      <c r="U41" s="9">
         <f t="shared" si="18"/>
-        <v>29687.5</v>
-      </c>
-      <c r="M41" s="9">
+        <v>71250</v>
+      </c>
+      <c r="V41" s="9">
         <f t="shared" si="18"/>
-        <v>31468.75</v>
-      </c>
-      <c r="N41" s="9">
-        <f t="shared" ref="N41:Y41" si="19">N37*N39</f>
-        <v>36812.5</v>
-      </c>
-      <c r="O41" s="9">
-        <f t="shared" si="19"/>
-        <v>39187.5</v>
-      </c>
-      <c r="P41" s="9">
-        <f t="shared" si="19"/>
-        <v>43343.75</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="19"/>
-        <v>49281.25</v>
-      </c>
-      <c r="R41" s="9">
-        <f t="shared" si="19"/>
-        <v>53437.5</v>
-      </c>
-      <c r="S41" s="9">
-        <f t="shared" si="19"/>
-        <v>58187.5</v>
-      </c>
-      <c r="T41" s="9">
-        <f t="shared" si="19"/>
-        <v>66500</v>
-      </c>
-      <c r="U41" s="9">
-        <f t="shared" si="19"/>
-        <v>71250</v>
-      </c>
-      <c r="V41" s="9">
-        <f t="shared" si="19"/>
         <v>76000</v>
       </c>
       <c r="W41" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>78375</v>
       </c>
       <c r="X41" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>80750</v>
       </c>
       <c r="Y41" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>85500</v>
       </c>
     </row>
@@ -3825,87 +4000,87 @@
         <v>356.25000000000006</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" ref="E47:M47" si="20">D39*E46*D37</f>
+        <f t="shared" ref="E47:M47" si="19">D39*E46*D37</f>
         <v>653.125</v>
       </c>
       <c r="F47" s="9">
+        <f t="shared" si="19"/>
+        <v>950</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="19"/>
+        <v>1246.875</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="19"/>
+        <v>1484.375</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="19"/>
+        <v>1781.25</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="19"/>
+        <v>2137.5</v>
+      </c>
+      <c r="K47" s="9">
+        <f t="shared" si="19"/>
+        <v>2315.625</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="19"/>
+        <v>2553.125</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="19"/>
+        <v>2968.75</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" ref="N47:Y47" si="20">M39*N46*M37</f>
+        <v>3146.8750000000005</v>
+      </c>
+      <c r="O47" s="9">
         <f t="shared" si="20"/>
-        <v>950</v>
-      </c>
-      <c r="G47" s="9">
+        <v>3681.25</v>
+      </c>
+      <c r="P47" s="9">
         <f t="shared" si="20"/>
-        <v>1246.875</v>
-      </c>
-      <c r="H47" s="9">
+        <v>3918.7500000000005</v>
+      </c>
+      <c r="Q47" s="9">
         <f t="shared" si="20"/>
-        <v>1484.375</v>
-      </c>
-      <c r="I47" s="9">
+        <v>4334.375</v>
+      </c>
+      <c r="R47" s="9">
         <f t="shared" si="20"/>
-        <v>1781.25</v>
-      </c>
-      <c r="J47" s="9">
+        <v>4928.125</v>
+      </c>
+      <c r="S47" s="9">
         <f t="shared" si="20"/>
-        <v>2137.5</v>
-      </c>
-      <c r="K47" s="9">
+        <v>5343.75</v>
+      </c>
+      <c r="T47" s="9">
         <f t="shared" si="20"/>
-        <v>2315.625</v>
-      </c>
-      <c r="L47" s="9">
+        <v>5818.75</v>
+      </c>
+      <c r="U47" s="9">
         <f t="shared" si="20"/>
-        <v>2553.125</v>
-      </c>
-      <c r="M47" s="9">
+        <v>6650.0000000000009</v>
+      </c>
+      <c r="V47" s="9">
         <f t="shared" si="20"/>
-        <v>2968.75</v>
-      </c>
-      <c r="N47" s="9">
-        <f t="shared" ref="N47" si="21">M39*N46*M37</f>
-        <v>3146.8750000000005</v>
-      </c>
-      <c r="O47" s="9">
-        <f t="shared" ref="O47" si="22">N39*O46*N37</f>
-        <v>3681.25</v>
-      </c>
-      <c r="P47" s="9">
-        <f t="shared" ref="P47" si="23">O39*P46*O37</f>
-        <v>3918.7500000000005</v>
-      </c>
-      <c r="Q47" s="9">
-        <f t="shared" ref="Q47" si="24">P39*Q46*P37</f>
-        <v>4334.375</v>
-      </c>
-      <c r="R47" s="9">
-        <f t="shared" ref="R47" si="25">Q39*R46*Q37</f>
-        <v>4928.125</v>
-      </c>
-      <c r="S47" s="9">
-        <f t="shared" ref="S47" si="26">R39*S46*R37</f>
-        <v>5343.75</v>
-      </c>
-      <c r="T47" s="9">
-        <f t="shared" ref="T47" si="27">S39*T46*S37</f>
-        <v>5818.75</v>
-      </c>
-      <c r="U47" s="9">
-        <f t="shared" ref="U47" si="28">T39*U46*T37</f>
-        <v>6650.0000000000009</v>
-      </c>
-      <c r="V47" s="9">
-        <f t="shared" ref="V47" si="29">U39*V46*U37</f>
         <v>7125</v>
       </c>
       <c r="W47" s="9">
-        <f t="shared" ref="W47" si="30">V39*W46*V37</f>
+        <f t="shared" si="20"/>
         <v>7600</v>
       </c>
       <c r="X47" s="9">
-        <f t="shared" ref="X47" si="31">W39*X46*W37</f>
+        <f t="shared" si="20"/>
         <v>7837.5000000000009</v>
       </c>
       <c r="Y47" s="9">
-        <f t="shared" ref="Y47" si="32">X39*Y46*X37</f>
+        <f t="shared" si="20"/>
         <v>8075.0000000000009</v>
       </c>
     </row>
@@ -3957,7 +4132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
   <dimension ref="C5:J14"/>
   <sheetViews>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CABE287-F479-4294-8CE9-E47B8C5150E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B4920-1D7A-4FB2-A61E-9F1BEF8B0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1575" windowWidth="19200" windowHeight="12405" activeTab="2" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10125" windowHeight="15600" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -377,11 +376,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -462,28 +461,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1077,7 +1076,7 @@
       </c>
       <c r="C14" s="1">
         <f>(Sheet3!D10*Sheet3!D5) + (Sheet3!E10*Sheet3!E5) + (Sheet3!F10*Sheet3!F5)</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1086,7 +1085,7 @@
       </c>
       <c r="C15" s="9">
         <f>C14*C12</f>
-        <v>5937.5</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1095,7 +1094,7 @@
       </c>
       <c r="C16" s="1">
         <f>C15*21%</f>
-        <v>1246.875</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1104,7 +1103,7 @@
       </c>
       <c r="C17" s="2">
         <f>C15/ (AVERAGE(Sheet3!D14:F14))</f>
-        <v>5917.7740863787367</v>
+        <v>5875.0000000000009</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1113,7 +1112,7 @@
       </c>
       <c r="C18" s="1">
         <f>C17/10000 * 49</f>
-        <v>28.997093023255808</v>
+        <v>28.787500000000005</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -1137,11 +1136,11 @@
       </c>
       <c r="C21" s="1">
         <f>C15-C16-C18-C19</f>
-        <v>4607.6279069767443</v>
+        <v>3630.2125000000001</v>
       </c>
       <c r="D21" s="10">
         <f>C21/C15</f>
-        <v>0.77602154222766218</v>
+        <v>0.77238563829787232</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1202,7 +1201,7 @@
       </c>
       <c r="C37" s="1">
         <f>C21+C36</f>
-        <v>3657.6279069767443</v>
+        <v>2680.2125000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D050417B-3273-4955-A7A8-F9E9DF39BEC5}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1311,99 +1310,99 @@
       </c>
       <c r="B2" s="17">
         <f>B22</f>
-        <v>213.22616279069769</v>
+        <v>166.285</v>
       </c>
       <c r="C2" s="17">
         <f t="shared" ref="C2:Y2" si="0">C22+B2</f>
-        <v>1167.1002906976746</v>
+        <v>897.17812500000002</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" si="0"/>
-        <v>3242.1577180232562</v>
+        <v>2486.9430312499999</v>
       </c>
       <c r="E2" s="17">
         <f t="shared" si="0"/>
-        <v>6708.3133398255814</v>
+        <v>5126.8466581249995</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" si="0"/>
-        <v>12218.468776860464</v>
+        <v>9345.4975842499989</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" si="0"/>
-        <v>19666.711966406976</v>
+        <v>15064.626889924999</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" si="0"/>
-        <v>32248.553901765117</v>
+        <v>24737.380334465</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" si="0"/>
-        <v>42399.966729909305</v>
+        <v>32457.761056735002</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" si="0"/>
-        <v>56173.343492818611</v>
+        <v>43015.626417870008</v>
       </c>
       <c r="K2" s="17">
         <f t="shared" si="0"/>
-        <v>72641.494374273258</v>
+        <v>55674.15409843751</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" si="0"/>
-        <v>91965.465454535472</v>
+        <v>70544.047938721254</v>
       </c>
       <c r="M2" s="17">
         <f t="shared" si="0"/>
-        <v>106305.33762257356</v>
+        <v>81428.675858863135</v>
       </c>
       <c r="N2" s="17">
         <f t="shared" si="0"/>
-        <v>127259.10829961585</v>
+        <v>97495.239818934075</v>
       </c>
       <c r="O2" s="17">
         <f t="shared" si="0"/>
-        <v>152538.99538232305</v>
+        <v>116941.85179896954</v>
       </c>
       <c r="P2" s="17">
         <f t="shared" si="0"/>
-        <v>181490.37380739755</v>
+        <v>139239.52278898726</v>
       </c>
       <c r="Q2" s="17">
         <f t="shared" si="0"/>
-        <v>203548.08453156272</v>
+        <v>156008.52528399613</v>
       </c>
       <c r="R2" s="17">
         <f t="shared" si="0"/>
-        <v>234730.3820448081</v>
+        <v>179931.45653150056</v>
       </c>
       <c r="S2" s="17">
         <f t="shared" si="0"/>
-        <v>272265.11975491914</v>
+        <v>208813.05215525278</v>
       </c>
       <c r="T2" s="17">
         <f t="shared" si="0"/>
-        <v>316072.94384253281</v>
+        <v>242576.0499671289</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" si="0"/>
-        <v>348651.28292122338</v>
+        <v>267372.56087306695</v>
       </c>
       <c r="V2" s="17">
         <f t="shared" si="0"/>
-        <v>393741.70129777794</v>
+        <v>301999.29632603598</v>
       </c>
       <c r="W2" s="17">
         <f t="shared" si="0"/>
-        <v>446084.7639744273</v>
+        <v>342312.36405252048</v>
       </c>
       <c r="X2" s="17">
         <f t="shared" si="0"/>
-        <v>502960.50345228688</v>
+        <v>386168.37791576271</v>
       </c>
       <c r="Y2" s="17">
         <f t="shared" si="0"/>
-        <v>542179.29063307715</v>
+        <v>415989.66484738386</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1502,95 +1501,95 @@
       </c>
       <c r="C6" s="9">
         <f>B25</f>
-        <v>746.29156976744184</v>
+        <v>581.99749999999995</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:Y6" si="1">C25</f>
-        <v>2480.0727325581397</v>
+        <v>1900.3221250000001</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="1"/>
-        <v>5395.1493110465117</v>
+        <v>4133.3887562499995</v>
       </c>
       <c r="F6" s="9">
         <f>E25</f>
-        <v>6932.3112436046504</v>
+        <v>5279.8072537499993</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>11020.310874069766</v>
+        <v>8437.3018522499988</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>14896.486379093025</v>
+        <v>11438.25861135</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>15727.302419197673</v>
+        <v>12090.941805675</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="1"/>
-        <v>12689.26603518023</v>
+        <v>9650.4759028375011</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="1"/>
-        <v>17216.720953636624</v>
+        <v>13197.331701418749</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>20585.188601818314</v>
+        <v>15823.159600709374</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="1"/>
-        <v>24154.963850327757</v>
+        <v>18587.367300354683</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>17924.840210047598</v>
+        <v>13605.784900177343</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
-        <v>26192.213346302862</v>
+        <v>20083.204950088668</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="1"/>
-        <v>31599.858853383979</v>
+        <v>24308.264975044334</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="1"/>
-        <v>36189.22303134315</v>
+        <v>27872.088737522157</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>27572.13840520646</v>
+        <v>20961.253118761073</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="1"/>
-        <v>38977.871891556715</v>
+        <v>29903.664059380535</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="1"/>
-        <v>46918.422137638816</v>
+        <v>36101.994529690259</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="1"/>
-        <v>54759.780109517073</v>
+        <v>42203.747264845122</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="1"/>
-        <v>40722.923848363178</v>
+        <v>30995.63863242256</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="1"/>
-        <v>56363.022970693215</v>
+        <v>43283.419316211272</v>
       </c>
       <c r="X6" s="9">
         <f t="shared" si="1"/>
-        <v>65428.828345811722</v>
+        <v>50391.334658105639</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="1"/>
-        <v>71094.674347324471</v>
+        <v>54820.017329052811</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1608,7 +1607,7 @@
       </c>
       <c r="E7" s="1">
         <f>SUM(B11:D11)*21%</f>
-        <v>2468.8125</v>
+        <v>1954.26</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1621,7 +1620,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(F11:H11)*21%</f>
-        <v>10249.3125</v>
+        <v>8113.1399999999994</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1634,7 +1633,7 @@
       </c>
       <c r="M7" s="1">
         <f>SUM(J11:L11)*21%</f>
-        <v>17930.0625</v>
+        <v>14193.06</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -1647,7 +1646,7 @@
       </c>
       <c r="Q7" s="1">
         <f>SUM(N11:P11)*21%</f>
-        <v>27319.03125</v>
+        <v>21625.17</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1660,7 +1659,7 @@
       </c>
       <c r="U7" s="1">
         <f>SUM(R11:T11)*21%</f>
-        <v>40785.28125</v>
+        <v>32284.77</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -1673,7 +1672,7 @@
       </c>
       <c r="Y7" s="1">
         <f>SUM(V11:X11)*21%</f>
-        <v>54114.375</v>
+        <v>42835.799999999996</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1763,95 +1762,95 @@
       </c>
       <c r="C9" s="15">
         <f t="shared" ref="C9:Y9" si="2">C6-C7-C8</f>
-        <v>546.29156976744184</v>
+        <v>381.99749999999995</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="2"/>
-        <v>2130.0727325581397</v>
+        <v>1550.3221250000001</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="2"/>
-        <v>2426.3368110465117</v>
+        <v>1679.1287562499992</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="2"/>
-        <v>6282.3112436046504</v>
+        <v>4629.8072537499993</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="2"/>
-        <v>10320.310874069766</v>
+        <v>7737.3018522499988</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="2"/>
-        <v>14046.486379093025</v>
+        <v>10588.25861135</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="2"/>
-        <v>4477.9899191976729</v>
+        <v>2977.8018056750007</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="2"/>
-        <v>11589.26603518023</v>
+        <v>8550.4759028375011</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="2"/>
-        <v>16016.720953636624</v>
+        <v>11997.331701418749</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>19185.188601818314</v>
+        <v>14423.159600709374</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="2"/>
-        <v>4724.9013503277565</v>
+        <v>2894.3073003546833</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="2"/>
-        <v>16274.840210047598</v>
+        <v>11955.784900177343</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="2"/>
-        <v>24442.213346302862</v>
+        <v>18333.204950088668</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="2"/>
-        <v>29649.858853383979</v>
+        <v>22358.264975044334</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="2"/>
-        <v>6670.1917813431501</v>
+        <v>4046.9187375221591</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="2"/>
-        <v>25172.13840520646</v>
+        <v>18561.253118761073</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" si="2"/>
-        <v>36377.871891556715</v>
+        <v>27303.664059380535</v>
       </c>
       <c r="T9" s="15">
         <f t="shared" si="2"/>
-        <v>44118.422137638816</v>
+        <v>33301.994529690259</v>
       </c>
       <c r="U9" s="15">
         <f t="shared" si="2"/>
-        <v>10974.498859517073</v>
+        <v>6918.9772648451217</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" si="2"/>
-        <v>37522.923848363178</v>
+        <v>27795.63863242256</v>
       </c>
       <c r="W9" s="15">
         <f t="shared" si="2"/>
-        <v>53063.022970693215</v>
+        <v>39983.419316211272</v>
       </c>
       <c r="X9" s="15">
         <f t="shared" si="2"/>
-        <v>62028.828345811722</v>
+        <v>46991.334658105639</v>
       </c>
       <c r="Y9" s="15">
         <f t="shared" si="2"/>
-        <v>13380.299347324471</v>
+        <v>8384.2173290528153</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1886,99 +1885,99 @@
       </c>
       <c r="B11" s="1">
         <f>B41+B47</f>
-        <v>1187.5</v>
+        <v>940</v>
       </c>
       <c r="C11" s="1">
         <f>C41+C47</f>
-        <v>3681.25</v>
+        <v>2914</v>
       </c>
       <c r="D11" s="1">
         <f>D41+D47</f>
-        <v>6887.5</v>
+        <v>5452</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:Y11" si="3">E41+E47</f>
-        <v>10153.125</v>
+        <v>8037</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>13418.75</v>
+        <v>10622</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>16090.625</v>
+        <v>12737</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>19296.875</v>
+        <v>15275</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>23156.25</v>
+        <v>18330</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>25293.75</v>
+        <v>20022</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>27846.875</v>
+        <v>22043</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>32240.625</v>
+        <v>25521</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>34437.5</v>
+        <v>27260</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>39959.375</v>
+        <v>31631</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>42868.75</v>
+        <v>33934</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>47262.5</v>
+        <v>37412</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="3"/>
-        <v>53615.625</v>
+        <v>42441</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
-        <v>58365.625</v>
+        <v>46201</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="3"/>
-        <v>63531.25</v>
+        <v>50290</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="3"/>
-        <v>72318.75</v>
+        <v>57246</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="3"/>
-        <v>77900</v>
+        <v>61664</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="3"/>
-        <v>83125</v>
+        <v>65800</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="3"/>
-        <v>85975</v>
+        <v>68056</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="3"/>
-        <v>88587.5</v>
+        <v>70124</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="3"/>
-        <v>93575</v>
+        <v>74072</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2088,99 +2087,99 @@
       </c>
       <c r="B13" s="1">
         <f>Sheet1!$C$18 * B39</f>
-        <v>57.994186046511615</v>
+        <v>57.57500000000001</v>
       </c>
       <c r="C13" s="1">
         <f>Sheet1!$C$18 * C39</f>
-        <v>173.98255813953483</v>
+        <v>172.72500000000002</v>
       </c>
       <c r="D13" s="1">
         <f>Sheet1!$C$18 * D39</f>
-        <v>318.96802325581388</v>
+        <v>316.66250000000008</v>
       </c>
       <c r="E13" s="1">
         <f>Sheet1!$C$18 * E39</f>
-        <v>463.95348837209292</v>
+        <v>460.60000000000008</v>
       </c>
       <c r="F13" s="1">
         <f>Sheet1!$C$18 * F39</f>
-        <v>608.93895348837191</v>
+        <v>604.53750000000014</v>
       </c>
       <c r="G13" s="1">
         <f>Sheet1!$C$18 * G39</f>
-        <v>724.92732558139517</v>
+        <v>719.68750000000011</v>
       </c>
       <c r="H13" s="1">
         <f>Sheet1!$C$18 * H39</f>
-        <v>869.91279069767427</v>
+        <v>863.62500000000011</v>
       </c>
       <c r="I13" s="1">
         <f>Sheet1!$C$18 * I39</f>
-        <v>1043.895348837209</v>
+        <v>1036.3500000000001</v>
       </c>
       <c r="J13" s="1">
         <f>Sheet1!$C$18 * J39</f>
-        <v>1130.8866279069764</v>
+        <v>1122.7125000000001</v>
       </c>
       <c r="K13" s="1">
         <f>Sheet1!$C$18 * K39</f>
-        <v>1246.8749999999998</v>
+        <v>1237.8625000000002</v>
       </c>
       <c r="L13" s="1">
         <f>Sheet1!$C$18 * L39</f>
-        <v>1449.8546511627903</v>
+        <v>1439.3750000000002</v>
       </c>
       <c r="M13" s="1">
         <f>Sheet1!$C$18 * M39</f>
-        <v>1536.8459302325577</v>
+        <v>1525.7375000000002</v>
       </c>
       <c r="N13" s="1">
         <f>Sheet1!$C$18 * N39</f>
-        <v>1797.81976744186</v>
+        <v>1784.8250000000003</v>
       </c>
       <c r="O13" s="1">
         <f>Sheet1!$C$18 * O39</f>
-        <v>1913.8081395348834</v>
+        <v>1899.9750000000004</v>
       </c>
       <c r="P13" s="1">
         <f>Sheet1!$C$18 * P39</f>
-        <v>2116.7877906976742</v>
+        <v>2101.4875000000002</v>
       </c>
       <c r="Q13" s="1">
         <f>Sheet1!$C$18 * Q39</f>
-        <v>2406.7587209302319</v>
+        <v>2389.3625000000006</v>
       </c>
       <c r="R13" s="1">
         <f>Sheet1!$C$18 * R39</f>
-        <v>2609.7383720930225</v>
+        <v>2590.8750000000005</v>
       </c>
       <c r="S13" s="1">
         <f>Sheet1!$C$18 * S39</f>
-        <v>2841.7151162790692</v>
+        <v>2821.1750000000006</v>
       </c>
       <c r="T13" s="1">
         <f>Sheet1!$C$18 * T39</f>
-        <v>3247.6744186046503</v>
+        <v>3224.2000000000007</v>
       </c>
       <c r="U13" s="1">
         <f>Sheet1!$C$18 * U39</f>
-        <v>3479.6511627906971</v>
+        <v>3454.5000000000005</v>
       </c>
       <c r="V13" s="1">
         <f>Sheet1!$C$18 * V39</f>
-        <v>3711.6279069767434</v>
+        <v>3684.8000000000006</v>
       </c>
       <c r="W13" s="1">
         <f>Sheet1!$C$18 * W39</f>
-        <v>3827.6162790697667</v>
+        <v>3799.9500000000007</v>
       </c>
       <c r="X13" s="1">
         <f>Sheet1!$C$18 * X39</f>
-        <v>3943.6046511627897</v>
+        <v>3915.1000000000008</v>
       </c>
       <c r="Y13" s="1">
         <f>Sheet1!$C$18 * Y39</f>
-        <v>4175.5813953488359</v>
+        <v>4145.4000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2189,99 +2188,99 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:Y14" si="4">B11*5%</f>
-        <v>59.375</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
-        <v>184.0625</v>
+        <v>145.70000000000002</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="4"/>
-        <v>344.375</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="4"/>
-        <v>507.65625</v>
+        <v>401.85</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>670.9375</v>
+        <v>531.1</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>804.53125</v>
+        <v>636.85</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>964.84375</v>
+        <v>763.75</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>1157.8125</v>
+        <v>916.5</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>1264.6875</v>
+        <v>1001.1</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>1392.34375</v>
+        <v>1102.1500000000001</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>1612.03125</v>
+        <v>1276.0500000000002</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="4"/>
-        <v>1721.875</v>
+        <v>1363</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>1997.96875</v>
+        <v>1581.5500000000002</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="4"/>
-        <v>2143.4375</v>
+        <v>1696.7</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="4"/>
-        <v>2363.125</v>
+        <v>1870.6000000000001</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="4"/>
-        <v>2680.78125</v>
+        <v>2122.0500000000002</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="4"/>
-        <v>2918.28125</v>
+        <v>2310.0500000000002</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
-        <v>3176.5625</v>
+        <v>2514.5</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="4"/>
-        <v>3615.9375</v>
+        <v>2862.3</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="4"/>
-        <v>3895</v>
+        <v>3083.2000000000003</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="4"/>
-        <v>4156.25</v>
+        <v>3290</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="4"/>
-        <v>4298.75</v>
+        <v>3402.8</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="4"/>
-        <v>4429.375</v>
+        <v>3506.2000000000003</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="4"/>
-        <v>4678.75</v>
+        <v>3703.6000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2316,99 +2315,99 @@
       </c>
       <c r="B16" s="9">
         <f>B11-B13-B12-B14</f>
-        <v>1016.1308139534883</v>
+        <v>781.42499999999995</v>
       </c>
       <c r="C16" s="9">
         <f>C11-C13-C12-C14</f>
-        <v>3269.2049418604652</v>
+        <v>2541.5750000000003</v>
       </c>
       <c r="D16" s="9">
         <f>D11-D13-D12-D14</f>
-        <v>6170.1569767441861</v>
+        <v>4808.7374999999993</v>
       </c>
       <c r="E16" s="9">
         <f>E11-E13-E12-E14</f>
-        <v>9127.5152616279065</v>
+        <v>7120.5499999999993</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:Y16" si="5">F11-F13-F12-F14</f>
-        <v>12084.873546511628</v>
+        <v>9432.3624999999993</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="5"/>
-        <v>14507.166424418605</v>
+        <v>11326.4625</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="5"/>
-        <v>17408.118459302324</v>
+        <v>13593.625</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="5"/>
-        <v>20900.54215116279</v>
+        <v>16323.150000000001</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="5"/>
-        <v>22844.175872093023</v>
+        <v>17844.1875</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="5"/>
-        <v>25153.65625</v>
+        <v>19648.987499999999</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="5"/>
-        <v>29124.73909883721</v>
+        <v>22751.575000000001</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="5"/>
-        <v>31124.779069767443</v>
+        <v>24317.262500000001</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="5"/>
-        <v>36109.586482558138</v>
+        <v>28210.625</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="5"/>
-        <v>38757.504360465115</v>
+        <v>30283.325000000001</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="5"/>
-        <v>42728.587209302328</v>
+        <v>33385.912499999999</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="5"/>
-        <v>48474.085029069771</v>
+        <v>37875.587499999994</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="5"/>
-        <v>52783.605377906977</v>
+        <v>41246.074999999997</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="5"/>
-        <v>57458.972383720931</v>
+        <v>44900.324999999997</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="5"/>
-        <v>65401.138081395344</v>
+        <v>51105.5</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="5"/>
-        <v>70471.348837209298</v>
+        <v>55072.3</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="5"/>
-        <v>75203.122093023252</v>
+        <v>58771.199999999997</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="5"/>
-        <v>77794.633720930229</v>
+        <v>60799.25</v>
       </c>
       <c r="X16" s="9">
         <f t="shared" si="5"/>
-        <v>80160.520348837206</v>
+        <v>62648.7</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="5"/>
-        <v>84666.66860465116</v>
+        <v>66169</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -2417,99 +2416,99 @@
       </c>
       <c r="B17" s="10">
         <f>(B16-B11*21%)/B11</f>
-        <v>0.64568910648714806</v>
+        <v>0.62130319148936164</v>
       </c>
       <c r="C17" s="10">
         <f t="shared" ref="C17:Y17" si="6">(C16-C11*21%)/C11</f>
-        <v>0.67806925415564423</v>
+        <v>0.66219457789979419</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68584856286666951</v>
+        <v>0.67201348129126914</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68898580600828874</v>
+        <v>0.67597113350752758</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69059607239956244</v>
+        <v>0.67800249482206731</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69159123243619214</v>
+        <v>0.67925669309884584</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69212111853874392</v>
+        <v>0.67992635024549919</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69258751529987761</v>
+        <v>0.68051554828150584</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69315496405606214</v>
+        <v>0.68122902307461797</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69328470429805855</v>
+        <v>0.68139352628952499</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69335528851680794</v>
+        <v>0.68148446377493044</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69380483687164984</v>
+        <v>0.68204924798239186</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69365743915059075</v>
+        <v>0.68186636527457245</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69409690883137753</v>
+        <v>0.68241837095538405</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69406955216720079</v>
+        <v>0.68238513043943116</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69410370165543667</v>
+        <v>0.68242919582479189</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69436117796917241</v>
+        <v>0.68275286249215383</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69442061794346766</v>
+        <v>0.68282809703718428</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69434552700918284</v>
+        <v>0.68273486357125379</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="6"/>
-        <v>0.6946386243544197</v>
+        <v>0.68310294499221591</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69469921314915195</v>
+        <v>0.68317933130699082</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69485180251154677</v>
+        <v>0.68337090043493587</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69487394213446829</v>
+        <v>0.68339883634704235</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="6"/>
-        <v>0.69480009195459425</v>
+        <v>0.68330651258235242</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2545,99 +2544,99 @@
       </c>
       <c r="B21" s="1">
         <f>B9+B16</f>
-        <v>1066.1308139534883</v>
+        <v>831.42499999999995</v>
       </c>
       <c r="C21" s="1">
         <f>C9+C16</f>
-        <v>3815.4965116279072</v>
+        <v>2923.5725000000002</v>
       </c>
       <c r="D21" s="1">
         <f>D9+D16</f>
-        <v>8300.2297093023262</v>
+        <v>6359.0596249999999</v>
       </c>
       <c r="E21" s="1">
         <f>E9+E16</f>
-        <v>11553.852072674417</v>
+        <v>8799.6787562499994</v>
       </c>
       <c r="F21" s="1">
         <f>F9+F16</f>
-        <v>18367.184790116276</v>
+        <v>14062.169753749999</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:Y21" si="7">G9+G16</f>
-        <v>24827.477298488371</v>
+        <v>19063.76435225</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>31454.604838395349</v>
+        <v>24181.88361135</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
-        <v>25378.532070360463</v>
+        <v>19300.951805675002</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="7"/>
-        <v>34433.441907273256</v>
+        <v>26394.663402837501</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="7"/>
-        <v>41170.377203636628</v>
+        <v>31646.319201418748</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="7"/>
-        <v>48309.92770065552</v>
+        <v>37174.734600709373</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="7"/>
-        <v>35849.680420095203</v>
+        <v>27211.569800354686</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="7"/>
-        <v>52384.426692605732</v>
+        <v>40166.409900177343</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="7"/>
-        <v>63199.717706767973</v>
+        <v>48616.529950088669</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="7"/>
-        <v>72378.4460626863</v>
+        <v>55744.177475044329</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="7"/>
-        <v>55144.276810412921</v>
+        <v>41922.506237522153</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="7"/>
-        <v>77955.74378311343</v>
+        <v>59807.32811876107</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="7"/>
-        <v>93836.844275277646</v>
+        <v>72203.989059380532</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="7"/>
-        <v>109519.56021903416</v>
+        <v>84407.494529690259</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="7"/>
-        <v>81445.84769672637</v>
+        <v>61991.277264845121</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="7"/>
-        <v>112726.04594138643</v>
+        <v>86566.838632422558</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="7"/>
-        <v>130857.65669162344</v>
+        <v>100782.66931621128</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="7"/>
-        <v>142189.34869464894</v>
+        <v>109640.03465810564</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="7"/>
-        <v>98046.967951975632</v>
+        <v>74553.217329052815</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2646,99 +2645,99 @@
       </c>
       <c r="B22" s="1">
         <f>B21*B23</f>
-        <v>213.22616279069769</v>
+        <v>166.285</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:Y22" si="8">C21*C23</f>
-        <v>953.87412790697681</v>
+        <v>730.89312500000005</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="8"/>
-        <v>2075.0574273255816</v>
+        <v>1589.76490625</v>
       </c>
       <c r="E22" s="1">
         <f>E21*E23</f>
-        <v>3466.1556218023252</v>
+        <v>2639.9036268749996</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="8"/>
-        <v>5510.1554370348831</v>
+        <v>4218.6509261249994</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="8"/>
-        <v>7448.2431895465106</v>
+        <v>5719.1293056750001</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="8"/>
-        <v>12581.841935358141</v>
+        <v>9672.7534445399997</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="8"/>
-        <v>10151.412828144186</v>
+        <v>7720.3807222700016</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="8"/>
-        <v>13773.376762909304</v>
+        <v>10557.865361135002</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="8"/>
-        <v>16468.150881454651</v>
+        <v>12658.5276805675</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="8"/>
-        <v>19323.97108026221</v>
+        <v>14869.89384028375</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="8"/>
-        <v>14339.872168038082</v>
+        <v>10884.627920141875</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="8"/>
-        <v>20953.770677042296</v>
+        <v>16066.563960070938</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="8"/>
-        <v>25279.887082707191</v>
+        <v>19446.611980035468</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="8"/>
-        <v>28951.378425074523</v>
+        <v>22297.670990017734</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>
-        <v>22057.710724165168</v>
+        <v>16769.002495008863</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="8"/>
-        <v>31182.297513245372</v>
+        <v>23922.931247504428</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="8"/>
-        <v>37534.737710111061</v>
+        <v>28881.595623752215</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="8"/>
-        <v>43807.82408761367</v>
+        <v>33762.997811876106</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="8"/>
-        <v>32578.339078690551</v>
+        <v>24796.510905938048</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="8"/>
-        <v>45090.418376554575</v>
+        <v>34626.735452969027</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="8"/>
-        <v>52343.062676649381</v>
+        <v>40313.067726484514</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="8"/>
-        <v>56875.739477859577</v>
+        <v>43856.01386324226</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="8"/>
-        <v>39218.787180790256</v>
+        <v>29821.286931621129</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2824,99 +2823,99 @@
       </c>
       <c r="B24" s="1">
         <f>B21*10%</f>
-        <v>106.61308139534884</v>
+        <v>83.142499999999998</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:Y24" si="9">C21*10%</f>
-        <v>381.54965116279072</v>
+        <v>292.35725000000002</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>830.02297093023265</v>
+        <v>635.90596249999999</v>
       </c>
       <c r="E24" s="1">
         <f>E21*10%</f>
-        <v>1155.3852072674417</v>
+        <v>879.96787562500003</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="9"/>
-        <v>1836.7184790116278</v>
+        <v>1406.2169753749999</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="9"/>
-        <v>2482.7477298488375</v>
+        <v>1906.376435225</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="9"/>
-        <v>3145.4604838395353</v>
+        <v>2418.1883611349999</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="9"/>
-        <v>2537.8532070360466</v>
+        <v>1930.0951805675004</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="9"/>
-        <v>3443.3441907273259</v>
+        <v>2639.4663402837505</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="9"/>
-        <v>4117.0377203636626</v>
+        <v>3164.6319201418751</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="9"/>
-        <v>4830.9927700655526</v>
+        <v>3717.4734600709376</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="9"/>
-        <v>3584.9680420095206</v>
+        <v>2721.1569800354687</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="9"/>
-        <v>5238.4426692605739</v>
+        <v>4016.6409900177346</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="9"/>
-        <v>6319.9717706767979</v>
+        <v>4861.652995008867</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="9"/>
-        <v>7237.8446062686307</v>
+        <v>5574.4177475044335</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="9"/>
-        <v>5514.4276810412921</v>
+        <v>4192.2506237522157</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="9"/>
-        <v>7795.574378311343</v>
+        <v>5980.732811876107</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="9"/>
-        <v>9383.6844275277654</v>
+        <v>7220.3989059380538</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="9"/>
-        <v>10951.956021903417</v>
+        <v>8440.7494529690266</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="9"/>
-        <v>8144.5847696726378</v>
+        <v>6199.1277264845121</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="9"/>
-        <v>11272.604594138644</v>
+        <v>8656.6838632422568</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="9"/>
-        <v>13085.765669162345</v>
+        <v>10078.266931621129</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="9"/>
-        <v>14218.934869464894</v>
+        <v>10964.003465810565</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="9"/>
-        <v>9804.6967951975639</v>
+        <v>7455.3217329052823</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2925,99 +2924,99 @@
       </c>
       <c r="B25" s="9">
         <f>B21-B22-B24</f>
-        <v>746.29156976744184</v>
+        <v>581.99749999999995</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" ref="C25:Y25" si="10">C21-C22-C24</f>
-        <v>2480.0727325581397</v>
+        <v>1900.3221250000001</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="10"/>
-        <v>5395.1493110465117</v>
+        <v>4133.3887562499995</v>
       </c>
       <c r="E25" s="9">
         <f>E21-E22-E24</f>
-        <v>6932.3112436046504</v>
+        <v>5279.8072537499993</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="10"/>
-        <v>11020.310874069766</v>
+        <v>8437.3018522499988</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="10"/>
-        <v>14896.486379093025</v>
+        <v>11438.25861135</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="10"/>
-        <v>15727.302419197673</v>
+        <v>12090.941805675</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="10"/>
-        <v>12689.26603518023</v>
+        <v>9650.4759028375011</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="10"/>
-        <v>17216.720953636624</v>
+        <v>13197.331701418749</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="10"/>
-        <v>20585.188601818314</v>
+        <v>15823.159600709374</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="10"/>
-        <v>24154.963850327757</v>
+        <v>18587.367300354683</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="10"/>
-        <v>17924.840210047598</v>
+        <v>13605.784900177343</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="10"/>
-        <v>26192.213346302862</v>
+        <v>20083.204950088668</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="10"/>
-        <v>31599.858853383979</v>
+        <v>24308.264975044334</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="10"/>
-        <v>36189.22303134315</v>
+        <v>27872.088737522157</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="10"/>
-        <v>27572.13840520646</v>
+        <v>20961.253118761073</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="10"/>
-        <v>38977.871891556715</v>
+        <v>29903.664059380535</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="10"/>
-        <v>46918.422137638816</v>
+        <v>36101.994529690259</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="10"/>
-        <v>54759.780109517073</v>
+        <v>42203.747264845122</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="10"/>
-        <v>40722.923848363178</v>
+        <v>30995.63863242256</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="10"/>
-        <v>56363.022970693215</v>
+        <v>43283.419316211272</v>
       </c>
       <c r="W25" s="9">
         <f t="shared" si="10"/>
-        <v>65428.828345811722</v>
+        <v>50391.334658105639</v>
       </c>
       <c r="X25" s="9">
         <f t="shared" si="10"/>
-        <v>71094.674347324471</v>
+        <v>54820.017329052811</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="10"/>
-        <v>49023.483975987809</v>
+        <v>37276.6086645264</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -3026,99 +3025,99 @@
       </c>
       <c r="B27" s="16">
         <f>B11*12</f>
-        <v>14250</v>
+        <v>11280</v>
       </c>
       <c r="C27" s="16">
         <f>C11*12</f>
-        <v>44175</v>
+        <v>34968</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" ref="D27:Y27" si="11">D11*12</f>
-        <v>82650</v>
+        <v>65424</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="11"/>
-        <v>121837.5</v>
+        <v>96444</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="11"/>
-        <v>161025</v>
+        <v>127464</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="11"/>
-        <v>193087.5</v>
+        <v>152844</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" si="11"/>
-        <v>231562.5</v>
+        <v>183300</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="11"/>
-        <v>277875</v>
+        <v>219960</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="11"/>
-        <v>303525</v>
+        <v>240264</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="11"/>
-        <v>334162.5</v>
+        <v>264516</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="11"/>
-        <v>386887.5</v>
+        <v>306252</v>
       </c>
       <c r="M27" s="16">
         <f t="shared" si="11"/>
-        <v>413250</v>
+        <v>327120</v>
       </c>
       <c r="N27" s="16">
         <f t="shared" si="11"/>
-        <v>479512.5</v>
+        <v>379572</v>
       </c>
       <c r="O27" s="16">
         <f t="shared" si="11"/>
-        <v>514425</v>
+        <v>407208</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" si="11"/>
-        <v>567150</v>
+        <v>448944</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="11"/>
-        <v>643387.5</v>
+        <v>509292</v>
       </c>
       <c r="R27" s="16">
         <f t="shared" si="11"/>
-        <v>700387.5</v>
+        <v>554412</v>
       </c>
       <c r="S27" s="16">
         <f t="shared" si="11"/>
-        <v>762375</v>
+        <v>603480</v>
       </c>
       <c r="T27" s="16">
         <f t="shared" si="11"/>
-        <v>867825</v>
+        <v>686952</v>
       </c>
       <c r="U27" s="16">
         <f t="shared" si="11"/>
-        <v>934800</v>
+        <v>739968</v>
       </c>
       <c r="V27" s="16">
         <f t="shared" si="11"/>
-        <v>997500</v>
+        <v>789600</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="11"/>
-        <v>1031700</v>
+        <v>816672</v>
       </c>
       <c r="X27" s="16">
         <f t="shared" si="11"/>
-        <v>1063050</v>
+        <v>841488</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="11"/>
-        <v>1122900</v>
+        <v>888864</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -3534,99 +3533,99 @@
       </c>
       <c r="B37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="C37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="D37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="E37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="F37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="G37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="H37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="I37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="J37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="K37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="L37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="M37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="N37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="O37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="P37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="Q37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="R37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="S37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="T37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="U37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="V37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="W37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="X37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
       <c r="Y37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>593.75</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3813,99 +3812,99 @@
       </c>
       <c r="B41" s="9">
         <f>B37*B39</f>
-        <v>1187.5</v>
+        <v>940</v>
       </c>
       <c r="C41" s="9">
         <f>C37*C39</f>
-        <v>3562.5</v>
+        <v>2820</v>
       </c>
       <c r="D41" s="9">
         <f>D37*D39</f>
-        <v>6531.25</v>
+        <v>5170</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" ref="E41:M41" si="17">E37*E39</f>
-        <v>9500</v>
+        <v>7520</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" si="17"/>
-        <v>12468.75</v>
+        <v>9870</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="17"/>
-        <v>14843.75</v>
+        <v>11750</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="17"/>
-        <v>17812.5</v>
+        <v>14100</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="17"/>
-        <v>21375</v>
+        <v>16920</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="17"/>
-        <v>23156.25</v>
+        <v>18330</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="17"/>
-        <v>25531.25</v>
+        <v>20210</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="17"/>
-        <v>29687.5</v>
+        <v>23500</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="17"/>
-        <v>31468.75</v>
+        <v>24910</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" ref="N41:Y41" si="18">N37*N39</f>
-        <v>36812.5</v>
+        <v>29140</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="18"/>
-        <v>39187.5</v>
+        <v>31020</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="18"/>
-        <v>43343.75</v>
+        <v>34310</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="18"/>
-        <v>49281.25</v>
+        <v>39010</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="18"/>
-        <v>53437.5</v>
+        <v>42300</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="18"/>
-        <v>58187.5</v>
+        <v>46060</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="18"/>
-        <v>66500</v>
+        <v>52640</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="18"/>
-        <v>71250</v>
+        <v>56400</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="18"/>
-        <v>76000</v>
+        <v>60160</v>
       </c>
       <c r="W41" s="9">
         <f t="shared" si="18"/>
-        <v>78375</v>
+        <v>62040</v>
       </c>
       <c r="X41" s="9">
         <f t="shared" si="18"/>
-        <v>80750</v>
+        <v>63920</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="18"/>
-        <v>85500</v>
+        <v>67680</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -3993,95 +3992,95 @@
       </c>
       <c r="C47" s="9">
         <f>B39*C46*B37</f>
-        <v>118.75</v>
+        <v>94</v>
       </c>
       <c r="D47" s="9">
         <f>C39*D46*C37</f>
-        <v>356.25000000000006</v>
+        <v>282.00000000000006</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:M47" si="19">D39*E46*D37</f>
-        <v>653.125</v>
+        <v>517</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="19"/>
-        <v>950</v>
+        <v>752</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="19"/>
-        <v>1246.875</v>
+        <v>987</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="19"/>
-        <v>1484.375</v>
+        <v>1175</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="19"/>
-        <v>1781.25</v>
+        <v>1410</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="19"/>
-        <v>2137.5</v>
+        <v>1692</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="19"/>
-        <v>2315.625</v>
+        <v>1833.0000000000002</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="19"/>
-        <v>2553.125</v>
+        <v>2021</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="19"/>
-        <v>2968.75</v>
+        <v>2350</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" ref="N47:Y47" si="20">M39*N46*M37</f>
-        <v>3146.8750000000005</v>
+        <v>2491.0000000000005</v>
       </c>
       <c r="O47" s="9">
         <f t="shared" si="20"/>
-        <v>3681.25</v>
+        <v>2914</v>
       </c>
       <c r="P47" s="9">
         <f t="shared" si="20"/>
-        <v>3918.7500000000005</v>
+        <v>3102.0000000000005</v>
       </c>
       <c r="Q47" s="9">
         <f t="shared" si="20"/>
-        <v>4334.375</v>
+        <v>3431.0000000000005</v>
       </c>
       <c r="R47" s="9">
         <f t="shared" si="20"/>
-        <v>4928.125</v>
+        <v>3901.0000000000005</v>
       </c>
       <c r="S47" s="9">
         <f t="shared" si="20"/>
-        <v>5343.75</v>
+        <v>4230</v>
       </c>
       <c r="T47" s="9">
         <f t="shared" si="20"/>
-        <v>5818.75</v>
+        <v>4606</v>
       </c>
       <c r="U47" s="9">
         <f t="shared" si="20"/>
-        <v>6650.0000000000009</v>
+        <v>5264.0000000000009</v>
       </c>
       <c r="V47" s="9">
         <f t="shared" si="20"/>
-        <v>7125</v>
+        <v>5640</v>
       </c>
       <c r="W47" s="9">
         <f t="shared" si="20"/>
-        <v>7600</v>
+        <v>6016</v>
       </c>
       <c r="X47" s="9">
         <f t="shared" si="20"/>
-        <v>7837.5000000000009</v>
+        <v>6204.0000000000009</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="20"/>
-        <v>8075.0000000000009</v>
+        <v>6392.0000000000009</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -4136,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
   <dimension ref="C5:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,27 +4214,27 @@
       </c>
       <c r="D9">
         <f>D10+D10*D8</f>
-        <v>297.5</v>
+        <v>238</v>
       </c>
       <c r="E9">
         <f>E10+E10*E8</f>
-        <v>633.6</v>
+        <v>512</v>
       </c>
       <c r="F9">
         <f>F10+F10*F8</f>
-        <v>2109.8000000000002</v>
+        <v>1644</v>
       </c>
       <c r="H9">
         <f>H10+H10*H8</f>
-        <v>5140.4999999999991</v>
+        <v>3725</v>
       </c>
       <c r="I9">
         <f>I10+I10*I8</f>
-        <v>7015.2</v>
+        <v>7584</v>
       </c>
       <c r="J9">
         <f>J10+J10*J8</f>
-        <v>8450</v>
+        <v>10140</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
@@ -4244,27 +4243,27 @@
       </c>
       <c r="D10" s="1">
         <f>D14*D11</f>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1">
         <f>E14*E11</f>
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="F10" s="1">
         <f>F14*F11</f>
-        <v>1540</v>
+        <v>1200</v>
       </c>
       <c r="H10" s="1">
         <f>H14*H11</f>
-        <v>3449.9999999999995</v>
+        <v>2500</v>
       </c>
       <c r="I10" s="1">
         <f>I14*I11</f>
-        <v>4440</v>
+        <v>4800</v>
       </c>
       <c r="J10" s="1">
         <f>J14*J11</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
@@ -4304,27 +4303,27 @@
       </c>
       <c r="D13" s="1">
         <f>D9/D11</f>
-        <v>1.4875</v>
+        <v>1.19</v>
       </c>
       <c r="E13" s="1">
         <f>E9/E11</f>
-        <v>1.2672000000000001</v>
+        <v>1.024</v>
       </c>
       <c r="F13" s="1">
         <f>F9/F11</f>
-        <v>1.0549000000000002</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="H13" s="1">
         <f>H9/H11</f>
-        <v>1.0280999999999998</v>
+        <v>0.745</v>
       </c>
       <c r="I13" s="1">
         <f>I9/I11</f>
-        <v>0.58460000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="J13" s="1">
         <f>J9/J11</f>
-        <v>0.42249999999999999</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
@@ -4332,22 +4331,22 @@
         <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="3">
-        <v>0.77</v>
+        <v>0.6</v>
       </c>
       <c r="H14" s="3">
-        <v>0.69</v>
+        <v>0.5</v>
       </c>
       <c r="I14" s="3">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="J14" s="3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B4920-1D7A-4FB2-A61E-9F1BEF8B0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC179E-B8FD-40A1-A7B2-D688CA23CD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10125" windowHeight="15600" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <t>Shared Plus Hosting</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>Check 1 week later Conversie</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Datacellectief</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -484,6 +490,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1076,7 +1083,7 @@
       </c>
       <c r="C14" s="1">
         <f>(Sheet3!D10*Sheet3!D5) + (Sheet3!E10*Sheet3!E5) + (Sheet3!F10*Sheet3!F5)</f>
-        <v>470</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1085,7 +1092,7 @@
       </c>
       <c r="C15" s="9">
         <f>C14*C12</f>
-        <v>4700</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1094,7 +1101,7 @@
       </c>
       <c r="C16" s="1">
         <f>C15*21%</f>
-        <v>987</v>
+        <v>493.5</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1136,11 +1143,11 @@
       </c>
       <c r="C21" s="1">
         <f>C15-C16-C18-C19</f>
-        <v>3630.2125000000001</v>
+        <v>1773.7125000000001</v>
       </c>
       <c r="D21" s="10">
         <f>C21/C15</f>
-        <v>0.77238563829787232</v>
+        <v>0.75477127659574472</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1201,7 +1208,7 @@
       </c>
       <c r="C37" s="1">
         <f>C21+C36</f>
-        <v>2680.2125000000001</v>
+        <v>823.71250000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1310,99 +1317,99 @@
       </c>
       <c r="B2" s="17">
         <f>B22</f>
-        <v>166.285</v>
+        <v>76.985000000000014</v>
       </c>
       <c r="C2" s="17">
         <f t="shared" ref="C2:Y2" si="0">C22+B2</f>
-        <v>897.17812500000002</v>
+        <v>383.70312500000006</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" si="0"/>
-        <v>2486.9430312499999</v>
+        <v>1050.3292812500001</v>
       </c>
       <c r="E2" s="17">
         <f t="shared" si="0"/>
-        <v>5126.8466581249995</v>
+        <v>2118.0511831250001</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" si="0"/>
-        <v>9345.4975842499989</v>
+        <v>3879.7580742499999</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" si="0"/>
-        <v>15064.626889924999</v>
+        <v>6309.6984589249996</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" si="0"/>
-        <v>24737.380334465</v>
+        <v>10448.850766665</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" si="0"/>
-        <v>32457.761056735002</v>
+        <v>13542.358920535</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" si="0"/>
-        <v>43015.626417870008</v>
+        <v>17982.607997470001</v>
       </c>
       <c r="K2" s="17">
         <f t="shared" si="0"/>
-        <v>55674.15409843751</v>
+        <v>23394.157535937502</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" si="0"/>
-        <v>70544.047938721254</v>
+        <v>29791.572305171252</v>
       </c>
       <c r="M2" s="17">
         <f t="shared" si="0"/>
-        <v>81428.675858863135</v>
+        <v>34099.172689788131</v>
       </c>
       <c r="N2" s="17">
         <f t="shared" si="0"/>
-        <v>97495.239818934075</v>
+        <v>40867.332882096569</v>
       </c>
       <c r="O2" s="17">
         <f t="shared" si="0"/>
-        <v>116941.85179896954</v>
+        <v>49217.282978250791</v>
       </c>
       <c r="P2" s="17">
         <f t="shared" si="0"/>
-        <v>139239.52278898726</v>
+        <v>58858.343026327901</v>
       </c>
       <c r="Q2" s="17">
         <f t="shared" si="0"/>
-        <v>156008.52528399613</v>
+        <v>65560.284050366463</v>
       </c>
       <c r="R2" s="17">
         <f t="shared" si="0"/>
-        <v>179931.45653150056</v>
+        <v>75671.494562385749</v>
       </c>
       <c r="S2" s="17">
         <f t="shared" si="0"/>
-        <v>208813.05215525278</v>
+        <v>88092.129818395391</v>
       </c>
       <c r="T2" s="17">
         <f t="shared" si="0"/>
-        <v>242576.0499671289</v>
+        <v>102747.9074464002</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" si="0"/>
-        <v>267372.56087306695</v>
+        <v>112731.60226040261</v>
       </c>
       <c r="V2" s="17">
         <f t="shared" si="0"/>
-        <v>301999.29632603598</v>
+        <v>127449.92966740381</v>
       </c>
       <c r="W2" s="17">
         <f t="shared" si="0"/>
-        <v>342312.36405252048</v>
+        <v>144878.15337090442</v>
       </c>
       <c r="X2" s="17">
         <f t="shared" si="0"/>
-        <v>386168.37791576271</v>
+        <v>163968.18522265472</v>
       </c>
       <c r="Y2" s="17">
         <f t="shared" si="0"/>
-        <v>415989.66484738386</v>
+        <v>175899.96114852987</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1501,95 +1508,95 @@
       </c>
       <c r="C6" s="9">
         <f>B25</f>
-        <v>581.99749999999995</v>
+        <v>269.44749999999999</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:Y6" si="1">C25</f>
-        <v>1900.3221250000001</v>
+        <v>797.46712500000001</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="1"/>
-        <v>4133.3887562499995</v>
+        <v>1733.2280062500001</v>
       </c>
       <c r="F6" s="9">
         <f>E25</f>
-        <v>5279.8072537499993</v>
+        <v>2135.4438037500004</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>8437.3018522499988</v>
+        <v>3523.4137822499997</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>11438.25861135</v>
+        <v>4859.8807693499994</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>12090.941805675</v>
+        <v>5173.9403846749992</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="1"/>
-        <v>9650.4759028375011</v>
+        <v>3866.8851923374996</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="1"/>
-        <v>13197.331701418749</v>
+        <v>5550.3113461687499</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>15823.159600709374</v>
+        <v>6764.436923084374</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="1"/>
-        <v>18587.367300354683</v>
+        <v>7996.7684615421877</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>13605.784900177343</v>
+        <v>5384.5004807710939</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
-        <v>20083.204950088668</v>
+        <v>8460.2002403855477</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="1"/>
-        <v>24308.264975044334</v>
+        <v>10437.437620192772</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="1"/>
-        <v>27872.088737522157</v>
+        <v>12051.325060096387</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>20961.253118761073</v>
+        <v>8377.4262800481938</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="1"/>
-        <v>29903.664059380535</v>
+        <v>12639.013140024095</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="1"/>
-        <v>36101.994529690259</v>
+        <v>15525.794070012045</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="1"/>
-        <v>42203.747264845122</v>
+        <v>18319.722035006023</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="1"/>
-        <v>30995.63863242256</v>
+        <v>12479.61851750301</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="1"/>
-        <v>43283.419316211272</v>
+        <v>18397.909258751504</v>
       </c>
       <c r="X6" s="9">
         <f t="shared" si="1"/>
-        <v>50391.334658105639</v>
+        <v>21785.279629375749</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="1"/>
-        <v>54820.017329052811</v>
+        <v>23862.539814687869</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1607,7 +1614,7 @@
       </c>
       <c r="E7" s="1">
         <f>SUM(B11:D11)*21%</f>
-        <v>1954.26</v>
+        <v>977.13</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1620,7 +1627,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(F11:H11)*21%</f>
-        <v>8113.1399999999994</v>
+        <v>4056.5699999999997</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1633,7 +1640,7 @@
       </c>
       <c r="M7" s="1">
         <f>SUM(J11:L11)*21%</f>
-        <v>14193.06</v>
+        <v>7096.53</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -1646,7 +1653,7 @@
       </c>
       <c r="Q7" s="1">
         <f>SUM(N11:P11)*21%</f>
-        <v>21625.17</v>
+        <v>10812.584999999999</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1659,7 +1666,7 @@
       </c>
       <c r="U7" s="1">
         <f>SUM(R11:T11)*21%</f>
-        <v>32284.77</v>
+        <v>16142.385</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -1672,7 +1679,7 @@
       </c>
       <c r="Y7" s="1">
         <f>SUM(V11:X11)*21%</f>
-        <v>42835.799999999996</v>
+        <v>21417.899999999998</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1762,95 +1769,95 @@
       </c>
       <c r="C9" s="15">
         <f t="shared" ref="C9:Y9" si="2">C6-C7-C8</f>
-        <v>381.99749999999995</v>
+        <v>69.447499999999991</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="2"/>
-        <v>1550.3221250000001</v>
+        <v>447.46712500000001</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="2"/>
-        <v>1679.1287562499992</v>
+        <v>256.09800625000014</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="2"/>
-        <v>4629.8072537499993</v>
+        <v>1485.4438037500004</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="2"/>
-        <v>7737.3018522499988</v>
+        <v>2823.4137822499997</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="2"/>
-        <v>10588.25861135</v>
+        <v>4009.8807693499994</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="2"/>
-        <v>2977.8018056750007</v>
+        <v>117.37038467499951</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="2"/>
-        <v>8550.4759028375011</v>
+        <v>2766.8851923374996</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="2"/>
-        <v>11997.331701418749</v>
+        <v>4350.3113461687499</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>14423.159600709374</v>
+        <v>5364.436923084374</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="2"/>
-        <v>2894.3073003546833</v>
+        <v>-599.76153845781209</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="2"/>
-        <v>11955.784900177343</v>
+        <v>3734.5004807710939</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="2"/>
-        <v>18333.204950088668</v>
+        <v>6710.2002403855477</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="2"/>
-        <v>22358.264975044334</v>
+        <v>8487.4376201927716</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="2"/>
-        <v>4046.9187375221591</v>
+        <v>-961.25993990361167</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="2"/>
-        <v>18561.253118761073</v>
+        <v>5977.4262800481938</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" si="2"/>
-        <v>27303.664059380535</v>
+        <v>10039.013140024095</v>
       </c>
       <c r="T9" s="15">
         <f t="shared" si="2"/>
-        <v>33301.994529690259</v>
+        <v>12725.794070012045</v>
       </c>
       <c r="U9" s="15">
         <f t="shared" si="2"/>
-        <v>6918.9772648451217</v>
+        <v>-822.66296499397686</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" si="2"/>
-        <v>27795.63863242256</v>
+        <v>9279.6185175030096</v>
       </c>
       <c r="W9" s="15">
         <f t="shared" si="2"/>
-        <v>39983.419316211272</v>
+        <v>15097.909258751504</v>
       </c>
       <c r="X9" s="15">
         <f t="shared" si="2"/>
-        <v>46991.334658105639</v>
+        <v>18385.279629375749</v>
       </c>
       <c r="Y9" s="15">
         <f t="shared" si="2"/>
-        <v>8384.2173290528153</v>
+        <v>-1155.360185312129</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1885,99 +1892,99 @@
       </c>
       <c r="B11" s="1">
         <f>B41+B47</f>
-        <v>940</v>
+        <v>470</v>
       </c>
       <c r="C11" s="1">
         <f>C41+C47</f>
-        <v>2914</v>
+        <v>1457</v>
       </c>
       <c r="D11" s="1">
         <f>D41+D47</f>
-        <v>5452</v>
+        <v>2726</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:Y11" si="3">E41+E47</f>
-        <v>8037</v>
+        <v>4018.5</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>10622</v>
+        <v>5311</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>12737</v>
+        <v>6368.5</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>15275</v>
+        <v>7637.5</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>18330</v>
+        <v>9165</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>20022</v>
+        <v>10011</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>22043</v>
+        <v>11021.5</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>25521</v>
+        <v>12760.5</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>27260</v>
+        <v>13630</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>31631</v>
+        <v>15815.5</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>33934</v>
+        <v>16967</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>37412</v>
+        <v>18706</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="3"/>
-        <v>42441</v>
+        <v>21220.5</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
-        <v>46201</v>
+        <v>23100.5</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="3"/>
-        <v>50290</v>
+        <v>25145</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="3"/>
-        <v>57246</v>
+        <v>28623</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="3"/>
-        <v>61664</v>
+        <v>30832</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="3"/>
-        <v>65800</v>
+        <v>32900</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="3"/>
-        <v>68056</v>
+        <v>34028</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="3"/>
-        <v>70124</v>
+        <v>35062</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="3"/>
-        <v>74072</v>
+        <v>37036</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2188,99 +2195,99 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:Y14" si="4">B11*5%</f>
-        <v>47</v>
+        <v>23.5</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
-        <v>145.70000000000002</v>
+        <v>72.850000000000009</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="4"/>
-        <v>272.60000000000002</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="4"/>
-        <v>401.85</v>
+        <v>200.92500000000001</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>531.1</v>
+        <v>265.55</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>636.85</v>
+        <v>318.42500000000001</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>763.75</v>
+        <v>381.875</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>916.5</v>
+        <v>458.25</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>1001.1</v>
+        <v>500.55</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>1102.1500000000001</v>
+        <v>551.07500000000005</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>1276.0500000000002</v>
+        <v>638.02500000000009</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="4"/>
-        <v>1363</v>
+        <v>681.5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>1581.5500000000002</v>
+        <v>790.77500000000009</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="4"/>
-        <v>1696.7</v>
+        <v>848.35</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="4"/>
-        <v>1870.6000000000001</v>
+        <v>935.30000000000007</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="4"/>
-        <v>2122.0500000000002</v>
+        <v>1061.0250000000001</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="4"/>
-        <v>2310.0500000000002</v>
+        <v>1155.0250000000001</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
-        <v>2514.5</v>
+        <v>1257.25</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="4"/>
-        <v>2862.3</v>
+        <v>1431.15</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="4"/>
-        <v>3083.2000000000003</v>
+        <v>1541.6000000000001</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="4"/>
-        <v>3290</v>
+        <v>1645</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="4"/>
-        <v>3402.8</v>
+        <v>1701.4</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="4"/>
-        <v>3506.2000000000003</v>
+        <v>1753.1000000000001</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="4"/>
-        <v>3703.6000000000004</v>
+        <v>1851.8000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2315,99 +2322,99 @@
       </c>
       <c r="B16" s="9">
         <f>B11-B13-B12-B14</f>
-        <v>781.42499999999995</v>
+        <v>334.92500000000001</v>
       </c>
       <c r="C16" s="9">
         <f>C11-C13-C12-C14</f>
-        <v>2541.5750000000003</v>
+        <v>1157.4250000000002</v>
       </c>
       <c r="D16" s="9">
         <f>D11-D13-D12-D14</f>
-        <v>4808.7374999999993</v>
+        <v>2219.0374999999999</v>
       </c>
       <c r="E16" s="9">
         <f>E11-E13-E12-E14</f>
-        <v>7120.5499999999993</v>
+        <v>3302.9749999999999</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:Y16" si="5">F11-F13-F12-F14</f>
-        <v>9432.3624999999993</v>
+        <v>4386.9124999999995</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="5"/>
-        <v>11326.4625</v>
+        <v>5276.3874999999998</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="5"/>
-        <v>13593.625</v>
+        <v>6338</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="5"/>
-        <v>16323.150000000001</v>
+        <v>7616.4</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="5"/>
-        <v>17844.1875</v>
+        <v>8333.7375000000011</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="5"/>
-        <v>19648.987499999999</v>
+        <v>9178.5625</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="5"/>
-        <v>22751.575000000001</v>
+        <v>10629.1</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="5"/>
-        <v>24317.262500000001</v>
+        <v>11368.762500000001</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="5"/>
-        <v>28210.625</v>
+        <v>13185.9</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="5"/>
-        <v>30283.325000000001</v>
+        <v>14164.674999999999</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="5"/>
-        <v>33385.912499999999</v>
+        <v>15615.212500000001</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="5"/>
-        <v>37875.587499999994</v>
+        <v>17716.112499999999</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="5"/>
-        <v>41246.074999999997</v>
+        <v>19300.599999999999</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="5"/>
-        <v>44900.324999999997</v>
+        <v>21012.575000000001</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="5"/>
-        <v>51105.5</v>
+        <v>23913.649999999998</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="5"/>
-        <v>55072.3</v>
+        <v>25781.9</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="5"/>
-        <v>58771.199999999997</v>
+        <v>27516.2</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="5"/>
-        <v>60799.25</v>
+        <v>28472.649999999998</v>
       </c>
       <c r="X16" s="9">
         <f t="shared" si="5"/>
-        <v>62648.7</v>
+        <v>29339.8</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="5"/>
-        <v>66169</v>
+        <v>30984.799999999999</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -2416,99 +2423,99 @@
       </c>
       <c r="B17" s="10">
         <f>(B16-B11*21%)/B11</f>
-        <v>0.62130319148936164</v>
+        <v>0.5026063829787234</v>
       </c>
       <c r="C17" s="10">
         <f t="shared" ref="C17:Y17" si="6">(C16-C11*21%)/C11</f>
-        <v>0.66219457789979419</v>
+        <v>0.58438915579958828</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="6"/>
-        <v>0.67201348129126914</v>
+        <v>0.60402696258253852</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="6"/>
-        <v>0.67597113350752758</v>
+        <v>0.61194226701505539</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="6"/>
-        <v>0.67800249482206731</v>
+        <v>0.61600498964413475</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="6"/>
-        <v>0.67925669309884584</v>
+        <v>0.61851338619769169</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="6"/>
-        <v>0.67992635024549919</v>
+        <v>0.61985270049099839</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68051554828150584</v>
+        <v>0.62103109656301148</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68122902307461797</v>
+        <v>0.62245804614923606</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68139352628952499</v>
+        <v>0.62278705257905009</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68148446377493044</v>
+        <v>0.62296892754986088</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68204924798239186</v>
+        <v>0.62409849596478362</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68186636527457245</v>
+        <v>0.62373273054914491</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68241837095538405</v>
+        <v>0.62483674191076799</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68238513043943116</v>
+        <v>0.62477026087886245</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68242919582479189</v>
+        <v>0.62485839164958412</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68275286249215383</v>
+        <v>0.62550572498430768</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68282809703718428</v>
+        <v>0.62565619407436868</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68273486357125379</v>
+        <v>0.62546972714250781</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68310294499221591</v>
+        <v>0.62620588998443172</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68317933130699082</v>
+        <v>0.62635866261398176</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68337090043493587</v>
+        <v>0.62674180086987175</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68339883634704235</v>
+        <v>0.62679767269408471</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="6"/>
-        <v>0.68330651258235242</v>
+        <v>0.62661302516470452</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2544,99 +2551,99 @@
       </c>
       <c r="B21" s="1">
         <f>B9+B16</f>
-        <v>831.42499999999995</v>
+        <v>384.92500000000001</v>
       </c>
       <c r="C21" s="1">
         <f>C9+C16</f>
-        <v>2923.5725000000002</v>
+        <v>1226.8725000000002</v>
       </c>
       <c r="D21" s="1">
         <f>D9+D16</f>
-        <v>6359.0596249999999</v>
+        <v>2666.504625</v>
       </c>
       <c r="E21" s="1">
         <f>E9+E16</f>
-        <v>8799.6787562499994</v>
+        <v>3559.0730062500002</v>
       </c>
       <c r="F21" s="1">
         <f>F9+F16</f>
-        <v>14062.169753749999</v>
+        <v>5872.3563037499998</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:Y21" si="7">G9+G16</f>
-        <v>19063.76435225</v>
+        <v>8099.8012822499995</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>24181.88361135</v>
+        <v>10347.880769349998</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
-        <v>19300.951805675002</v>
+        <v>7733.7703846749991</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="7"/>
-        <v>26394.663402837501</v>
+        <v>11100.6226923375</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="7"/>
-        <v>31646.319201418748</v>
+        <v>13528.87384616875</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="7"/>
-        <v>37174.734600709373</v>
+        <v>15993.536923084375</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="7"/>
-        <v>27211.569800354686</v>
+        <v>10769.000961542188</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="7"/>
-        <v>40166.409900177343</v>
+        <v>16920.400480771095</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="7"/>
-        <v>48616.529950088669</v>
+        <v>20874.875240385547</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="7"/>
-        <v>55744.177475044329</v>
+        <v>24102.650120192775</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="7"/>
-        <v>41922.506237522153</v>
+        <v>16754.852560096388</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="7"/>
-        <v>59807.32811876107</v>
+        <v>25278.026280048194</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="7"/>
-        <v>72203.989059380532</v>
+        <v>31051.588140024098</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="7"/>
-        <v>84407.494529690259</v>
+        <v>36639.444070012047</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="7"/>
-        <v>61991.277264845121</v>
+        <v>24959.237035006023</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="7"/>
-        <v>86566.838632422558</v>
+        <v>36795.818517503008</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="7"/>
-        <v>100782.66931621128</v>
+        <v>43570.559258751498</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="7"/>
-        <v>109640.03465810564</v>
+        <v>47725.079629375745</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="7"/>
-        <v>74553.217329052815</v>
+        <v>29829.43981468787</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2645,99 +2652,99 @@
       </c>
       <c r="B22" s="1">
         <f>B21*B23</f>
-        <v>166.285</v>
+        <v>76.985000000000014</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:Y22" si="8">C21*C23</f>
-        <v>730.89312500000005</v>
+        <v>306.71812500000004</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="8"/>
-        <v>1589.76490625</v>
+        <v>666.62615625000001</v>
       </c>
       <c r="E22" s="1">
         <f>E21*E23</f>
-        <v>2639.9036268749996</v>
+        <v>1067.721901875</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="8"/>
-        <v>4218.6509261249994</v>
+        <v>1761.7068911249999</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="8"/>
-        <v>5719.1293056750001</v>
+        <v>2429.9403846749997</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="8"/>
-        <v>9672.7534445399997</v>
+        <v>4139.1523077399997</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="8"/>
-        <v>7720.3807222700016</v>
+        <v>3093.5081538699997</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="8"/>
-        <v>10557.865361135002</v>
+        <v>4440.2490769349997</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="8"/>
-        <v>12658.5276805675</v>
+        <v>5411.5495384675005</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="8"/>
-        <v>14869.89384028375</v>
+        <v>6397.4147692337501</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="8"/>
-        <v>10884.627920141875</v>
+        <v>4307.6003846168751</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="8"/>
-        <v>16066.563960070938</v>
+        <v>6768.1601923084381</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="8"/>
-        <v>19446.611980035468</v>
+        <v>8349.9500961542199</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="8"/>
-        <v>22297.670990017734</v>
+        <v>9641.06004807711</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>
-        <v>16769.002495008863</v>
+        <v>6701.941024038555</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="8"/>
-        <v>23922.931247504428</v>
+        <v>10111.210512019279</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="8"/>
-        <v>28881.595623752215</v>
+        <v>12420.63525600964</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="8"/>
-        <v>33762.997811876106</v>
+        <v>14655.77762800482</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="8"/>
-        <v>24796.510905938048</v>
+        <v>9983.6948140024106</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="8"/>
-        <v>34626.735452969027</v>
+        <v>14718.327407001205</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="8"/>
-        <v>40313.067726484514</v>
+        <v>17428.2237035006</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="8"/>
-        <v>43856.01386324226</v>
+        <v>19090.0318517503</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="8"/>
-        <v>29821.286931621129</v>
+        <v>11931.775925875148</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2823,99 +2830,99 @@
       </c>
       <c r="B24" s="1">
         <f>B21*10%</f>
-        <v>83.142499999999998</v>
+        <v>38.492500000000007</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:Y24" si="9">C21*10%</f>
-        <v>292.35725000000002</v>
+        <v>122.68725000000002</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>635.90596249999999</v>
+        <v>266.6504625</v>
       </c>
       <c r="E24" s="1">
         <f>E21*10%</f>
-        <v>879.96787562500003</v>
+        <v>355.90730062500006</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="9"/>
-        <v>1406.2169753749999</v>
+        <v>587.23563037500003</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="9"/>
-        <v>1906.376435225</v>
+        <v>809.98012822500004</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="9"/>
-        <v>2418.1883611349999</v>
+        <v>1034.7880769349999</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="9"/>
-        <v>1930.0951805675004</v>
+        <v>773.37703846749991</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="9"/>
-        <v>2639.4663402837505</v>
+        <v>1110.0622692337499</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="9"/>
-        <v>3164.6319201418751</v>
+        <v>1352.8873846168751</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="9"/>
-        <v>3717.4734600709376</v>
+        <v>1599.3536923084375</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="9"/>
-        <v>2721.1569800354687</v>
+        <v>1076.9000961542188</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="9"/>
-        <v>4016.6409900177346</v>
+        <v>1692.0400480771095</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="9"/>
-        <v>4861.652995008867</v>
+        <v>2087.487524038555</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="9"/>
-        <v>5574.4177475044335</v>
+        <v>2410.2650120192775</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="9"/>
-        <v>4192.2506237522157</v>
+        <v>1675.4852560096388</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="9"/>
-        <v>5980.732811876107</v>
+        <v>2527.8026280048198</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="9"/>
-        <v>7220.3989059380538</v>
+        <v>3105.1588140024101</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="9"/>
-        <v>8440.7494529690266</v>
+        <v>3663.944407001205</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="9"/>
-        <v>6199.1277264845121</v>
+        <v>2495.9237035006026</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="9"/>
-        <v>8656.6838632422568</v>
+        <v>3679.5818517503012</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="9"/>
-        <v>10078.266931621129</v>
+        <v>4357.05592587515</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="9"/>
-        <v>10964.003465810565</v>
+        <v>4772.507962937575</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="9"/>
-        <v>7455.3217329052823</v>
+        <v>2982.9439814687871</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2924,99 +2931,99 @@
       </c>
       <c r="B25" s="9">
         <f>B21-B22-B24</f>
-        <v>581.99749999999995</v>
+        <v>269.44749999999999</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" ref="C25:Y25" si="10">C21-C22-C24</f>
-        <v>1900.3221250000001</v>
+        <v>797.46712500000001</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="10"/>
-        <v>4133.3887562499995</v>
+        <v>1733.2280062500001</v>
       </c>
       <c r="E25" s="9">
         <f>E21-E22-E24</f>
-        <v>5279.8072537499993</v>
+        <v>2135.4438037500004</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="10"/>
-        <v>8437.3018522499988</v>
+        <v>3523.4137822499997</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="10"/>
-        <v>11438.25861135</v>
+        <v>4859.8807693499994</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="10"/>
-        <v>12090.941805675</v>
+        <v>5173.9403846749992</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="10"/>
-        <v>9650.4759028375011</v>
+        <v>3866.8851923374996</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="10"/>
-        <v>13197.331701418749</v>
+        <v>5550.3113461687499</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="10"/>
-        <v>15823.159600709374</v>
+        <v>6764.436923084374</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="10"/>
-        <v>18587.367300354683</v>
+        <v>7996.7684615421877</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="10"/>
-        <v>13605.784900177343</v>
+        <v>5384.5004807710939</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="10"/>
-        <v>20083.204950088668</v>
+        <v>8460.2002403855477</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="10"/>
-        <v>24308.264975044334</v>
+        <v>10437.437620192772</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="10"/>
-        <v>27872.088737522157</v>
+        <v>12051.325060096387</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="10"/>
-        <v>20961.253118761073</v>
+        <v>8377.4262800481938</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="10"/>
-        <v>29903.664059380535</v>
+        <v>12639.013140024095</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="10"/>
-        <v>36101.994529690259</v>
+        <v>15525.794070012045</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="10"/>
-        <v>42203.747264845122</v>
+        <v>18319.722035006023</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="10"/>
-        <v>30995.63863242256</v>
+        <v>12479.61851750301</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="10"/>
-        <v>43283.419316211272</v>
+        <v>18397.909258751504</v>
       </c>
       <c r="W25" s="9">
         <f t="shared" si="10"/>
-        <v>50391.334658105639</v>
+        <v>21785.279629375749</v>
       </c>
       <c r="X25" s="9">
         <f t="shared" si="10"/>
-        <v>54820.017329052811</v>
+        <v>23862.539814687869</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="10"/>
-        <v>37276.6086645264</v>
+        <v>14914.719907343933</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -3025,99 +3032,99 @@
       </c>
       <c r="B27" s="16">
         <f>B11*12</f>
-        <v>11280</v>
+        <v>5640</v>
       </c>
       <c r="C27" s="16">
         <f>C11*12</f>
-        <v>34968</v>
+        <v>17484</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" ref="D27:Y27" si="11">D11*12</f>
-        <v>65424</v>
+        <v>32712</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="11"/>
-        <v>96444</v>
+        <v>48222</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="11"/>
-        <v>127464</v>
+        <v>63732</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="11"/>
-        <v>152844</v>
+        <v>76422</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" si="11"/>
-        <v>183300</v>
+        <v>91650</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="11"/>
-        <v>219960</v>
+        <v>109980</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="11"/>
-        <v>240264</v>
+        <v>120132</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="11"/>
-        <v>264516</v>
+        <v>132258</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="11"/>
-        <v>306252</v>
+        <v>153126</v>
       </c>
       <c r="M27" s="16">
         <f t="shared" si="11"/>
-        <v>327120</v>
+        <v>163560</v>
       </c>
       <c r="N27" s="16">
         <f t="shared" si="11"/>
-        <v>379572</v>
+        <v>189786</v>
       </c>
       <c r="O27" s="16">
         <f t="shared" si="11"/>
-        <v>407208</v>
+        <v>203604</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" si="11"/>
-        <v>448944</v>
+        <v>224472</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="11"/>
-        <v>509292</v>
+        <v>254646</v>
       </c>
       <c r="R27" s="16">
         <f t="shared" si="11"/>
-        <v>554412</v>
+        <v>277206</v>
       </c>
       <c r="S27" s="16">
         <f t="shared" si="11"/>
-        <v>603480</v>
+        <v>301740</v>
       </c>
       <c r="T27" s="16">
         <f t="shared" si="11"/>
-        <v>686952</v>
+        <v>343476</v>
       </c>
       <c r="U27" s="16">
         <f t="shared" si="11"/>
-        <v>739968</v>
+        <v>369984</v>
       </c>
       <c r="V27" s="16">
         <f t="shared" si="11"/>
-        <v>789600</v>
+        <v>394800</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="11"/>
-        <v>816672</v>
+        <v>408336</v>
       </c>
       <c r="X27" s="16">
         <f t="shared" si="11"/>
-        <v>841488</v>
+        <v>420744</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="11"/>
-        <v>888864</v>
+        <v>444432</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -3533,99 +3540,99 @@
       </c>
       <c r="B37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="C37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="D37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="E37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="F37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="G37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="H37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="I37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="J37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="K37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="L37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="M37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="N37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="O37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="P37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="R37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="S37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="T37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="U37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="V37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="W37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="X37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="Y37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>470</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3812,99 +3819,99 @@
       </c>
       <c r="B41" s="9">
         <f>B37*B39</f>
-        <v>940</v>
+        <v>470</v>
       </c>
       <c r="C41" s="9">
         <f>C37*C39</f>
-        <v>2820</v>
+        <v>1410</v>
       </c>
       <c r="D41" s="9">
         <f>D37*D39</f>
-        <v>5170</v>
+        <v>2585</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" ref="E41:M41" si="17">E37*E39</f>
-        <v>7520</v>
+        <v>3760</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" si="17"/>
-        <v>9870</v>
+        <v>4935</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="17"/>
-        <v>11750</v>
+        <v>5875</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="17"/>
-        <v>14100</v>
+        <v>7050</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="17"/>
-        <v>16920</v>
+        <v>8460</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="17"/>
-        <v>18330</v>
+        <v>9165</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="17"/>
-        <v>20210</v>
+        <v>10105</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="17"/>
-        <v>23500</v>
+        <v>11750</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="17"/>
-        <v>24910</v>
+        <v>12455</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" ref="N41:Y41" si="18">N37*N39</f>
-        <v>29140</v>
+        <v>14570</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="18"/>
-        <v>31020</v>
+        <v>15510</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="18"/>
-        <v>34310</v>
+        <v>17155</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="18"/>
-        <v>39010</v>
+        <v>19505</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="18"/>
-        <v>42300</v>
+        <v>21150</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="18"/>
-        <v>46060</v>
+        <v>23030</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="18"/>
-        <v>52640</v>
+        <v>26320</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="18"/>
-        <v>56400</v>
+        <v>28200</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="18"/>
-        <v>60160</v>
+        <v>30080</v>
       </c>
       <c r="W41" s="9">
         <f t="shared" si="18"/>
-        <v>62040</v>
+        <v>31020</v>
       </c>
       <c r="X41" s="9">
         <f t="shared" si="18"/>
-        <v>63920</v>
+        <v>31960</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="18"/>
-        <v>67680</v>
+        <v>33840</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -3992,95 +3999,95 @@
       </c>
       <c r="C47" s="9">
         <f>B39*C46*B37</f>
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D47" s="9">
         <f>C39*D46*C37</f>
-        <v>282.00000000000006</v>
+        <v>141.00000000000003</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:M47" si="19">D39*E46*D37</f>
-        <v>517</v>
+        <v>258.5</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="19"/>
-        <v>752</v>
+        <v>376</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="19"/>
-        <v>987</v>
+        <v>493.5</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="19"/>
-        <v>1175</v>
+        <v>587.5</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="19"/>
-        <v>1410</v>
+        <v>705</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="19"/>
-        <v>1692</v>
+        <v>846</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="19"/>
-        <v>1833.0000000000002</v>
+        <v>916.50000000000011</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="19"/>
-        <v>2021</v>
+        <v>1010.5</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="19"/>
-        <v>2350</v>
+        <v>1175</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" ref="N47:Y47" si="20">M39*N46*M37</f>
-        <v>2491.0000000000005</v>
+        <v>1245.5000000000002</v>
       </c>
       <c r="O47" s="9">
         <f t="shared" si="20"/>
-        <v>2914</v>
+        <v>1457</v>
       </c>
       <c r="P47" s="9">
         <f t="shared" si="20"/>
-        <v>3102.0000000000005</v>
+        <v>1551.0000000000002</v>
       </c>
       <c r="Q47" s="9">
         <f t="shared" si="20"/>
-        <v>3431.0000000000005</v>
+        <v>1715.5000000000002</v>
       </c>
       <c r="R47" s="9">
         <f t="shared" si="20"/>
-        <v>3901.0000000000005</v>
+        <v>1950.5000000000002</v>
       </c>
       <c r="S47" s="9">
         <f t="shared" si="20"/>
-        <v>4230</v>
+        <v>2115</v>
       </c>
       <c r="T47" s="9">
         <f t="shared" si="20"/>
-        <v>4606</v>
+        <v>2303</v>
       </c>
       <c r="U47" s="9">
         <f t="shared" si="20"/>
-        <v>5264.0000000000009</v>
+        <v>2632.0000000000005</v>
       </c>
       <c r="V47" s="9">
         <f t="shared" si="20"/>
-        <v>5640</v>
+        <v>2820</v>
       </c>
       <c r="W47" s="9">
         <f t="shared" si="20"/>
-        <v>6016</v>
+        <v>3008</v>
       </c>
       <c r="X47" s="9">
         <f t="shared" si="20"/>
-        <v>6204.0000000000009</v>
+        <v>3102.0000000000005</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="20"/>
-        <v>6392.0000000000009</v>
+        <v>3196.0000000000005</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -4133,10 +4140,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
-  <dimension ref="C5:J14"/>
+  <dimension ref="C5:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4214,27 +4221,27 @@
       </c>
       <c r="D9">
         <f>D10+D10*D8</f>
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <f>E10+E10*E8</f>
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="F9">
         <f>F10+F10*F8</f>
-        <v>1644</v>
+        <v>822</v>
       </c>
       <c r="H9">
         <f>H10+H10*H8</f>
-        <v>3725</v>
+        <v>1862.5</v>
       </c>
       <c r="I9">
         <f>I10+I10*I8</f>
-        <v>7584</v>
+        <v>3792</v>
       </c>
       <c r="J9">
         <f>J10+J10*J8</f>
-        <v>10140</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
@@ -4243,27 +4250,27 @@
       </c>
       <c r="D10" s="1">
         <f>D14*D11</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1">
         <f>E14*E11</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1">
         <f>F14*F11</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="H10" s="1">
         <f>H14*H11</f>
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="I10" s="1">
         <f>I14*I11</f>
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="J10" s="1">
         <f>J14*J11</f>
-        <v>6000</v>
+        <v>3400.0000000000005</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
@@ -4303,27 +4310,27 @@
       </c>
       <c r="D13" s="1">
         <f>D9/D11</f>
-        <v>1.19</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="E13" s="1">
         <f>E9/E11</f>
-        <v>1.024</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="F13" s="1">
         <f>F9/F11</f>
-        <v>0.82199999999999995</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="H13" s="1">
         <f>H9/H11</f>
-        <v>0.745</v>
+        <v>0.3725</v>
       </c>
       <c r="I13" s="1">
         <f>I9/I11</f>
-        <v>0.63200000000000001</v>
+        <v>0.316</v>
       </c>
       <c r="J13" s="1">
         <f>J9/J11</f>
-        <v>0.50700000000000001</v>
+        <v>0.2873</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
@@ -4331,22 +4338,126 @@
         <v>15</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="3">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H14" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="19">
+        <f>D27/70%</f>
         <v>0.5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.3</v>
+      <c r="E22" s="19">
+        <f>E27/70%</f>
+        <v>0.3928571428571429</v>
+      </c>
+      <c r="F22" s="19">
+        <f>F27/70%</f>
+        <v>0.27142857142857146</v>
+      </c>
+      <c r="G22" s="19">
+        <f>G27/70%</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <f>H27/70%</f>
+        <v>0.23571428571428574</v>
+      </c>
+      <c r="I22" s="19">
+        <f>I27/70%</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="J22" s="19">
+        <f>J27/70%</f>
+        <v>0.15714285714285717</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>500</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="F25">
+        <v>2500</v>
+      </c>
+      <c r="H25">
+        <v>5000</v>
+      </c>
+      <c r="I25">
+        <v>15000</v>
+      </c>
+      <c r="J25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>175</v>
+      </c>
+      <c r="E26">
+        <v>275</v>
+      </c>
+      <c r="F26">
+        <v>475</v>
+      </c>
+      <c r="H26">
+        <v>825</v>
+      </c>
+      <c r="I26">
+        <v>1800</v>
+      </c>
+      <c r="J26">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>D26/D25</f>
+        <v>0.35</v>
+      </c>
+      <c r="E27">
+        <f>E26/E25</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F27">
+        <f>F26/F25</f>
+        <v>0.19</v>
+      </c>
+      <c r="H27">
+        <f>H26/H25</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I27">
+        <f>I26/I25</f>
+        <v>0.12</v>
+      </c>
+      <c r="J27">
+        <f>J26/J25</f>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FC179E-B8FD-40A1-A7B2-D688CA23CD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DF535D-3412-4FC3-8272-C0987E214386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t>Shared Plus Hosting</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>Datacellectief</t>
+  </si>
+  <si>
+    <t>Generate Link that they click then we can count the visitors per sended mails</t>
+  </si>
+  <si>
+    <t>incl Btw</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1095,7 @@
       </c>
       <c r="C14" s="1">
         <f>(Sheet3!D10*Sheet3!D5) + (Sheet3!E10*Sheet3!E5) + (Sheet3!F10*Sheet3!F5)</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1092,7 +1104,7 @@
       </c>
       <c r="C15" s="9">
         <f>C14*C12</f>
-        <v>2350</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1101,7 +1113,7 @@
       </c>
       <c r="C16" s="1">
         <f>C15*21%</f>
-        <v>493.5</v>
+        <v>782.25</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1110,7 +1122,7 @@
       </c>
       <c r="C17" s="2">
         <f>C15/ (AVERAGE(Sheet3!D14:F14))</f>
-        <v>5875.0000000000009</v>
+        <v>9312.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1119,7 +1131,7 @@
       </c>
       <c r="C18" s="1">
         <f>C17/10000 * 49</f>
-        <v>28.787500000000005</v>
+        <v>45.631250000000001</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -1143,11 +1155,11 @@
       </c>
       <c r="C21" s="1">
         <f>C15-C16-C18-C19</f>
-        <v>1773.7125000000001</v>
+        <v>2843.1187500000001</v>
       </c>
       <c r="D21" s="10">
         <f>C21/C15</f>
-        <v>0.75477127659574472</v>
+        <v>0.76325335570469799</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1208,7 +1220,7 @@
       </c>
       <c r="C37" s="1">
         <f>C21+C36</f>
-        <v>823.71250000000009</v>
+        <v>1893.1187500000001</v>
       </c>
     </row>
   </sheetData>
@@ -1317,99 +1329,99 @@
       </c>
       <c r="B2" s="17">
         <f>B22</f>
-        <v>76.985000000000014</v>
+        <v>122.4975</v>
       </c>
       <c r="C2" s="17">
         <f t="shared" ref="C2:Y2" si="0">C22+B2</f>
-        <v>383.70312500000006</v>
+        <v>646.2421875</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" si="0"/>
-        <v>1050.3292812500001</v>
+        <v>1786.427796875</v>
       </c>
       <c r="E2" s="17">
         <f t="shared" si="0"/>
-        <v>2118.0511831250001</v>
+        <v>3641.2648221874997</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" si="0"/>
-        <v>3879.7580742499999</v>
+        <v>6654.7626623749993</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" si="0"/>
-        <v>6309.6984589249996</v>
+        <v>10771.4307414875</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" si="0"/>
-        <v>10448.850766665</v>
+        <v>17755.965204777502</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" si="0"/>
-        <v>13542.358920535</v>
+        <v>23117.9544364225</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" si="0"/>
-        <v>17982.607997470001</v>
+        <v>30655.531552245</v>
       </c>
       <c r="K2" s="17">
         <f t="shared" si="0"/>
-        <v>23394.157535937502</v>
+        <v>39776.557610156247</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" si="0"/>
-        <v>29791.572305171252</v>
+        <v>50529.010639111875</v>
       </c>
       <c r="M2" s="17">
         <f t="shared" si="0"/>
-        <v>34099.172689788131</v>
+        <v>58026.652653589685</v>
       </c>
       <c r="N2" s="17">
         <f t="shared" si="0"/>
-        <v>40867.332882096569</v>
+        <v>69488.533660828587</v>
       </c>
       <c r="O2" s="17">
         <f t="shared" si="0"/>
-        <v>49217.282978250791</v>
+        <v>83513.119164448042</v>
       </c>
       <c r="P2" s="17">
         <f t="shared" si="0"/>
-        <v>58858.343026327901</v>
+        <v>99658.759416257773</v>
       </c>
       <c r="Q2" s="17">
         <f t="shared" si="0"/>
-        <v>65560.284050366463</v>
+        <v>111241.34804216263</v>
       </c>
       <c r="R2" s="17">
         <f t="shared" si="0"/>
-        <v>75671.494562385749</v>
+        <v>128322.68235511506</v>
       </c>
       <c r="S2" s="17">
         <f t="shared" si="0"/>
-        <v>88092.129818395391</v>
+        <v>149158.85451159126</v>
       </c>
       <c r="T2" s="17">
         <f t="shared" si="0"/>
-        <v>102747.9074464002</v>
+        <v>173631.85058982938</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" si="0"/>
-        <v>112731.60226040261</v>
+        <v>190792.84962894843</v>
       </c>
       <c r="V2" s="17">
         <f t="shared" si="0"/>
-        <v>127449.92966740381</v>
+        <v>215552.42914850794</v>
       </c>
       <c r="W2" s="17">
         <f t="shared" si="0"/>
-        <v>144878.15337090442</v>
+        <v>244677.72890828771</v>
       </c>
       <c r="X2" s="17">
         <f t="shared" si="0"/>
-        <v>163968.18522265472</v>
+        <v>276495.69878817757</v>
       </c>
       <c r="Y2" s="17">
         <f t="shared" si="0"/>
-        <v>175899.96114852987</v>
+        <v>297043.14372812252</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1508,95 +1520,95 @@
       </c>
       <c r="C6" s="9">
         <f>B25</f>
-        <v>269.44749999999999</v>
+        <v>428.74124999999992</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:Y6" si="1">C25</f>
-        <v>797.46712500000001</v>
+        <v>1361.7361875000001</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="1"/>
-        <v>1733.2280062500001</v>
+        <v>2964.4825843749995</v>
       </c>
       <c r="F6" s="9">
         <f>E25</f>
-        <v>2135.4438037500004</v>
+        <v>3709.6740506249998</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>3523.4137822499997</v>
+        <v>6026.9956803749992</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>4859.8807693499994</v>
+        <v>8233.336158225</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>5173.9403846749992</v>
+        <v>8730.6680791124982</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="1"/>
-        <v>3866.8851923374996</v>
+        <v>6702.4865395562492</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="1"/>
-        <v>5550.3113461687499</v>
+        <v>9421.9713947781256</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>6764.436923084374</v>
+        <v>11401.282572389064</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="1"/>
-        <v>7996.7684615421877</v>
+        <v>13440.566286194529</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>5384.5004807710939</v>
+        <v>9372.0525180972654</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
-        <v>8460.2002403855477</v>
+        <v>14327.351259048632</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="1"/>
-        <v>10437.437620192772</v>
+        <v>17530.731879524319</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="1"/>
-        <v>12051.325060096387</v>
+        <v>20182.050314762157</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>8377.4262800481938</v>
+        <v>14478.235782381076</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="1"/>
-        <v>12639.013140024095</v>
+        <v>21351.667891190536</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="1"/>
-        <v>15525.794070012045</v>
+        <v>26045.215195595265</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="1"/>
-        <v>18319.722035006023</v>
+        <v>30591.24509779763</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="1"/>
-        <v>12479.61851750301</v>
+        <v>21451.248798898814</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="1"/>
-        <v>18397.909258751504</v>
+        <v>30949.474399449402</v>
       </c>
       <c r="X6" s="9">
         <f t="shared" si="1"/>
-        <v>21785.279629375749</v>
+        <v>36406.624699724693</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="1"/>
-        <v>23862.539814687869</v>
+        <v>39772.462349862348</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1614,7 +1626,7 @@
       </c>
       <c r="E7" s="1">
         <f>SUM(B11:D11)*21%</f>
-        <v>977.13</v>
+        <v>1548.855</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1627,7 +1639,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(F11:H11)*21%</f>
-        <v>4056.5699999999997</v>
+        <v>6430.0949999999993</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1640,7 +1652,7 @@
       </c>
       <c r="M7" s="1">
         <f>SUM(J11:L11)*21%</f>
-        <v>7096.53</v>
+        <v>11248.754999999999</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -1653,7 +1665,7 @@
       </c>
       <c r="Q7" s="1">
         <f>SUM(N11:P11)*21%</f>
-        <v>10812.584999999999</v>
+        <v>17139.0975</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1666,7 +1678,7 @@
       </c>
       <c r="U7" s="1">
         <f>SUM(R11:T11)*21%</f>
-        <v>16142.385</v>
+        <v>25587.397499999999</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -1679,7 +1691,7 @@
       </c>
       <c r="Y7" s="1">
         <f>SUM(V11:X11)*21%</f>
-        <v>21417.899999999998</v>
+        <v>33949.65</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1769,95 +1781,95 @@
       </c>
       <c r="C9" s="15">
         <f t="shared" ref="C9:Y9" si="2">C6-C7-C8</f>
-        <v>69.447499999999991</v>
+        <v>228.74124999999992</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="2"/>
-        <v>447.46712500000001</v>
+        <v>1011.7361875000001</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="2"/>
-        <v>256.09800625000014</v>
+        <v>915.62758437499951</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="2"/>
-        <v>1485.4438037500004</v>
+        <v>3059.6740506249998</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="2"/>
-        <v>2823.4137822499997</v>
+        <v>5326.9956803749992</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="2"/>
-        <v>4009.8807693499994</v>
+        <v>7383.336158225</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="2"/>
-        <v>117.37038467499951</v>
+        <v>1300.5730791124988</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="2"/>
-        <v>2766.8851923374996</v>
+        <v>5602.4865395562492</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="2"/>
-        <v>4350.3113461687499</v>
+        <v>8221.9713947781256</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>5364.436923084374</v>
+        <v>10001.282572389064</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="2"/>
-        <v>-599.76153845781209</v>
+        <v>691.81128619453011</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="2"/>
-        <v>3734.5004807710939</v>
+        <v>7722.0525180972654</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="2"/>
-        <v>6710.2002403855477</v>
+        <v>12577.351259048632</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="2"/>
-        <v>8487.4376201927716</v>
+        <v>15580.731879524319</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="2"/>
-        <v>-961.25993990361167</v>
+        <v>842.95281476215678</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="2"/>
-        <v>5977.4262800481938</v>
+        <v>12078.235782381076</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" si="2"/>
-        <v>10039.013140024095</v>
+        <v>18751.667891190536</v>
       </c>
       <c r="T9" s="15">
         <f t="shared" si="2"/>
-        <v>12725.794070012045</v>
+        <v>23245.215195595265</v>
       </c>
       <c r="U9" s="15">
         <f t="shared" si="2"/>
-        <v>-822.66296499397686</v>
+        <v>2003.8475977976304</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" si="2"/>
-        <v>9279.6185175030096</v>
+        <v>18251.248798898814</v>
       </c>
       <c r="W9" s="15">
         <f t="shared" si="2"/>
-        <v>15097.909258751504</v>
+        <v>27649.474399449402</v>
       </c>
       <c r="X9" s="15">
         <f t="shared" si="2"/>
-        <v>18385.279629375749</v>
+        <v>33006.624699724693</v>
       </c>
       <c r="Y9" s="15">
         <f t="shared" si="2"/>
-        <v>-1155.360185312129</v>
+        <v>2222.8123498623463</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1892,99 +1904,99 @@
       </c>
       <c r="B11" s="1">
         <f>B41+B47</f>
-        <v>470</v>
+        <v>745</v>
       </c>
       <c r="C11" s="1">
         <f>C41+C47</f>
-        <v>1457</v>
+        <v>2309.5</v>
       </c>
       <c r="D11" s="1">
         <f>D41+D47</f>
-        <v>2726</v>
+        <v>4321</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:Y11" si="3">E41+E47</f>
-        <v>4018.5</v>
+        <v>6369.75</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>5311</v>
+        <v>8418.5</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>6368.5</v>
+        <v>10094.75</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>7637.5</v>
+        <v>12106.25</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>9165</v>
+        <v>14527.5</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>10011</v>
+        <v>15868.5</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>11021.5</v>
+        <v>17470.25</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>12760.5</v>
+        <v>20226.75</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>13630</v>
+        <v>21605</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>15815.5</v>
+        <v>25069.25</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>16967</v>
+        <v>26894.5</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>18706</v>
+        <v>29651</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="3"/>
-        <v>21220.5</v>
+        <v>33636.75</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
-        <v>23100.5</v>
+        <v>36616.75</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="3"/>
-        <v>25145</v>
+        <v>39857.5</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="3"/>
-        <v>28623</v>
+        <v>45370.5</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="3"/>
-        <v>30832</v>
+        <v>48872</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="3"/>
-        <v>32900</v>
+        <v>52150</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="3"/>
-        <v>34028</v>
+        <v>53938</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="3"/>
-        <v>35062</v>
+        <v>55577</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="3"/>
-        <v>37036</v>
+        <v>58706</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2094,99 +2106,99 @@
       </c>
       <c r="B13" s="1">
         <f>Sheet1!$C$18 * B39</f>
-        <v>57.57500000000001</v>
+        <v>91.262500000000003</v>
       </c>
       <c r="C13" s="1">
         <f>Sheet1!$C$18 * C39</f>
-        <v>172.72500000000002</v>
+        <v>273.78750000000002</v>
       </c>
       <c r="D13" s="1">
         <f>Sheet1!$C$18 * D39</f>
-        <v>316.66250000000008</v>
+        <v>501.94375000000002</v>
       </c>
       <c r="E13" s="1">
         <f>Sheet1!$C$18 * E39</f>
-        <v>460.60000000000008</v>
+        <v>730.1</v>
       </c>
       <c r="F13" s="1">
         <f>Sheet1!$C$18 * F39</f>
-        <v>604.53750000000014</v>
+        <v>958.25625000000002</v>
       </c>
       <c r="G13" s="1">
         <f>Sheet1!$C$18 * G39</f>
-        <v>719.68750000000011</v>
+        <v>1140.78125</v>
       </c>
       <c r="H13" s="1">
         <f>Sheet1!$C$18 * H39</f>
-        <v>863.62500000000011</v>
+        <v>1368.9375</v>
       </c>
       <c r="I13" s="1">
         <f>Sheet1!$C$18 * I39</f>
-        <v>1036.3500000000001</v>
+        <v>1642.7250000000001</v>
       </c>
       <c r="J13" s="1">
         <f>Sheet1!$C$18 * J39</f>
-        <v>1122.7125000000001</v>
+        <v>1779.6187500000001</v>
       </c>
       <c r="K13" s="1">
         <f>Sheet1!$C$18 * K39</f>
-        <v>1237.8625000000002</v>
+        <v>1962.14375</v>
       </c>
       <c r="L13" s="1">
         <f>Sheet1!$C$18 * L39</f>
-        <v>1439.3750000000002</v>
+        <v>2281.5625</v>
       </c>
       <c r="M13" s="1">
         <f>Sheet1!$C$18 * M39</f>
-        <v>1525.7375000000002</v>
+        <v>2418.4562500000002</v>
       </c>
       <c r="N13" s="1">
         <f>Sheet1!$C$18 * N39</f>
-        <v>1784.8250000000003</v>
+        <v>2829.1375000000003</v>
       </c>
       <c r="O13" s="1">
         <f>Sheet1!$C$18 * O39</f>
-        <v>1899.9750000000004</v>
+        <v>3011.6624999999999</v>
       </c>
       <c r="P13" s="1">
         <f>Sheet1!$C$18 * P39</f>
-        <v>2101.4875000000002</v>
+        <v>3331.0812500000002</v>
       </c>
       <c r="Q13" s="1">
         <f>Sheet1!$C$18 * Q39</f>
-        <v>2389.3625000000006</v>
+        <v>3787.3937500000002</v>
       </c>
       <c r="R13" s="1">
         <f>Sheet1!$C$18 * R39</f>
-        <v>2590.8750000000005</v>
+        <v>4106.8125</v>
       </c>
       <c r="S13" s="1">
         <f>Sheet1!$C$18 * S39</f>
-        <v>2821.1750000000006</v>
+        <v>4471.8625000000002</v>
       </c>
       <c r="T13" s="1">
         <f>Sheet1!$C$18 * T39</f>
-        <v>3224.2000000000007</v>
+        <v>5110.7</v>
       </c>
       <c r="U13" s="1">
         <f>Sheet1!$C$18 * U39</f>
-        <v>3454.5000000000005</v>
+        <v>5475.75</v>
       </c>
       <c r="V13" s="1">
         <f>Sheet1!$C$18 * V39</f>
-        <v>3684.8000000000006</v>
+        <v>5840.8</v>
       </c>
       <c r="W13" s="1">
         <f>Sheet1!$C$18 * W39</f>
-        <v>3799.9500000000007</v>
+        <v>6023.3249999999998</v>
       </c>
       <c r="X13" s="1">
         <f>Sheet1!$C$18 * X39</f>
-        <v>3915.1000000000008</v>
+        <v>6205.85</v>
       </c>
       <c r="Y13" s="1">
         <f>Sheet1!$C$18 * Y39</f>
-        <v>4145.4000000000005</v>
+        <v>6570.9000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2195,99 +2207,99 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:Y14" si="4">B11*5%</f>
-        <v>23.5</v>
+        <v>37.25</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
-        <v>72.850000000000009</v>
+        <v>115.47500000000001</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="4"/>
-        <v>136.30000000000001</v>
+        <v>216.05</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="4"/>
-        <v>200.92500000000001</v>
+        <v>318.48750000000001</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>265.55</v>
+        <v>420.92500000000001</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>318.42500000000001</v>
+        <v>504.73750000000001</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>381.875</v>
+        <v>605.3125</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>458.25</v>
+        <v>726.375</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>500.55</v>
+        <v>793.42500000000007</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>551.07500000000005</v>
+        <v>873.51250000000005</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>638.02500000000009</v>
+        <v>1011.3375000000001</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="4"/>
-        <v>681.5</v>
+        <v>1080.25</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>790.77500000000009</v>
+        <v>1253.4625000000001</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="4"/>
-        <v>848.35</v>
+        <v>1344.7250000000001</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="4"/>
-        <v>935.30000000000007</v>
+        <v>1482.5500000000002</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="4"/>
-        <v>1061.0250000000001</v>
+        <v>1681.8375000000001</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="4"/>
-        <v>1155.0250000000001</v>
+        <v>1830.8375000000001</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
-        <v>1257.25</v>
+        <v>1992.875</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="4"/>
-        <v>1431.15</v>
+        <v>2268.5250000000001</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="4"/>
-        <v>1541.6000000000001</v>
+        <v>2443.6</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="4"/>
-        <v>1645</v>
+        <v>2607.5</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="4"/>
-        <v>1701.4</v>
+        <v>2696.9</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="4"/>
-        <v>1753.1000000000001</v>
+        <v>2778.8500000000004</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="4"/>
-        <v>1851.8000000000002</v>
+        <v>2935.3</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2322,99 +2334,99 @@
       </c>
       <c r="B16" s="9">
         <f>B11-B13-B12-B14</f>
-        <v>334.92500000000001</v>
+        <v>562.48749999999995</v>
       </c>
       <c r="C16" s="9">
         <f>C11-C13-C12-C14</f>
-        <v>1157.4250000000002</v>
+        <v>1866.2375000000002</v>
       </c>
       <c r="D16" s="9">
         <f>D11-D13-D12-D14</f>
-        <v>2219.0374999999999</v>
+        <v>3549.0062499999999</v>
       </c>
       <c r="E16" s="9">
         <f>E11-E13-E12-E14</f>
-        <v>3302.9749999999999</v>
+        <v>5267.1624999999995</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:Y16" si="5">F11-F13-F12-F14</f>
-        <v>4386.9124999999995</v>
+        <v>6985.3187499999995</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="5"/>
-        <v>5276.3874999999998</v>
+        <v>8395.2312500000007</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="5"/>
-        <v>6338</v>
+        <v>10078</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="5"/>
-        <v>7616.4</v>
+        <v>12104.4</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="5"/>
-        <v>8333.7375000000011</v>
+        <v>13241.456250000001</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="5"/>
-        <v>9178.5625</v>
+        <v>14580.59375</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="5"/>
-        <v>10629.1</v>
+        <v>16879.849999999999</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="5"/>
-        <v>11368.762500000001</v>
+        <v>18052.293750000001</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="5"/>
-        <v>13185.9</v>
+        <v>20932.649999999998</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="5"/>
-        <v>14164.674999999999</v>
+        <v>22484.112500000003</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="5"/>
-        <v>15615.212500000001</v>
+        <v>24783.368750000001</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="5"/>
-        <v>17716.112499999999</v>
+        <v>28113.518749999999</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="5"/>
-        <v>19300.599999999999</v>
+        <v>30625.1</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="5"/>
-        <v>21012.575000000001</v>
+        <v>33338.762499999997</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="5"/>
-        <v>23913.649999999998</v>
+        <v>37937.275000000001</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="5"/>
-        <v>25781.9</v>
+        <v>40898.65</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="5"/>
-        <v>27516.2</v>
+        <v>43647.7</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="5"/>
-        <v>28472.649999999998</v>
+        <v>45163.775000000001</v>
       </c>
       <c r="X16" s="9">
         <f t="shared" si="5"/>
-        <v>29339.8</v>
+        <v>46538.3</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="5"/>
-        <v>30984.799999999999</v>
+        <v>49145.799999999996</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -2423,99 +2435,99 @@
       </c>
       <c r="B17" s="10">
         <f>(B16-B11*21%)/B11</f>
-        <v>0.5026063829787234</v>
+        <v>0.54501677852348984</v>
       </c>
       <c r="C17" s="10">
         <f t="shared" ref="C17:Y17" si="6">(C16-C11*21%)/C11</f>
-        <v>0.58438915579958828</v>
+        <v>0.59806992855596464</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="6"/>
-        <v>0.60402696258253852</v>
+        <v>0.61133909974542933</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="6"/>
-        <v>0.61194226701505539</v>
+        <v>0.61690254719572968</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="6"/>
-        <v>0.61600498964413475</v>
+        <v>0.61975812199322911</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="6"/>
-        <v>0.61851338619769169</v>
+        <v>0.62164330468808049</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="6"/>
-        <v>0.61985270049099839</v>
+        <v>0.62246257098606095</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62103109656301148</v>
+        <v>0.6232059886422302</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62245804614923606</v>
+        <v>0.62444914453161926</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62278705257905009</v>
+        <v>0.62459559823127886</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62296892754986088</v>
+        <v>0.62453100473383016</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62409849596478362</v>
+        <v>0.6255609233973618</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62373273054914491</v>
+        <v>0.62499306919832054</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62483674191076799</v>
+        <v>0.62601154511145407</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62477026087886245</v>
+        <v>0.62583584870662046</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62485839164958412</v>
+        <v>0.62579771381004412</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62550572498430768</v>
+        <v>0.62636860180108822</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62565619407436868</v>
+        <v>0.62644891174810258</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62546972714250781</v>
+        <v>0.62616612115802117</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62620588998443172</v>
+        <v>0.62685238991651671</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62635866261398176</v>
+        <v>0.62696452540747838</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62674180086987175</v>
+        <v>0.62732757981386034</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62679767269408471</v>
+        <v>0.62736617665581096</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62661302516470452</v>
+        <v>0.62715122815385127</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2551,99 +2563,99 @@
       </c>
       <c r="B21" s="1">
         <f>B9+B16</f>
-        <v>384.92500000000001</v>
+        <v>612.48749999999995</v>
       </c>
       <c r="C21" s="1">
         <f>C9+C16</f>
-        <v>1226.8725000000002</v>
+        <v>2094.9787500000002</v>
       </c>
       <c r="D21" s="1">
         <f>D9+D16</f>
-        <v>2666.504625</v>
+        <v>4560.7424375000001</v>
       </c>
       <c r="E21" s="1">
         <f>E9+E16</f>
-        <v>3559.0730062500002</v>
+        <v>6182.7900843749994</v>
       </c>
       <c r="F21" s="1">
         <f>F9+F16</f>
-        <v>5872.3563037499998</v>
+        <v>10044.992800624999</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:Y21" si="7">G9+G16</f>
-        <v>8099.8012822499995</v>
+        <v>13722.226930375</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>10347.880769349998</v>
+        <v>17461.336158225</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
-        <v>7733.7703846749991</v>
+        <v>13404.973079112498</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="7"/>
-        <v>11100.6226923375</v>
+        <v>18843.942789556251</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="7"/>
-        <v>13528.87384616875</v>
+        <v>22802.565144778127</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="7"/>
-        <v>15993.536923084375</v>
+        <v>26881.132572389062</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="7"/>
-        <v>10769.000961542188</v>
+        <v>18744.105036194531</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="7"/>
-        <v>16920.400480771095</v>
+        <v>28654.702518097263</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="7"/>
-        <v>20874.875240385547</v>
+        <v>35061.463759048638</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="7"/>
-        <v>24102.650120192775</v>
+        <v>40364.100629524321</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="7"/>
-        <v>16754.852560096388</v>
+        <v>28956.471564762156</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="7"/>
-        <v>25278.026280048194</v>
+        <v>42703.335782381073</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="7"/>
-        <v>31051.588140024098</v>
+        <v>52090.43039119053</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="7"/>
-        <v>36639.444070012047</v>
+        <v>61182.490195595266</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="7"/>
-        <v>24959.237035006023</v>
+        <v>42902.497597797628</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="7"/>
-        <v>36795.818517503008</v>
+        <v>61898.948798898811</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="7"/>
-        <v>43570.559258751498</v>
+        <v>72813.2493994494</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="7"/>
-        <v>47725.079629375745</v>
+        <v>79544.924699724696</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="7"/>
-        <v>29829.43981468787</v>
+        <v>51368.612349862342</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2652,99 +2664,99 @@
       </c>
       <c r="B22" s="1">
         <f>B21*B23</f>
-        <v>76.985000000000014</v>
+        <v>122.4975</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:Y22" si="8">C21*C23</f>
-        <v>306.71812500000004</v>
+        <v>523.74468750000005</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="8"/>
-        <v>666.62615625000001</v>
+        <v>1140.185609375</v>
       </c>
       <c r="E22" s="1">
         <f>E21*E23</f>
-        <v>1067.721901875</v>
+        <v>1854.8370253124997</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="8"/>
-        <v>1761.7068911249999</v>
+        <v>3013.4978401874996</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="8"/>
-        <v>2429.9403846749997</v>
+        <v>4116.6680791125</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="8"/>
-        <v>4139.1523077399997</v>
+        <v>6984.5344632900005</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="8"/>
-        <v>3093.5081538699997</v>
+        <v>5361.9892316449996</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="8"/>
-        <v>4440.2490769349997</v>
+        <v>7537.5771158225007</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="8"/>
-        <v>5411.5495384675005</v>
+        <v>9121.026057911251</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="8"/>
-        <v>6397.4147692337501</v>
+        <v>10752.453028955626</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="8"/>
-        <v>4307.6003846168751</v>
+        <v>7497.6420144778131</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="8"/>
-        <v>6768.1601923084381</v>
+        <v>11461.881007238906</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="8"/>
-        <v>8349.9500961542199</v>
+        <v>14024.585503619455</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="8"/>
-        <v>9641.06004807711</v>
+        <v>16145.640251809729</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>
-        <v>6701.941024038555</v>
+        <v>11582.588625904864</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="8"/>
-        <v>10111.210512019279</v>
+        <v>17081.334312952429</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="8"/>
-        <v>12420.63525600964</v>
+        <v>20836.172156476212</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="8"/>
-        <v>14655.77762800482</v>
+        <v>24472.996078238109</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="8"/>
-        <v>9983.6948140024106</v>
+        <v>17160.999039119051</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="8"/>
-        <v>14718.327407001205</v>
+        <v>24759.579519559527</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="8"/>
-        <v>17428.2237035006</v>
+        <v>29125.299759779762</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="8"/>
-        <v>19090.0318517503</v>
+        <v>31817.969879889879</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="8"/>
-        <v>11931.775925875148</v>
+        <v>20547.444939944937</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2830,99 +2842,99 @@
       </c>
       <c r="B24" s="1">
         <f>B21*10%</f>
-        <v>38.492500000000007</v>
+        <v>61.248750000000001</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:Y24" si="9">C21*10%</f>
-        <v>122.68725000000002</v>
+        <v>209.49787500000002</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>266.6504625</v>
+        <v>456.07424375000005</v>
       </c>
       <c r="E24" s="1">
         <f>E21*10%</f>
-        <v>355.90730062500006</v>
+        <v>618.27900843750001</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="9"/>
-        <v>587.23563037500003</v>
+        <v>1004.4992800625</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="9"/>
-        <v>809.98012822500004</v>
+        <v>1372.2226930375</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="9"/>
-        <v>1034.7880769349999</v>
+        <v>1746.1336158225001</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="9"/>
-        <v>773.37703846749991</v>
+        <v>1340.4973079112499</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="9"/>
-        <v>1110.0622692337499</v>
+        <v>1884.3942789556252</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="9"/>
-        <v>1352.8873846168751</v>
+        <v>2280.2565144778127</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="9"/>
-        <v>1599.3536923084375</v>
+        <v>2688.1132572389065</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="9"/>
-        <v>1076.9000961542188</v>
+        <v>1874.4105036194533</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="9"/>
-        <v>1692.0400480771095</v>
+        <v>2865.4702518097265</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="9"/>
-        <v>2087.487524038555</v>
+        <v>3506.1463759048638</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="9"/>
-        <v>2410.2650120192775</v>
+        <v>4036.4100629524323</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="9"/>
-        <v>1675.4852560096388</v>
+        <v>2895.647156476216</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="9"/>
-        <v>2527.8026280048198</v>
+        <v>4270.3335782381073</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="9"/>
-        <v>3105.1588140024101</v>
+        <v>5209.043039119053</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="9"/>
-        <v>3663.944407001205</v>
+        <v>6118.2490195595274</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="9"/>
-        <v>2495.9237035006026</v>
+        <v>4290.2497597797628</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="9"/>
-        <v>3679.5818517503012</v>
+        <v>6189.8948798898818</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="9"/>
-        <v>4357.05592587515</v>
+        <v>7281.3249399449405</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="9"/>
-        <v>4772.507962937575</v>
+        <v>7954.4924699724697</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="9"/>
-        <v>2982.9439814687871</v>
+        <v>5136.8612349862342</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2931,99 +2943,99 @@
       </c>
       <c r="B25" s="9">
         <f>B21-B22-B24</f>
-        <v>269.44749999999999</v>
+        <v>428.74124999999992</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" ref="C25:Y25" si="10">C21-C22-C24</f>
-        <v>797.46712500000001</v>
+        <v>1361.7361875000001</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="10"/>
-        <v>1733.2280062500001</v>
+        <v>2964.4825843749995</v>
       </c>
       <c r="E25" s="9">
         <f>E21-E22-E24</f>
-        <v>2135.4438037500004</v>
+        <v>3709.6740506249998</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="10"/>
-        <v>3523.4137822499997</v>
+        <v>6026.9956803749992</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="10"/>
-        <v>4859.8807693499994</v>
+        <v>8233.336158225</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="10"/>
-        <v>5173.9403846749992</v>
+        <v>8730.6680791124982</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="10"/>
-        <v>3866.8851923374996</v>
+        <v>6702.4865395562492</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="10"/>
-        <v>5550.3113461687499</v>
+        <v>9421.9713947781256</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="10"/>
-        <v>6764.436923084374</v>
+        <v>11401.282572389064</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="10"/>
-        <v>7996.7684615421877</v>
+        <v>13440.566286194529</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="10"/>
-        <v>5384.5004807710939</v>
+        <v>9372.0525180972654</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="10"/>
-        <v>8460.2002403855477</v>
+        <v>14327.351259048632</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="10"/>
-        <v>10437.437620192772</v>
+        <v>17530.731879524319</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="10"/>
-        <v>12051.325060096387</v>
+        <v>20182.050314762157</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="10"/>
-        <v>8377.4262800481938</v>
+        <v>14478.235782381076</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="10"/>
-        <v>12639.013140024095</v>
+        <v>21351.667891190536</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="10"/>
-        <v>15525.794070012045</v>
+        <v>26045.215195595265</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="10"/>
-        <v>18319.722035006023</v>
+        <v>30591.24509779763</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="10"/>
-        <v>12479.61851750301</v>
+        <v>21451.248798898814</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="10"/>
-        <v>18397.909258751504</v>
+        <v>30949.474399449402</v>
       </c>
       <c r="W25" s="9">
         <f t="shared" si="10"/>
-        <v>21785.279629375749</v>
+        <v>36406.624699724693</v>
       </c>
       <c r="X25" s="9">
         <f t="shared" si="10"/>
-        <v>23862.539814687869</v>
+        <v>39772.462349862348</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="10"/>
-        <v>14914.719907343933</v>
+        <v>25684.306174931171</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -3032,99 +3044,99 @@
       </c>
       <c r="B27" s="16">
         <f>B11*12</f>
-        <v>5640</v>
+        <v>8940</v>
       </c>
       <c r="C27" s="16">
         <f>C11*12</f>
-        <v>17484</v>
+        <v>27714</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" ref="D27:Y27" si="11">D11*12</f>
-        <v>32712</v>
+        <v>51852</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="11"/>
-        <v>48222</v>
+        <v>76437</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="11"/>
-        <v>63732</v>
+        <v>101022</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="11"/>
-        <v>76422</v>
+        <v>121137</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" si="11"/>
-        <v>91650</v>
+        <v>145275</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="11"/>
-        <v>109980</v>
+        <v>174330</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="11"/>
-        <v>120132</v>
+        <v>190422</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="11"/>
-        <v>132258</v>
+        <v>209643</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="11"/>
-        <v>153126</v>
+        <v>242721</v>
       </c>
       <c r="M27" s="16">
         <f t="shared" si="11"/>
-        <v>163560</v>
+        <v>259260</v>
       </c>
       <c r="N27" s="16">
         <f t="shared" si="11"/>
-        <v>189786</v>
+        <v>300831</v>
       </c>
       <c r="O27" s="16">
         <f t="shared" si="11"/>
-        <v>203604</v>
+        <v>322734</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" si="11"/>
-        <v>224472</v>
+        <v>355812</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="11"/>
-        <v>254646</v>
+        <v>403641</v>
       </c>
       <c r="R27" s="16">
         <f t="shared" si="11"/>
-        <v>277206</v>
+        <v>439401</v>
       </c>
       <c r="S27" s="16">
         <f t="shared" si="11"/>
-        <v>301740</v>
+        <v>478290</v>
       </c>
       <c r="T27" s="16">
         <f t="shared" si="11"/>
-        <v>343476</v>
+        <v>544446</v>
       </c>
       <c r="U27" s="16">
         <f t="shared" si="11"/>
-        <v>369984</v>
+        <v>586464</v>
       </c>
       <c r="V27" s="16">
         <f t="shared" si="11"/>
-        <v>394800</v>
+        <v>625800</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="11"/>
-        <v>408336</v>
+        <v>647256</v>
       </c>
       <c r="X27" s="16">
         <f t="shared" si="11"/>
-        <v>420744</v>
+        <v>666924</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="11"/>
-        <v>444432</v>
+        <v>704472</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -3540,99 +3552,99 @@
       </c>
       <c r="B37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="C37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="D37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="E37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="F37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="G37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="H37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="I37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="J37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="K37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="L37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="M37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="N37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="O37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="P37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="Q37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="R37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="S37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="T37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="U37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="V37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="W37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="X37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
       <c r="Y37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>235</v>
+        <v>372.5</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3819,99 +3831,99 @@
       </c>
       <c r="B41" s="9">
         <f>B37*B39</f>
-        <v>470</v>
+        <v>745</v>
       </c>
       <c r="C41" s="9">
         <f>C37*C39</f>
-        <v>1410</v>
+        <v>2235</v>
       </c>
       <c r="D41" s="9">
         <f>D37*D39</f>
-        <v>2585</v>
+        <v>4097.5</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" ref="E41:M41" si="17">E37*E39</f>
-        <v>3760</v>
+        <v>5960</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" si="17"/>
-        <v>4935</v>
+        <v>7822.5</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="17"/>
-        <v>5875</v>
+        <v>9312.5</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="17"/>
-        <v>7050</v>
+        <v>11175</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="17"/>
-        <v>8460</v>
+        <v>13410</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="17"/>
-        <v>9165</v>
+        <v>14527.5</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="17"/>
-        <v>10105</v>
+        <v>16017.5</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="17"/>
-        <v>11750</v>
+        <v>18625</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="17"/>
-        <v>12455</v>
+        <v>19742.5</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" ref="N41:Y41" si="18">N37*N39</f>
-        <v>14570</v>
+        <v>23095</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="18"/>
-        <v>15510</v>
+        <v>24585</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="18"/>
-        <v>17155</v>
+        <v>27192.5</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="18"/>
-        <v>19505</v>
+        <v>30917.5</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="18"/>
-        <v>21150</v>
+        <v>33525</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="18"/>
-        <v>23030</v>
+        <v>36505</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="18"/>
-        <v>26320</v>
+        <v>41720</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="18"/>
-        <v>28200</v>
+        <v>44700</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="18"/>
-        <v>30080</v>
+        <v>47680</v>
       </c>
       <c r="W41" s="9">
         <f t="shared" si="18"/>
-        <v>31020</v>
+        <v>49170</v>
       </c>
       <c r="X41" s="9">
         <f t="shared" si="18"/>
-        <v>31960</v>
+        <v>50660</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="18"/>
-        <v>33840</v>
+        <v>53640</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -3999,95 +4011,95 @@
       </c>
       <c r="C47" s="9">
         <f>B39*C46*B37</f>
-        <v>47</v>
+        <v>74.5</v>
       </c>
       <c r="D47" s="9">
         <f>C39*D46*C37</f>
-        <v>141.00000000000003</v>
+        <v>223.50000000000003</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:M47" si="19">D39*E46*D37</f>
-        <v>258.5</v>
+        <v>409.75000000000006</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="19"/>
-        <v>376</v>
+        <v>596</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="19"/>
-        <v>493.5</v>
+        <v>782.25</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="19"/>
-        <v>587.5</v>
+        <v>931.25</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="19"/>
-        <v>705</v>
+        <v>1117.5</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="19"/>
-        <v>846</v>
+        <v>1341</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="19"/>
-        <v>916.50000000000011</v>
+        <v>1452.7500000000002</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="19"/>
-        <v>1010.5</v>
+        <v>1601.75</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="19"/>
-        <v>1175</v>
+        <v>1862.5</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" ref="N47:Y47" si="20">M39*N46*M37</f>
-        <v>1245.5000000000002</v>
+        <v>1974.2500000000002</v>
       </c>
       <c r="O47" s="9">
         <f t="shared" si="20"/>
-        <v>1457</v>
+        <v>2309.5</v>
       </c>
       <c r="P47" s="9">
         <f t="shared" si="20"/>
-        <v>1551.0000000000002</v>
+        <v>2458.5</v>
       </c>
       <c r="Q47" s="9">
         <f t="shared" si="20"/>
-        <v>1715.5000000000002</v>
+        <v>2719.2500000000005</v>
       </c>
       <c r="R47" s="9">
         <f t="shared" si="20"/>
-        <v>1950.5000000000002</v>
+        <v>3091.7500000000005</v>
       </c>
       <c r="S47" s="9">
         <f t="shared" si="20"/>
-        <v>2115</v>
+        <v>3352.5</v>
       </c>
       <c r="T47" s="9">
         <f t="shared" si="20"/>
-        <v>2303</v>
+        <v>3650.5000000000005</v>
       </c>
       <c r="U47" s="9">
         <f t="shared" si="20"/>
-        <v>2632.0000000000005</v>
+        <v>4172</v>
       </c>
       <c r="V47" s="9">
         <f t="shared" si="20"/>
-        <v>2820</v>
+        <v>4470</v>
       </c>
       <c r="W47" s="9">
         <f t="shared" si="20"/>
-        <v>3008</v>
+        <v>4768</v>
       </c>
       <c r="X47" s="9">
         <f t="shared" si="20"/>
-        <v>3102.0000000000005</v>
+        <v>4917</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="20"/>
-        <v>3196.0000000000005</v>
+        <v>5066.0000000000009</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -4140,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
-  <dimension ref="C5:J27"/>
+  <dimension ref="C5:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,11 +4233,11 @@
       </c>
       <c r="D9">
         <f>D10+D10*D8</f>
-        <v>119</v>
+        <v>297.5</v>
       </c>
       <c r="E9">
         <f>E10+E10*E8</f>
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="F9">
         <f>F10+F10*F8</f>
@@ -4237,11 +4249,11 @@
       </c>
       <c r="I9">
         <f>I10+I10*I8</f>
-        <v>3792</v>
+        <v>2370</v>
       </c>
       <c r="J9">
         <f>J10+J10*J8</f>
-        <v>5746</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
@@ -4250,11 +4262,11 @@
       </c>
       <c r="D10" s="1">
         <f>D14*D11</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1">
         <f>E14*E11</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F10" s="1">
         <f>F14*F11</f>
@@ -4266,11 +4278,11 @@
       </c>
       <c r="I10" s="1">
         <f>I14*I11</f>
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="J10" s="1">
         <f>J14*J11</f>
-        <v>3400.0000000000005</v>
+        <v>1700.0000000000002</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
@@ -4278,10 +4290,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E11" s="4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="4">
         <v>2000</v>
@@ -4290,10 +4302,10 @@
         <v>5000</v>
       </c>
       <c r="I11" s="4">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="J11" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
@@ -4356,45 +4368,92 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D10/79%</f>
+        <v>316.45569620253161</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E10/79%</f>
+        <v>506.3291139240506</v>
+      </c>
+      <c r="F16" s="1">
+        <f>F10/79%</f>
+        <v>759.49367088607596</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <f>H10/79%</f>
+        <v>1582.2784810126582</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I10/79%</f>
+        <v>1898.7341772151897</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J10/79%</f>
+        <v>2151.8987341772154</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="19">
-        <f>D27/70%</f>
+        <f t="shared" ref="D22:J22" si="0">D27/70%</f>
         <v>0.5</v>
       </c>
       <c r="E22" s="19">
-        <f>E27/70%</f>
+        <f t="shared" si="0"/>
         <v>0.3928571428571429</v>
       </c>
       <c r="F22" s="19">
-        <f>F27/70%</f>
+        <f t="shared" si="0"/>
         <v>0.27142857142857146</v>
       </c>
       <c r="G22" s="19">
-        <f>G27/70%</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>H27/70%</f>
+        <f t="shared" si="0"/>
         <v>0.23571428571428574</v>
       </c>
       <c r="I22" s="19">
-        <f>I27/70%</f>
+        <f t="shared" si="0"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="J22" s="19">
-        <f>J27/70%</f>
+        <f t="shared" si="0"/>
         <v>0.15714285714285717</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>500</v>
       </c>
@@ -4414,7 +4473,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>175</v>
       </c>
@@ -4434,7 +4493,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>D26/D25</f>
         <v>0.35</v>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DF535D-3412-4FC3-8272-C0987E214386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EE571-43E1-4BF8-BF87-F0B92EB2B56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
   <si>
     <t>Shared Plus Hosting</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Datacellectief</t>
-  </si>
-  <si>
-    <t>Generate Link that they click then we can count the visitors per sended mails</t>
   </si>
   <si>
     <t>incl Btw</t>
@@ -1094,8 +1091,8 @@
         <v>89</v>
       </c>
       <c r="C14" s="1">
-        <f>(Sheet3!D10*Sheet3!D5) + (Sheet3!E10*Sheet3!E5) + (Sheet3!F10*Sheet3!F5)</f>
-        <v>372.5</v>
+        <f>(Sheet3!D11*Sheet3!D5) + (Sheet3!E11*Sheet3!E5) + (Sheet3!F11*Sheet3!F5)</f>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1104,7 +1101,7 @@
       </c>
       <c r="C15" s="9">
         <f>C14*C12</f>
-        <v>3725</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1113,7 +1110,7 @@
       </c>
       <c r="C16" s="1">
         <f>C15*21%</f>
-        <v>782.25</v>
+        <v>577.5</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -1121,8 +1118,8 @@
         <v>21</v>
       </c>
       <c r="C17" s="2">
-        <f>C15/ (AVERAGE(Sheet3!D14:F14))</f>
-        <v>9312.5</v>
+        <f>C15/ (AVERAGE(Sheet3!D15:F15))</f>
+        <v>9166.6666666666679</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -1131,7 +1128,7 @@
       </c>
       <c r="C18" s="1">
         <f>C17/10000 * 49</f>
-        <v>45.631250000000001</v>
+        <v>44.916666666666671</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -1155,11 +1152,11 @@
       </c>
       <c r="C21" s="1">
         <f>C15-C16-C18-C19</f>
-        <v>2843.1187500000001</v>
+        <v>2073.5833333333335</v>
       </c>
       <c r="D21" s="10">
         <f>C21/C15</f>
-        <v>0.76325335570469799</v>
+        <v>0.75403030303030305</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -1220,7 +1217,7 @@
       </c>
       <c r="C37" s="1">
         <f>C21+C36</f>
-        <v>1893.1187500000001</v>
+        <v>1123.5833333333335</v>
       </c>
     </row>
   </sheetData>
@@ -1329,99 +1326,99 @@
       </c>
       <c r="B2" s="17">
         <f>B22</f>
-        <v>122.4975</v>
+        <v>85.733333333333334</v>
       </c>
       <c r="C2" s="17">
         <f t="shared" ref="C2:Y2" si="0">C22+B2</f>
-        <v>646.2421875</v>
+        <v>434.8125</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" si="0"/>
-        <v>1786.427796875</v>
+        <v>1194.818125</v>
       </c>
       <c r="E2" s="17">
         <f t="shared" si="0"/>
-        <v>3641.2648221874997</v>
+        <v>2403.0000124999997</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" si="0"/>
-        <v>6654.7626623749993</v>
+        <v>4405.009145</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" si="0"/>
-        <v>10771.4307414875</v>
+        <v>7167.1021245000002</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" si="0"/>
-        <v>17755.965204777502</v>
+        <v>11872.426508100001</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" si="0"/>
-        <v>23117.9544364225</v>
+        <v>15333.368699900002</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" si="0"/>
-        <v>30655.531552245</v>
+        <v>20353.2397958</v>
       </c>
       <c r="K2" s="17">
         <f t="shared" si="0"/>
-        <v>39776.557610156247</v>
+        <v>26490.058677083332</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" si="0"/>
-        <v>50529.010639111875</v>
+        <v>33752.884784391666</v>
       </c>
       <c r="M2" s="17">
         <f t="shared" si="0"/>
-        <v>58026.652653589685</v>
+        <v>38549.684504712495</v>
       </c>
       <c r="N2" s="17">
         <f t="shared" si="0"/>
-        <v>69488.533660828587</v>
+        <v>46185.401031539579</v>
       </c>
       <c r="O2" s="17">
         <f t="shared" si="0"/>
-        <v>83513.119164448042</v>
+        <v>55640.759294953124</v>
       </c>
       <c r="P2" s="17">
         <f t="shared" si="0"/>
-        <v>99658.759416257773</v>
+        <v>66573.471759993234</v>
       </c>
       <c r="Q2" s="17">
         <f t="shared" si="0"/>
-        <v>111241.34804216263</v>
+        <v>74022.134659179952</v>
       </c>
       <c r="R2" s="17">
         <f t="shared" si="0"/>
-        <v>128322.68235511506</v>
+        <v>85420.216108773311</v>
       </c>
       <c r="S2" s="17">
         <f t="shared" si="0"/>
-        <v>149158.85451159126</v>
+        <v>99478.423500236662</v>
       </c>
       <c r="T2" s="17">
         <f t="shared" si="0"/>
-        <v>173631.85058982938</v>
+        <v>116081.76052930167</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" si="0"/>
-        <v>190792.84962894843</v>
+        <v>127160.21904383416</v>
       </c>
       <c r="V2" s="17">
         <f t="shared" si="0"/>
-        <v>215552.42914850794</v>
+        <v>143728.11496776709</v>
       </c>
       <c r="W2" s="17">
         <f t="shared" si="0"/>
-        <v>244677.72890828771</v>
+        <v>163430.46292973356</v>
       </c>
       <c r="X2" s="17">
         <f t="shared" si="0"/>
-        <v>276495.69878817757</v>
+        <v>185047.97024405014</v>
       </c>
       <c r="Y2" s="17">
         <f t="shared" si="0"/>
-        <v>297043.14372812252</v>
+        <v>198251.72390120843</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -1520,95 +1517,95 @@
       </c>
       <c r="C6" s="9">
         <f>B25</f>
-        <v>428.74124999999992</v>
+        <v>300.06666666666661</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:Y6" si="1">C25</f>
-        <v>1361.7361875000001</v>
+        <v>907.60583333333329</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="1"/>
-        <v>2964.4825843749995</v>
+        <v>1976.0146250000003</v>
       </c>
       <c r="F6" s="9">
         <f>E25</f>
-        <v>3709.6740506249998</v>
+        <v>2416.3637749999998</v>
       </c>
       <c r="G6" s="9">
         <f t="shared" si="1"/>
-        <v>6026.9956803749992</v>
+        <v>4004.0182650000006</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="1"/>
-        <v>8233.336158225</v>
+        <v>5524.1859590000004</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>8730.6680791124982</v>
+        <v>5881.6554795000002</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="1"/>
-        <v>6702.4865395562492</v>
+        <v>4326.1777397499991</v>
       </c>
       <c r="K6" s="9">
         <f t="shared" si="1"/>
-        <v>9421.9713947781256</v>
+        <v>6274.8388698749986</v>
       </c>
       <c r="L6" s="9">
         <f t="shared" si="1"/>
-        <v>11401.282572389064</v>
+        <v>7671.0236016041654</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="1"/>
-        <v>13440.566286194529</v>
+        <v>9078.5326341354139</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>9372.0525180972654</v>
+        <v>5995.9996504010405</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
-        <v>14327.351259048632</v>
+        <v>9544.645658533851</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="1"/>
-        <v>17530.731879524319</v>
+        <v>11819.197829266926</v>
       </c>
       <c r="Q6" s="9">
         <f t="shared" si="1"/>
-        <v>20182.050314762157</v>
+        <v>13665.890581300131</v>
       </c>
       <c r="R6" s="9">
         <f t="shared" si="1"/>
-        <v>14478.235782381076</v>
+        <v>9310.8286239833978</v>
       </c>
       <c r="S6" s="9">
         <f t="shared" si="1"/>
-        <v>21351.667891190536</v>
+        <v>14247.601811991699</v>
       </c>
       <c r="T6" s="9">
         <f t="shared" si="1"/>
-        <v>26045.215195595265</v>
+        <v>17572.759239329182</v>
       </c>
       <c r="U6" s="9">
         <f t="shared" si="1"/>
-        <v>30591.24509779763</v>
+        <v>20754.171286331257</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" si="1"/>
-        <v>21451.248798898814</v>
+        <v>13848.07314316563</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" si="1"/>
-        <v>30949.474399449402</v>
+        <v>20709.869904916144</v>
       </c>
       <c r="X6" s="9">
         <f t="shared" si="1"/>
-        <v>36406.624699724693</v>
+        <v>24627.934952458072</v>
       </c>
       <c r="Y6" s="9">
         <f t="shared" si="1"/>
-        <v>39772.462349862348</v>
+        <v>27021.884142895698</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1626,7 +1623,7 @@
       </c>
       <c r="E7" s="1">
         <f>SUM(B11:D11)*21%</f>
-        <v>1548.855</v>
+        <v>1143.45</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1639,7 +1636,7 @@
       </c>
       <c r="I7" s="1">
         <f>SUM(F11:H11)*21%</f>
-        <v>6430.0949999999993</v>
+        <v>4747.05</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1652,7 +1649,7 @@
       </c>
       <c r="M7" s="1">
         <f>SUM(J11:L11)*21%</f>
-        <v>11248.754999999999</v>
+        <v>8304.4499999999989</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
@@ -1665,7 +1662,7 @@
       </c>
       <c r="Q7" s="1">
         <f>SUM(N11:P11)*21%</f>
-        <v>17139.0975</v>
+        <v>12653.025</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
@@ -1678,7 +1675,7 @@
       </c>
       <c r="U7" s="1">
         <f>SUM(R11:T11)*21%</f>
-        <v>25587.397499999999</v>
+        <v>18890.024999999998</v>
       </c>
       <c r="V7" s="1">
         <v>0</v>
@@ -1691,7 +1688,7 @@
       </c>
       <c r="Y7" s="1">
         <f>SUM(V11:X11)*21%</f>
-        <v>33949.65</v>
+        <v>25063.5</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1781,95 +1778,95 @@
       </c>
       <c r="C9" s="15">
         <f t="shared" ref="C9:Y9" si="2">C6-C7-C8</f>
-        <v>228.74124999999992</v>
+        <v>100.06666666666661</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" si="2"/>
-        <v>1011.7361875000001</v>
+        <v>557.60583333333329</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="2"/>
-        <v>915.62758437499951</v>
+        <v>332.56462500000021</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="2"/>
-        <v>3059.6740506249998</v>
+        <v>1766.3637749999998</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="2"/>
-        <v>5326.9956803749992</v>
+        <v>3304.0182650000006</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="2"/>
-        <v>7383.336158225</v>
+        <v>4674.1859590000004</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="2"/>
-        <v>1300.5730791124988</v>
+        <v>134.6054795</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="2"/>
-        <v>5602.4865395562492</v>
+        <v>3226.1777397499991</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="2"/>
-        <v>8221.9713947781256</v>
+        <v>5074.8388698749986</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="2"/>
-        <v>10001.282572389064</v>
+        <v>6271.0236016041654</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="2"/>
-        <v>691.81128619453011</v>
+        <v>-725.91736586458501</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="2"/>
-        <v>7722.0525180972654</v>
+        <v>4345.9996504010405</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="2"/>
-        <v>12577.351259048632</v>
+        <v>7794.645658533851</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="2"/>
-        <v>15580.731879524319</v>
+        <v>9869.1978292669264</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="2"/>
-        <v>842.95281476215678</v>
+        <v>-1187.1344186998685</v>
       </c>
       <c r="R9" s="15">
         <f t="shared" si="2"/>
-        <v>12078.235782381076</v>
+        <v>6910.8286239833978</v>
       </c>
       <c r="S9" s="15">
         <f t="shared" si="2"/>
-        <v>18751.667891190536</v>
+        <v>11647.601811991699</v>
       </c>
       <c r="T9" s="15">
         <f t="shared" si="2"/>
-        <v>23245.215195595265</v>
+        <v>14772.759239329182</v>
       </c>
       <c r="U9" s="15">
         <f t="shared" si="2"/>
-        <v>2003.8475977976304</v>
+        <v>-1135.853713668741</v>
       </c>
       <c r="V9" s="15">
         <f t="shared" si="2"/>
-        <v>18251.248798898814</v>
+        <v>10648.07314316563</v>
       </c>
       <c r="W9" s="15">
         <f t="shared" si="2"/>
-        <v>27649.474399449402</v>
+        <v>17409.869904916144</v>
       </c>
       <c r="X9" s="15">
         <f t="shared" si="2"/>
-        <v>33006.624699724693</v>
+        <v>21227.934952458072</v>
       </c>
       <c r="Y9" s="15">
         <f t="shared" si="2"/>
-        <v>2222.8123498623463</v>
+        <v>-1641.6158571043015</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1904,99 +1901,99 @@
       </c>
       <c r="B11" s="1">
         <f>B41+B47</f>
-        <v>745</v>
+        <v>550</v>
       </c>
       <c r="C11" s="1">
         <f>C41+C47</f>
-        <v>2309.5</v>
+        <v>1705</v>
       </c>
       <c r="D11" s="1">
         <f>D41+D47</f>
-        <v>4321</v>
+        <v>3190</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11:Y11" si="3">E41+E47</f>
-        <v>6369.75</v>
+        <v>4702.5</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>8418.5</v>
+        <v>6215</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="3"/>
-        <v>10094.75</v>
+        <v>7452.5</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>12106.25</v>
+        <v>8937.5</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="3"/>
-        <v>14527.5</v>
+        <v>10725</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>15868.5</v>
+        <v>11715</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>17470.25</v>
+        <v>12897.5</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>20226.75</v>
+        <v>14932.5</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>21605</v>
+        <v>15950</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>25069.25</v>
+        <v>18507.5</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="3"/>
-        <v>26894.5</v>
+        <v>19855</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>29651</v>
+        <v>21890</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="3"/>
-        <v>33636.75</v>
+        <v>24832.5</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="3"/>
-        <v>36616.75</v>
+        <v>27032.5</v>
       </c>
       <c r="S11" s="1">
         <f t="shared" si="3"/>
-        <v>39857.5</v>
+        <v>29425</v>
       </c>
       <c r="T11" s="1">
         <f t="shared" si="3"/>
-        <v>45370.5</v>
+        <v>33495</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="3"/>
-        <v>48872</v>
+        <v>36080</v>
       </c>
       <c r="V11" s="1">
         <f t="shared" si="3"/>
-        <v>52150</v>
+        <v>38500</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" si="3"/>
-        <v>53938</v>
+        <v>39820</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="3"/>
-        <v>55577</v>
+        <v>41030</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="3"/>
-        <v>58706</v>
+        <v>43340</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -2106,99 +2103,99 @@
       </c>
       <c r="B13" s="1">
         <f>Sheet1!$C$18 * B39</f>
-        <v>91.262500000000003</v>
+        <v>89.833333333333343</v>
       </c>
       <c r="C13" s="1">
         <f>Sheet1!$C$18 * C39</f>
-        <v>273.78750000000002</v>
+        <v>269.5</v>
       </c>
       <c r="D13" s="1">
         <f>Sheet1!$C$18 * D39</f>
-        <v>501.94375000000002</v>
+        <v>494.08333333333337</v>
       </c>
       <c r="E13" s="1">
         <f>Sheet1!$C$18 * E39</f>
-        <v>730.1</v>
+        <v>718.66666666666674</v>
       </c>
       <c r="F13" s="1">
         <f>Sheet1!$C$18 * F39</f>
-        <v>958.25625000000002</v>
+        <v>943.25000000000011</v>
       </c>
       <c r="G13" s="1">
         <f>Sheet1!$C$18 * G39</f>
-        <v>1140.78125</v>
+        <v>1122.9166666666667</v>
       </c>
       <c r="H13" s="1">
         <f>Sheet1!$C$18 * H39</f>
-        <v>1368.9375</v>
+        <v>1347.5000000000002</v>
       </c>
       <c r="I13" s="1">
         <f>Sheet1!$C$18 * I39</f>
-        <v>1642.7250000000001</v>
+        <v>1617.0000000000002</v>
       </c>
       <c r="J13" s="1">
         <f>Sheet1!$C$18 * J39</f>
-        <v>1779.6187500000001</v>
+        <v>1751.7500000000002</v>
       </c>
       <c r="K13" s="1">
         <f>Sheet1!$C$18 * K39</f>
-        <v>1962.14375</v>
+        <v>1931.416666666667</v>
       </c>
       <c r="L13" s="1">
         <f>Sheet1!$C$18 * L39</f>
-        <v>2281.5625</v>
+        <v>2245.8333333333335</v>
       </c>
       <c r="M13" s="1">
         <f>Sheet1!$C$18 * M39</f>
-        <v>2418.4562500000002</v>
+        <v>2380.5833333333335</v>
       </c>
       <c r="N13" s="1">
         <f>Sheet1!$C$18 * N39</f>
-        <v>2829.1375000000003</v>
+        <v>2784.8333333333335</v>
       </c>
       <c r="O13" s="1">
         <f>Sheet1!$C$18 * O39</f>
-        <v>3011.6624999999999</v>
+        <v>2964.5000000000005</v>
       </c>
       <c r="P13" s="1">
         <f>Sheet1!$C$18 * P39</f>
-        <v>3331.0812500000002</v>
+        <v>3278.916666666667</v>
       </c>
       <c r="Q13" s="1">
         <f>Sheet1!$C$18 * Q39</f>
-        <v>3787.3937500000002</v>
+        <v>3728.0833333333339</v>
       </c>
       <c r="R13" s="1">
         <f>Sheet1!$C$18 * R39</f>
-        <v>4106.8125</v>
+        <v>4042.5000000000005</v>
       </c>
       <c r="S13" s="1">
         <f>Sheet1!$C$18 * S39</f>
-        <v>4471.8625000000002</v>
+        <v>4401.8333333333339</v>
       </c>
       <c r="T13" s="1">
         <f>Sheet1!$C$18 * T39</f>
-        <v>5110.7</v>
+        <v>5030.666666666667</v>
       </c>
       <c r="U13" s="1">
         <f>Sheet1!$C$18 * U39</f>
-        <v>5475.75</v>
+        <v>5390.0000000000009</v>
       </c>
       <c r="V13" s="1">
         <f>Sheet1!$C$18 * V39</f>
-        <v>5840.8</v>
+        <v>5749.3333333333339</v>
       </c>
       <c r="W13" s="1">
         <f>Sheet1!$C$18 * W39</f>
-        <v>6023.3249999999998</v>
+        <v>5929.0000000000009</v>
       </c>
       <c r="X13" s="1">
         <f>Sheet1!$C$18 * X39</f>
-        <v>6205.85</v>
+        <v>6108.666666666667</v>
       </c>
       <c r="Y13" s="1">
         <f>Sheet1!$C$18 * Y39</f>
-        <v>6570.9000000000005</v>
+        <v>6468.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -2207,99 +2204,99 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:Y14" si="4">B11*5%</f>
-        <v>37.25</v>
+        <v>27.5</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
-        <v>115.47500000000001</v>
+        <v>85.25</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="4"/>
-        <v>216.05</v>
+        <v>159.5</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="4"/>
-        <v>318.48750000000001</v>
+        <v>235.125</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="4"/>
-        <v>420.92500000000001</v>
+        <v>310.75</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>504.73750000000001</v>
+        <v>372.625</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>605.3125</v>
+        <v>446.875</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>726.375</v>
+        <v>536.25</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>793.42500000000007</v>
+        <v>585.75</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>873.51250000000005</v>
+        <v>644.875</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>1011.3375000000001</v>
+        <v>746.625</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="4"/>
-        <v>1080.25</v>
+        <v>797.5</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="4"/>
-        <v>1253.4625000000001</v>
+        <v>925.375</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="4"/>
-        <v>1344.7250000000001</v>
+        <v>992.75</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="4"/>
-        <v>1482.5500000000002</v>
+        <v>1094.5</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="4"/>
-        <v>1681.8375000000001</v>
+        <v>1241.625</v>
       </c>
       <c r="R14" s="1">
         <f t="shared" si="4"/>
-        <v>1830.8375000000001</v>
+        <v>1351.625</v>
       </c>
       <c r="S14" s="1">
         <f t="shared" si="4"/>
-        <v>1992.875</v>
+        <v>1471.25</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="4"/>
-        <v>2268.5250000000001</v>
+        <v>1674.75</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="4"/>
-        <v>2443.6</v>
+        <v>1804</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="4"/>
-        <v>2607.5</v>
+        <v>1925</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" si="4"/>
-        <v>2696.9</v>
+        <v>1991</v>
       </c>
       <c r="X14" s="1">
         <f t="shared" si="4"/>
-        <v>2778.8500000000004</v>
+        <v>2051.5</v>
       </c>
       <c r="Y14" s="1">
         <f t="shared" si="4"/>
-        <v>2935.3</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -2334,99 +2331,99 @@
       </c>
       <c r="B16" s="9">
         <f>B11-B13-B12-B14</f>
-        <v>562.48749999999995</v>
+        <v>378.66666666666663</v>
       </c>
       <c r="C16" s="9">
         <f>C11-C13-C12-C14</f>
-        <v>1866.2375000000002</v>
+        <v>1296.25</v>
       </c>
       <c r="D16" s="9">
         <f>D11-D13-D12-D14</f>
-        <v>3549.0062499999999</v>
+        <v>2482.4166666666665</v>
       </c>
       <c r="E16" s="9">
         <f>E11-E13-E12-E14</f>
-        <v>5267.1624999999995</v>
+        <v>3694.708333333333</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" ref="F16:Y16" si="5">F11-F13-F12-F14</f>
-        <v>6985.3187499999995</v>
+        <v>4907</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="5"/>
-        <v>8395.2312500000007</v>
+        <v>5902.958333333333</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="5"/>
-        <v>10078</v>
+        <v>7089.125</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="5"/>
-        <v>12104.4</v>
+        <v>8517.75</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="5"/>
-        <v>13241.456250000001</v>
+        <v>9323.5</v>
       </c>
       <c r="K16" s="9">
         <f t="shared" si="5"/>
-        <v>14580.59375</v>
+        <v>10267.208333333332</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="5"/>
-        <v>16879.849999999999</v>
+        <v>11886.041666666666</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="5"/>
-        <v>18052.293750000001</v>
+        <v>12717.916666666666</v>
       </c>
       <c r="N16" s="9">
         <f t="shared" si="5"/>
-        <v>20932.649999999998</v>
+        <v>14743.291666666666</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="5"/>
-        <v>22484.112500000003</v>
+        <v>15843.75</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="5"/>
-        <v>24783.368750000001</v>
+        <v>17462.583333333332</v>
       </c>
       <c r="Q16" s="9">
         <f t="shared" si="5"/>
-        <v>28113.518749999999</v>
+        <v>19808.791666666664</v>
       </c>
       <c r="R16" s="9">
         <f t="shared" si="5"/>
-        <v>30625.1</v>
+        <v>21584.375</v>
       </c>
       <c r="S16" s="9">
         <f t="shared" si="5"/>
-        <v>33338.762499999997</v>
+        <v>23497.916666666664</v>
       </c>
       <c r="T16" s="9">
         <f t="shared" si="5"/>
-        <v>37937.275000000001</v>
+        <v>26735.583333333332</v>
       </c>
       <c r="U16" s="9">
         <f t="shared" si="5"/>
-        <v>40898.65</v>
+        <v>28832</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" si="5"/>
-        <v>43647.7</v>
+        <v>30771.666666666664</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="5"/>
-        <v>45163.775000000001</v>
+        <v>31846</v>
       </c>
       <c r="X16" s="9">
         <f t="shared" si="5"/>
-        <v>46538.3</v>
+        <v>32815.833333333336</v>
       </c>
       <c r="Y16" s="9">
         <f t="shared" si="5"/>
-        <v>49145.799999999996</v>
+        <v>34651</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -2435,99 +2432,99 @@
       </c>
       <c r="B17" s="10">
         <f>(B16-B11*21%)/B11</f>
-        <v>0.54501677852348984</v>
+        <v>0.4784848484848484</v>
       </c>
       <c r="C17" s="10">
         <f t="shared" ref="C17:Y17" si="6">(C16-C11*21%)/C11</f>
-        <v>0.59806992855596464</v>
+        <v>0.55026392961876835</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="6"/>
-        <v>0.61133909974542933</v>
+        <v>0.56818704284221522</v>
       </c>
       <c r="E17" s="10">
         <f t="shared" si="6"/>
-        <v>0.61690254719572968</v>
+        <v>0.57569023569023559</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" si="6"/>
-        <v>0.61975812199322911</v>
+        <v>0.57954143201930819</v>
       </c>
       <c r="G17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62164330468808049</v>
+        <v>0.58207760259420782</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62246257098606095</v>
+        <v>0.58318881118881116</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="6"/>
-        <v>0.6232059886422302</v>
+        <v>0.58419580419580419</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62444914453161926</v>
+        <v>0.5858600085360649</v>
       </c>
       <c r="K17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62459559823127886</v>
+        <v>0.5860618983007041</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62453100473383016</v>
+        <v>0.58598470896813437</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="6"/>
-        <v>0.6255609233973618</v>
+        <v>0.58736154649947747</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62499306919832054</v>
+        <v>0.58661173398171917</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62601154511145407</v>
+        <v>0.58797280282044828</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62583584870662046</v>
+        <v>0.58774250038069131</v>
       </c>
       <c r="Q17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62579771381004412</v>
+        <v>0.58769623141716154</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62636860180108822</v>
+        <v>0.58846018681217049</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62644891174810258</v>
+        <v>0.58856981025205313</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62616612115802117</v>
+        <v>0.58819624819624816</v>
       </c>
       <c r="U17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62685238991651671</v>
+        <v>0.58911308203991131</v>
       </c>
       <c r="V17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62696452540747838</v>
+        <v>0.58926406926406916</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62732757981386034</v>
+        <v>0.58974886991461584</v>
       </c>
       <c r="X17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62736617665581096</v>
+        <v>0.58980095864814375</v>
       </c>
       <c r="Y17" s="10">
         <f t="shared" si="6"/>
-        <v>0.62715122815385127</v>
+        <v>0.58951545916012915</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -2563,99 +2560,99 @@
       </c>
       <c r="B21" s="1">
         <f>B9+B16</f>
-        <v>612.48749999999995</v>
+        <v>428.66666666666663</v>
       </c>
       <c r="C21" s="1">
         <f>C9+C16</f>
-        <v>2094.9787500000002</v>
+        <v>1396.3166666666666</v>
       </c>
       <c r="D21" s="1">
         <f>D9+D16</f>
-        <v>4560.7424375000001</v>
+        <v>3040.0225</v>
       </c>
       <c r="E21" s="1">
         <f>E9+E16</f>
-        <v>6182.7900843749994</v>
+        <v>4027.272958333333</v>
       </c>
       <c r="F21" s="1">
         <f>F9+F16</f>
-        <v>10044.992800624999</v>
+        <v>6673.3637749999998</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" ref="G21:Y21" si="7">G9+G16</f>
-        <v>13722.226930375</v>
+        <v>9206.9765983333346</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="7"/>
-        <v>17461.336158225</v>
+        <v>11763.310959</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
-        <v>13404.973079112498</v>
+        <v>8652.3554795</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="7"/>
-        <v>18843.942789556251</v>
+        <v>12549.677739749999</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="7"/>
-        <v>22802.565144778127</v>
+        <v>15342.047203208331</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="7"/>
-        <v>26881.132572389062</v>
+        <v>18157.065268270831</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="7"/>
-        <v>18744.105036194531</v>
+        <v>11991.999300802081</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="7"/>
-        <v>28654.702518097263</v>
+        <v>19089.291317067706</v>
       </c>
       <c r="O21" s="1">
         <f t="shared" si="7"/>
-        <v>35061.463759048638</v>
+        <v>23638.395658533853</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="7"/>
-        <v>40364.100629524321</v>
+        <v>27331.781162600259</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="7"/>
-        <v>28956.471564762156</v>
+        <v>18621.657247966796</v>
       </c>
       <c r="R21" s="1">
         <f t="shared" si="7"/>
-        <v>42703.335782381073</v>
+        <v>28495.203623983398</v>
       </c>
       <c r="S21" s="1">
         <f t="shared" si="7"/>
-        <v>52090.43039119053</v>
+        <v>35145.518478658363</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="7"/>
-        <v>61182.490195595266</v>
+        <v>41508.342572662514</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="7"/>
-        <v>42902.497597797628</v>
+        <v>27696.146286331259</v>
       </c>
       <c r="V21" s="1">
         <f t="shared" si="7"/>
-        <v>61898.948798898811</v>
+        <v>41419.739809832296</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="7"/>
-        <v>72813.2493994494</v>
+        <v>49255.869904916144</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="7"/>
-        <v>79544.924699724696</v>
+        <v>54043.768285791404</v>
       </c>
       <c r="Y21" s="1">
         <f t="shared" si="7"/>
-        <v>51368.612349862342</v>
+        <v>33009.384142895695</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -2664,99 +2661,99 @@
       </c>
       <c r="B22" s="1">
         <f>B21*B23</f>
-        <v>122.4975</v>
+        <v>85.733333333333334</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ref="C22:Y22" si="8">C21*C23</f>
-        <v>523.74468750000005</v>
+        <v>349.07916666666665</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="8"/>
-        <v>1140.185609375</v>
+        <v>760.00562500000001</v>
       </c>
       <c r="E22" s="1">
         <f>E21*E23</f>
-        <v>1854.8370253124997</v>
+        <v>1208.1818874999999</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="8"/>
-        <v>3013.4978401874996</v>
+        <v>2002.0091324999999</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="8"/>
-        <v>4116.6680791125</v>
+        <v>2762.0929795000002</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="8"/>
-        <v>6984.5344632900005</v>
+        <v>4705.3243836000001</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="8"/>
-        <v>5361.9892316449996</v>
+        <v>3460.9421918000003</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="8"/>
-        <v>7537.5771158225007</v>
+        <v>5019.8710959</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="8"/>
-        <v>9121.026057911251</v>
+        <v>6136.8188812833323</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="8"/>
-        <v>10752.453028955626</v>
+        <v>7262.8261073083331</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="8"/>
-        <v>7497.6420144778131</v>
+        <v>4796.7997203208324</v>
       </c>
       <c r="N22" s="1">
         <f t="shared" si="8"/>
-        <v>11461.881007238906</v>
+        <v>7635.7165268270828</v>
       </c>
       <c r="O22" s="1">
         <f t="shared" si="8"/>
-        <v>14024.585503619455</v>
+        <v>9455.3582634135419</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="8"/>
-        <v>16145.640251809729</v>
+        <v>10932.712465040104</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="8"/>
-        <v>11582.588625904864</v>
+        <v>7448.6628991867183</v>
       </c>
       <c r="R22" s="1">
         <f t="shared" si="8"/>
-        <v>17081.334312952429</v>
+        <v>11398.081449593359</v>
       </c>
       <c r="S22" s="1">
         <f t="shared" si="8"/>
-        <v>20836.172156476212</v>
+        <v>14058.207391463346</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="8"/>
-        <v>24472.996078238109</v>
+        <v>16603.337029065005</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="8"/>
-        <v>17160.999039119051</v>
+        <v>11078.458514532504</v>
       </c>
       <c r="V22" s="1">
         <f t="shared" si="8"/>
-        <v>24759.579519559527</v>
+        <v>16567.89592393292</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="8"/>
-        <v>29125.299759779762</v>
+        <v>19702.347961966458</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="8"/>
-        <v>31817.969879889879</v>
+        <v>21617.507314316565</v>
       </c>
       <c r="Y22" s="1">
         <f t="shared" si="8"/>
-        <v>20547.444939944937</v>
+        <v>13203.753657158279</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -2842,99 +2839,99 @@
       </c>
       <c r="B24" s="1">
         <f>B21*10%</f>
-        <v>61.248750000000001</v>
+        <v>42.866666666666667</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:Y24" si="9">C21*10%</f>
-        <v>209.49787500000002</v>
+        <v>139.63166666666666</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="9"/>
-        <v>456.07424375000005</v>
+        <v>304.00225</v>
       </c>
       <c r="E24" s="1">
         <f>E21*10%</f>
-        <v>618.27900843750001</v>
+        <v>402.7272958333333</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="9"/>
-        <v>1004.4992800625</v>
+        <v>667.33637750000003</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="9"/>
-        <v>1372.2226930375</v>
+        <v>920.69765983333355</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="9"/>
-        <v>1746.1336158225001</v>
+        <v>1176.3310959</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="9"/>
-        <v>1340.4973079112499</v>
+        <v>865.23554795000007</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="9"/>
-        <v>1884.3942789556252</v>
+        <v>1254.967773975</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="9"/>
-        <v>2280.2565144778127</v>
+        <v>1534.2047203208331</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="9"/>
-        <v>2688.1132572389065</v>
+        <v>1815.7065268270833</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="9"/>
-        <v>1874.4105036194533</v>
+        <v>1199.1999300802081</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="9"/>
-        <v>2865.4702518097265</v>
+        <v>1908.9291317067707</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="9"/>
-        <v>3506.1463759048638</v>
+        <v>2363.8395658533855</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="9"/>
-        <v>4036.4100629524323</v>
+        <v>2733.1781162600259</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="9"/>
-        <v>2895.647156476216</v>
+        <v>1862.1657247966796</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="9"/>
-        <v>4270.3335782381073</v>
+        <v>2849.5203623983398</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="9"/>
-        <v>5209.043039119053</v>
+        <v>3514.5518478658364</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="9"/>
-        <v>6118.2490195595274</v>
+        <v>4150.8342572662514</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="9"/>
-        <v>4290.2497597797628</v>
+        <v>2769.6146286331259</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="9"/>
-        <v>6189.8948798898818</v>
+        <v>4141.9739809832299</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="9"/>
-        <v>7281.3249399449405</v>
+        <v>4925.5869904916144</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="9"/>
-        <v>7954.4924699724697</v>
+        <v>5404.3768285791411</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="9"/>
-        <v>5136.8612349862342</v>
+        <v>3300.9384142895697</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -2943,99 +2940,99 @@
       </c>
       <c r="B25" s="9">
         <f>B21-B22-B24</f>
-        <v>428.74124999999992</v>
+        <v>300.06666666666661</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" ref="C25:Y25" si="10">C21-C22-C24</f>
-        <v>1361.7361875000001</v>
+        <v>907.60583333333329</v>
       </c>
       <c r="D25" s="9">
         <f t="shared" si="10"/>
-        <v>2964.4825843749995</v>
+        <v>1976.0146250000003</v>
       </c>
       <c r="E25" s="9">
         <f>E21-E22-E24</f>
-        <v>3709.6740506249998</v>
+        <v>2416.3637749999998</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="10"/>
-        <v>6026.9956803749992</v>
+        <v>4004.0182650000006</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="10"/>
-        <v>8233.336158225</v>
+        <v>5524.1859590000004</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="10"/>
-        <v>8730.6680791124982</v>
+        <v>5881.6554795000002</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="10"/>
-        <v>6702.4865395562492</v>
+        <v>4326.1777397499991</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="10"/>
-        <v>9421.9713947781256</v>
+        <v>6274.8388698749986</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="10"/>
-        <v>11401.282572389064</v>
+        <v>7671.0236016041654</v>
       </c>
       <c r="L25" s="9">
         <f t="shared" si="10"/>
-        <v>13440.566286194529</v>
+        <v>9078.5326341354139</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="10"/>
-        <v>9372.0525180972654</v>
+        <v>5995.9996504010405</v>
       </c>
       <c r="N25" s="9">
         <f t="shared" si="10"/>
-        <v>14327.351259048632</v>
+        <v>9544.645658533851</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="10"/>
-        <v>17530.731879524319</v>
+        <v>11819.197829266926</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" si="10"/>
-        <v>20182.050314762157</v>
+        <v>13665.890581300131</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="10"/>
-        <v>14478.235782381076</v>
+        <v>9310.8286239833978</v>
       </c>
       <c r="R25" s="9">
         <f t="shared" si="10"/>
-        <v>21351.667891190536</v>
+        <v>14247.601811991699</v>
       </c>
       <c r="S25" s="9">
         <f t="shared" si="10"/>
-        <v>26045.215195595265</v>
+        <v>17572.759239329182</v>
       </c>
       <c r="T25" s="9">
         <f t="shared" si="10"/>
-        <v>30591.24509779763</v>
+        <v>20754.171286331257</v>
       </c>
       <c r="U25" s="9">
         <f t="shared" si="10"/>
-        <v>21451.248798898814</v>
+        <v>13848.07314316563</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" si="10"/>
-        <v>30949.474399449402</v>
+        <v>20709.869904916144</v>
       </c>
       <c r="W25" s="9">
         <f t="shared" si="10"/>
-        <v>36406.624699724693</v>
+        <v>24627.934952458072</v>
       </c>
       <c r="X25" s="9">
         <f t="shared" si="10"/>
-        <v>39772.462349862348</v>
+        <v>27021.884142895698</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="10"/>
-        <v>25684.306174931171</v>
+        <v>16504.692071447847</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -3044,99 +3041,99 @@
       </c>
       <c r="B27" s="16">
         <f>B11*12</f>
-        <v>8940</v>
+        <v>6600</v>
       </c>
       <c r="C27" s="16">
         <f>C11*12</f>
-        <v>27714</v>
+        <v>20460</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" ref="D27:Y27" si="11">D11*12</f>
-        <v>51852</v>
+        <v>38280</v>
       </c>
       <c r="E27" s="16">
         <f t="shared" si="11"/>
-        <v>76437</v>
+        <v>56430</v>
       </c>
       <c r="F27" s="16">
         <f t="shared" si="11"/>
-        <v>101022</v>
+        <v>74580</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" si="11"/>
-        <v>121137</v>
+        <v>89430</v>
       </c>
       <c r="H27" s="16">
         <f t="shared" si="11"/>
-        <v>145275</v>
+        <v>107250</v>
       </c>
       <c r="I27" s="16">
         <f t="shared" si="11"/>
-        <v>174330</v>
+        <v>128700</v>
       </c>
       <c r="J27" s="16">
         <f t="shared" si="11"/>
-        <v>190422</v>
+        <v>140580</v>
       </c>
       <c r="K27" s="16">
         <f t="shared" si="11"/>
-        <v>209643</v>
+        <v>154770</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="11"/>
-        <v>242721</v>
+        <v>179190</v>
       </c>
       <c r="M27" s="16">
         <f t="shared" si="11"/>
-        <v>259260</v>
+        <v>191400</v>
       </c>
       <c r="N27" s="16">
         <f t="shared" si="11"/>
-        <v>300831</v>
+        <v>222090</v>
       </c>
       <c r="O27" s="16">
         <f t="shared" si="11"/>
-        <v>322734</v>
+        <v>238260</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" si="11"/>
-        <v>355812</v>
+        <v>262680</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="11"/>
-        <v>403641</v>
+        <v>297990</v>
       </c>
       <c r="R27" s="16">
         <f t="shared" si="11"/>
-        <v>439401</v>
+        <v>324390</v>
       </c>
       <c r="S27" s="16">
         <f t="shared" si="11"/>
-        <v>478290</v>
+        <v>353100</v>
       </c>
       <c r="T27" s="16">
         <f t="shared" si="11"/>
-        <v>544446</v>
+        <v>401940</v>
       </c>
       <c r="U27" s="16">
         <f t="shared" si="11"/>
-        <v>586464</v>
+        <v>432960</v>
       </c>
       <c r="V27" s="16">
         <f t="shared" si="11"/>
-        <v>625800</v>
+        <v>462000</v>
       </c>
       <c r="W27" s="16">
         <f t="shared" si="11"/>
-        <v>647256</v>
+        <v>477840</v>
       </c>
       <c r="X27" s="16">
         <f t="shared" si="11"/>
-        <v>666924</v>
+        <v>492360</v>
       </c>
       <c r="Y27" s="16">
         <f t="shared" si="11"/>
-        <v>704472</v>
+        <v>520080</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -3552,99 +3549,99 @@
       </c>
       <c r="B37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="C37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="D37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="E37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="F37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="G37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="H37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="I37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="J37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="K37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="L37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="M37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="N37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="O37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="P37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="Q37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="R37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="S37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="T37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="U37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="V37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="W37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="X37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
       <c r="Y37" s="1">
         <f>Sheet1!$C$14</f>
-        <v>372.5</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3831,99 +3828,99 @@
       </c>
       <c r="B41" s="9">
         <f>B37*B39</f>
-        <v>745</v>
+        <v>550</v>
       </c>
       <c r="C41" s="9">
         <f>C37*C39</f>
-        <v>2235</v>
+        <v>1650</v>
       </c>
       <c r="D41" s="9">
         <f>D37*D39</f>
-        <v>4097.5</v>
+        <v>3025</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" ref="E41:M41" si="17">E37*E39</f>
-        <v>5960</v>
+        <v>4400</v>
       </c>
       <c r="F41" s="9">
         <f t="shared" si="17"/>
-        <v>7822.5</v>
+        <v>5775</v>
       </c>
       <c r="G41" s="9">
         <f t="shared" si="17"/>
-        <v>9312.5</v>
+        <v>6875</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="17"/>
-        <v>11175</v>
+        <v>8250</v>
       </c>
       <c r="I41" s="9">
         <f t="shared" si="17"/>
-        <v>13410</v>
+        <v>9900</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="17"/>
-        <v>14527.5</v>
+        <v>10725</v>
       </c>
       <c r="K41" s="9">
         <f t="shared" si="17"/>
-        <v>16017.5</v>
+        <v>11825</v>
       </c>
       <c r="L41" s="9">
         <f t="shared" si="17"/>
-        <v>18625</v>
+        <v>13750</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="17"/>
-        <v>19742.5</v>
+        <v>14575</v>
       </c>
       <c r="N41" s="9">
         <f t="shared" ref="N41:Y41" si="18">N37*N39</f>
-        <v>23095</v>
+        <v>17050</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="18"/>
-        <v>24585</v>
+        <v>18150</v>
       </c>
       <c r="P41" s="9">
         <f t="shared" si="18"/>
-        <v>27192.5</v>
+        <v>20075</v>
       </c>
       <c r="Q41" s="9">
         <f t="shared" si="18"/>
-        <v>30917.5</v>
+        <v>22825</v>
       </c>
       <c r="R41" s="9">
         <f t="shared" si="18"/>
-        <v>33525</v>
+        <v>24750</v>
       </c>
       <c r="S41" s="9">
         <f t="shared" si="18"/>
-        <v>36505</v>
+        <v>26950</v>
       </c>
       <c r="T41" s="9">
         <f t="shared" si="18"/>
-        <v>41720</v>
+        <v>30800</v>
       </c>
       <c r="U41" s="9">
         <f t="shared" si="18"/>
-        <v>44700</v>
+        <v>33000</v>
       </c>
       <c r="V41" s="9">
         <f t="shared" si="18"/>
-        <v>47680</v>
+        <v>35200</v>
       </c>
       <c r="W41" s="9">
         <f t="shared" si="18"/>
-        <v>49170</v>
+        <v>36300</v>
       </c>
       <c r="X41" s="9">
         <f t="shared" si="18"/>
-        <v>50660</v>
+        <v>37400</v>
       </c>
       <c r="Y41" s="9">
         <f t="shared" si="18"/>
-        <v>53640</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -4011,95 +4008,95 @@
       </c>
       <c r="C47" s="9">
         <f>B39*C46*B37</f>
-        <v>74.5</v>
+        <v>55</v>
       </c>
       <c r="D47" s="9">
         <f>C39*D46*C37</f>
-        <v>223.50000000000003</v>
+        <v>165.00000000000003</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" ref="E47:M47" si="19">D39*E46*D37</f>
-        <v>409.75000000000006</v>
+        <v>302.5</v>
       </c>
       <c r="F47" s="9">
         <f t="shared" si="19"/>
-        <v>596</v>
+        <v>440</v>
       </c>
       <c r="G47" s="9">
         <f t="shared" si="19"/>
-        <v>782.25</v>
+        <v>577.5</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="19"/>
-        <v>931.25</v>
+        <v>687.5</v>
       </c>
       <c r="I47" s="9">
         <f t="shared" si="19"/>
-        <v>1117.5</v>
+        <v>825</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="19"/>
-        <v>1341</v>
+        <v>990</v>
       </c>
       <c r="K47" s="9">
         <f t="shared" si="19"/>
-        <v>1452.7500000000002</v>
+        <v>1072.5</v>
       </c>
       <c r="L47" s="9">
         <f t="shared" si="19"/>
-        <v>1601.75</v>
+        <v>1182.5</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="19"/>
-        <v>1862.5</v>
+        <v>1375</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" ref="N47:Y47" si="20">M39*N46*M37</f>
-        <v>1974.2500000000002</v>
+        <v>1457.5000000000002</v>
       </c>
       <c r="O47" s="9">
         <f t="shared" si="20"/>
-        <v>2309.5</v>
+        <v>1705</v>
       </c>
       <c r="P47" s="9">
         <f t="shared" si="20"/>
-        <v>2458.5</v>
+        <v>1815.0000000000002</v>
       </c>
       <c r="Q47" s="9">
         <f t="shared" si="20"/>
-        <v>2719.2500000000005</v>
+        <v>2007.5000000000002</v>
       </c>
       <c r="R47" s="9">
         <f t="shared" si="20"/>
-        <v>3091.7500000000005</v>
+        <v>2282.5</v>
       </c>
       <c r="S47" s="9">
         <f t="shared" si="20"/>
-        <v>3352.5</v>
+        <v>2475</v>
       </c>
       <c r="T47" s="9">
         <f t="shared" si="20"/>
-        <v>3650.5000000000005</v>
+        <v>2695</v>
       </c>
       <c r="U47" s="9">
         <f t="shared" si="20"/>
-        <v>4172</v>
+        <v>3080.0000000000005</v>
       </c>
       <c r="V47" s="9">
         <f t="shared" si="20"/>
-        <v>4470</v>
+        <v>3300</v>
       </c>
       <c r="W47" s="9">
         <f t="shared" si="20"/>
-        <v>4768</v>
+        <v>3520</v>
       </c>
       <c r="X47" s="9">
         <f t="shared" si="20"/>
-        <v>4917</v>
+        <v>3630.0000000000005</v>
       </c>
       <c r="Y47" s="9">
         <f t="shared" si="20"/>
-        <v>5066.0000000000009</v>
+        <v>3740.0000000000005</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -4152,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
-  <dimension ref="C5:N27"/>
+  <dimension ref="C5:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4204,318 +4201,317 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.69</v>
-      </c>
-    </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <f>D10+D10*D8</f>
-        <v>297.5</v>
-      </c>
-      <c r="E9">
-        <f>E10+E10*E8</f>
-        <v>512</v>
-      </c>
-      <c r="F9">
-        <f>F10+F10*F8</f>
-        <v>822</v>
-      </c>
-      <c r="H9">
-        <f>H10+H10*H8</f>
-        <v>1862.5</v>
-      </c>
-      <c r="I9">
-        <f>I10+I10*I8</f>
-        <v>2370</v>
-      </c>
-      <c r="J9">
-        <f>J10+J10*J8</f>
-        <v>2873</v>
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="5">
+        <f>1-E11/E10</f>
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="5">
+        <f>1-F11/F10</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="H9" s="5">
+        <f>1-H11/H10</f>
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="5">
+        <f>1-I11/I10</f>
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="5">
+        <f>1-J11/J10</f>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <f>D14*D11</f>
-        <v>250</v>
+        <f>D11/D9</f>
+        <v>400</v>
       </c>
       <c r="E10" s="1">
-        <f>E14*E11</f>
+        <f>E12/D12*D11</f>
         <v>400</v>
       </c>
       <c r="F10" s="1">
-        <f>F14*F11</f>
+        <f>F12/E12*E11</f>
         <v>600</v>
       </c>
       <c r="H10" s="1">
-        <f>H14*H11</f>
-        <v>1250</v>
+        <f>H12/E12*E11</f>
+        <v>1500</v>
       </c>
       <c r="I10" s="1">
-        <f>I14*I11</f>
-        <v>1500</v>
+        <f>I12/F12*F11</f>
+        <v>2000</v>
       </c>
       <c r="J10" s="1">
-        <f>J14*J11</f>
-        <v>1700.0000000000002</v>
+        <f>J12/H12*H11</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D15*D12</f>
+        <v>200</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E15*E12</f>
+        <v>300</v>
+      </c>
+      <c r="F11" s="1">
+        <f>F15*F12</f>
+        <v>400</v>
+      </c>
+      <c r="H11" s="1">
+        <f>H15*H12</f>
+        <v>900</v>
+      </c>
+      <c r="I11" s="1">
+        <f>I15*I12</f>
+        <v>1500</v>
+      </c>
+      <c r="J11" s="1">
+        <f>J15*J12</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D12" s="4">
         <v>500</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>1000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>2000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>5000</v>
       </c>
-      <c r="I11" s="4">
-        <v>7500</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="I12" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="4">
+        <v>15000</v>
+      </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1">
-        <f>D9/D11</f>
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="E13" s="1">
-        <f>E9/E11</f>
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <f>F9/F11</f>
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="H13" s="1">
-        <f>H9/H11</f>
-        <v>0.3725</v>
-      </c>
-      <c r="I13" s="1">
-        <f>I9/I11</f>
-        <v>0.316</v>
-      </c>
-      <c r="J13" s="1">
-        <f>J9/J11</f>
-        <v>0.2873</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1">
+        <f>D10/D12</f>
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="1">
+        <f>E10/E12</f>
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="1">
+        <f>F10/F12</f>
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="1">
+        <f>H10/H12</f>
+        <v>0.3</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I10/I12</f>
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="1">
+        <f>J10/J12</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D15" s="3">
         <v>0.4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E15" s="3">
         <v>0.3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="F15" s="3">
         <v>0.2</v>
       </c>
-      <c r="J14" s="3">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="H15" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="1">
+        <f>D11/79%</f>
+        <v>253.1645569620253</v>
+      </c>
+      <c r="E17" s="1">
+        <f>E11/79%</f>
+        <v>379.74683544303798</v>
+      </c>
+      <c r="F17" s="1">
+        <f>F11/79%</f>
+        <v>506.3291139240506</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <f>H11/79%</f>
+        <v>1139.2405063291139</v>
+      </c>
+      <c r="I17" s="1">
+        <f>I11/79%</f>
+        <v>1898.7341772151897</v>
+      </c>
+      <c r="J17" s="1">
+        <f>J11/79%</f>
+        <v>2278.4810126582279</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="1">
-        <f>D10/79%</f>
-        <v>316.45569620253161</v>
-      </c>
-      <c r="E16" s="1">
-        <f>E10/79%</f>
-        <v>506.3291139240506</v>
-      </c>
-      <c r="F16" s="1">
-        <f>F10/79%</f>
-        <v>759.49367088607596</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
-        <f>H10/79%</f>
-        <v>1582.2784810126582</v>
-      </c>
-      <c r="I16" s="1">
-        <f>I10/79%</f>
-        <v>1898.7341772151897</v>
-      </c>
-      <c r="J16" s="1">
-        <f>J10/79%</f>
-        <v>2151.8987341772154</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>114</v>
       </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="F18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="19">
-        <f t="shared" ref="D22:J22" si="0">D27/70%</f>
-        <v>0.5</v>
-      </c>
-      <c r="E22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.3928571428571429</v>
-      </c>
-      <c r="F22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.27142857142857146</v>
-      </c>
-      <c r="G22" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.23571428571428574</v>
-      </c>
-      <c r="I22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="J22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.15714285714285717</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D23" s="19">
+        <f>D28/90%</f>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="E23" s="19">
+        <f>E28/90%</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="F23" s="19">
+        <f>F28/90%</f>
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
+        <f>H28/90%</f>
+        <v>0.18333333333333335</v>
+      </c>
+      <c r="I23" s="19">
+        <f>I28/90%</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J23" s="19">
+        <f>J28/90%</f>
+        <v>0.12222222222222222</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D25">
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>500</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>1000</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>2500</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>5000</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>15000</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>20000</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D26">
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D27">
         <v>175</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>275</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>475</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>825</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>1800</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>2200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <f>D26/D25</f>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>D27/D26</f>
         <v>0.35</v>
       </c>
-      <c r="E27">
-        <f>E26/E25</f>
+      <c r="E28">
+        <f>E27/E26</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="F27">
-        <f>F26/F25</f>
+      <c r="F28">
+        <f>F27/F26</f>
         <v>0.19</v>
       </c>
-      <c r="H27">
-        <f>H26/H25</f>
+      <c r="H28">
+        <f>H27/H26</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="I27">
-        <f>I26/I25</f>
+      <c r="I28">
+        <f>I27/I26</f>
         <v>0.12</v>
       </c>
-      <c r="J27">
-        <f>J26/J25</f>
+      <c r="J28">
+        <f>J27/J26</f>
         <v>0.11</v>
       </c>
     </row>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512EE571-43E1-4BF8-BF87-F0B92EB2B56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BDFFF-1C95-4648-89F3-D84054F0AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="3570" yWindow="1965" windowWidth="16650" windowHeight="12540" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>Shared Plus Hosting</t>
   </si>
@@ -384,6 +384,24 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Gmap scraper</t>
+  </si>
+  <si>
+    <t>Gmap email scraper</t>
+  </si>
+  <si>
+    <t>SEO boost</t>
+  </si>
+  <si>
+    <t>Student Linkedin</t>
+  </si>
+  <si>
+    <t>Youtube Video Boost</t>
+  </si>
+  <si>
+    <t>Cost per</t>
   </si>
 </sst>
 </file>
@@ -4149,10 +4167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
-  <dimension ref="C5:J28"/>
+  <dimension ref="C5:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4515,6 +4533,36 @@
         <v>0.11</v>
       </c>
     </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BDFFF-1C95-4648-89F3-D84054F0AF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7E872-3550-4FB5-970F-434F3678450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1965" windowWidth="16650" windowHeight="12540" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
   <si>
     <t>Shared Plus Hosting</t>
   </si>
@@ -401,19 +401,68 @@
     <t>Youtube Video Boost</t>
   </si>
   <si>
-    <t>Cost per</t>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>usage cgance?</t>
+  </si>
+  <si>
+    <t>Self added</t>
+  </si>
+  <si>
+    <t>Total Cost PM</t>
+  </si>
+  <si>
+    <t>avg results 15k</t>
+  </si>
+  <si>
+    <t>Cost ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startpakket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basispakket </t>
+  </si>
+  <si>
+    <t>Standaardpakket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groei Pakket </t>
+  </si>
+  <si>
+    <t>Geavanceerd Pakket</t>
+  </si>
+  <si>
+    <t>Premium Pakket</t>
+  </si>
+  <si>
+    <t>Pro Pakket</t>
+  </si>
+  <si>
+    <t>Elite Pakket</t>
+  </si>
+  <si>
+    <t>Zakelijk Pakket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ondernemingspakket </t>
+  </si>
+  <si>
+    <t>Ultiem Pakket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-[$€-2]\ * #,##0.0000_-;\-[$€-2]\ * #,##0.0000_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -497,7 +546,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -518,6 +567,8 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4167,10 +4218,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
-  <dimension ref="C5:J39"/>
+  <dimension ref="C5:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4179,6 +4230,17 @@
     <col min="4" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -4388,7 +4450,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>112</v>
       </c>
@@ -4418,7 +4480,7 @@
         <v>2278.4810126582279</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>113</v>
       </c>
@@ -4432,7 +4494,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>110</v>
       </c>
@@ -4462,12 +4524,12 @@
         <v>0.12222222222222222</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>500</v>
       </c>
@@ -4487,7 +4549,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>175</v>
       </c>
@@ -4507,7 +4569,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>D27/D26</f>
         <v>0.35</v>
@@ -4533,34 +4595,689 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="K32" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF32" s="8"/>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
       <c r="E33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>124</v>
+      </c>
+      <c r="K33">
+        <v>500</v>
+      </c>
+      <c r="L33" t="s">
+        <v>125</v>
+      </c>
+      <c r="M33">
+        <v>1000</v>
+      </c>
+      <c r="N33" t="s">
+        <v>125</v>
+      </c>
+      <c r="O33">
+        <v>2000</v>
+      </c>
+      <c r="P33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33">
+        <v>4000</v>
+      </c>
+      <c r="R33" t="s">
+        <v>125</v>
+      </c>
+      <c r="S33">
+        <v>5000</v>
+      </c>
+      <c r="T33" t="s">
+        <v>125</v>
+      </c>
+      <c r="U33">
+        <v>7500</v>
+      </c>
+      <c r="V33" t="s">
+        <v>125</v>
+      </c>
+      <c r="W33">
+        <v>10000</v>
+      </c>
+      <c r="X33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y33">
+        <v>12500</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA33">
+        <v>15000</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC33">
+        <v>17500</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE33">
+        <v>20000</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>49</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f>SUM(D34:F34)</f>
+        <v>49</v>
+      </c>
+      <c r="H34" s="20">
+        <f>G34/15000</f>
+        <v>3.2666666666666669E-3</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="K34" s="1">
+        <f>L34*K$33</f>
+        <v>424.66666666666669</v>
+      </c>
+      <c r="L34" s="3">
+        <f>$H34*260</f>
+        <v>0.84933333333333338</v>
+      </c>
+      <c r="M34" s="1">
+        <f>N34*M$33</f>
+        <v>784</v>
+      </c>
+      <c r="N34" s="3">
+        <f>$H34*240</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="O34" s="1">
+        <f>P34*O$33</f>
+        <v>1437.3333333333333</v>
+      </c>
+      <c r="P34" s="3">
+        <f>$H34*220</f>
+        <v>0.71866666666666668</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>R34*Q$33</f>
+        <v>2613.3333333333335</v>
+      </c>
+      <c r="R34" s="3">
+        <f>$H34*200</f>
+        <v>0.65333333333333332</v>
+      </c>
+      <c r="S34" s="1">
+        <f>T34*S$33</f>
+        <v>2940.0000000000005</v>
+      </c>
+      <c r="T34" s="3">
+        <f>$H34*180</f>
+        <v>0.58800000000000008</v>
+      </c>
+      <c r="U34" s="1">
+        <f>V34*U$33</f>
+        <v>3920.0000000000005</v>
+      </c>
+      <c r="V34" s="3">
+        <f>$H34*160</f>
+        <v>0.52266666666666672</v>
+      </c>
+      <c r="W34" s="1">
+        <f>X34*W$33</f>
+        <v>4573.3333333333339</v>
+      </c>
+      <c r="X34" s="3">
+        <f>$H34*140</f>
+        <v>0.45733333333333337</v>
+      </c>
+      <c r="Y34" s="1">
+        <f>Z34*Y$33</f>
+        <v>4083.3333333333335</v>
+      </c>
+      <c r="Z34" s="3">
+        <f>$H34*100</f>
+        <v>0.32666666666666666</v>
+      </c>
+      <c r="AA34" s="1">
+        <f>AB34*AA$33</f>
+        <v>3920.0000000000005</v>
+      </c>
+      <c r="AB34" s="3">
+        <f>$H34*80</f>
+        <v>0.26133333333333336</v>
+      </c>
+      <c r="AC34" s="1">
+        <f>AD34*AC$33</f>
+        <v>3430</v>
+      </c>
+      <c r="AD34" s="3">
+        <f>$H34*60</f>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AE34" s="1">
+        <f>AF34*AE$33</f>
+        <v>2613.3333333333335</v>
+      </c>
+      <c r="AF34" s="3">
+        <f>$H34*40</f>
+        <v>0.13066666666666668</v>
+      </c>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <f>SUM(D35:F35)</f>
+        <v>54</v>
+      </c>
+      <c r="H35" s="20">
+        <f>G35/15000</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="K35" s="1">
+        <f>L35*K$33</f>
+        <v>468</v>
+      </c>
+      <c r="L35" s="3">
+        <f>$H35*260</f>
+        <v>0.93599999999999994</v>
+      </c>
+      <c r="M35" s="1">
+        <f>N35*M$33</f>
+        <v>864</v>
+      </c>
+      <c r="N35" s="3">
+        <f>$H35*240</f>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="O35" s="1">
+        <f>P35*O$33</f>
+        <v>1583.9999999999998</v>
+      </c>
+      <c r="P35" s="3">
+        <f>$H35*220</f>
+        <v>0.79199999999999993</v>
+      </c>
+      <c r="Q35" s="1">
+        <f>R35*Q$33</f>
+        <v>2880</v>
+      </c>
+      <c r="R35" s="3">
+        <f>$H35*200</f>
+        <v>0.72</v>
+      </c>
+      <c r="S35" s="1">
+        <f>T35*S$33</f>
+        <v>3240</v>
+      </c>
+      <c r="T35" s="3">
+        <f>$H35*180</f>
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="U35" s="1">
+        <f>V35*U$33</f>
+        <v>4320</v>
+      </c>
+      <c r="V35" s="3">
+        <f>$H35*160</f>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="W35" s="1">
+        <f>X35*W$33</f>
+        <v>5040</v>
+      </c>
+      <c r="X35" s="3">
+        <f>$H35*140</f>
+        <v>0.504</v>
+      </c>
+      <c r="Y35" s="1">
+        <f>Z35*Y$33</f>
+        <v>4500</v>
+      </c>
+      <c r="Z35" s="3">
+        <f>$H35*100</f>
+        <v>0.36</v>
+      </c>
+      <c r="AA35" s="1">
+        <f>AB35*AA$33</f>
+        <v>4320</v>
+      </c>
+      <c r="AB35" s="3">
+        <f>$H35*80</f>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AC35" s="1">
+        <f>AD35*AC$33</f>
+        <v>3780</v>
+      </c>
+      <c r="AD35" s="3">
+        <f>$H35*60</f>
+        <v>0.216</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>AF35*AE$33</f>
+        <v>2880</v>
+      </c>
+      <c r="AF35" s="3">
+        <f>$H35*40</f>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>49</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f>SUM(D36:F36)</f>
+        <v>69</v>
+      </c>
+      <c r="H36" s="20">
+        <f>G36/15000</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="K36" s="1">
+        <f>L36*K$33</f>
+        <v>598</v>
+      </c>
+      <c r="L36" s="3">
+        <f>$H36*260</f>
+        <v>1.196</v>
+      </c>
+      <c r="M36" s="1">
+        <f>N36*M$33</f>
+        <v>1104</v>
+      </c>
+      <c r="N36" s="3">
+        <f>$H36*240</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="O36" s="1">
+        <f>P36*O$33</f>
+        <v>2024</v>
+      </c>
+      <c r="P36" s="3">
+        <f>$H36*220</f>
+        <v>1.012</v>
+      </c>
+      <c r="Q36" s="1">
+        <f>R36*Q$33</f>
+        <v>3679.9999999999995</v>
+      </c>
+      <c r="R36" s="3">
+        <f>$H36*200</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="S36" s="1">
+        <f>T36*S$33</f>
+        <v>4140</v>
+      </c>
+      <c r="T36" s="3">
+        <f>$H36*180</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="U36" s="1">
+        <f>V36*U$33</f>
+        <v>5520</v>
+      </c>
+      <c r="V36" s="3">
+        <f>$H36*160</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="W36" s="1">
+        <f>X36*W$33</f>
+        <v>6440</v>
+      </c>
+      <c r="X36" s="3">
+        <f>$H36*140</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="Y36" s="1">
+        <f>Z36*Y$33</f>
+        <v>5750</v>
+      </c>
+      <c r="Z36" s="3">
+        <f>$H36*100</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="AA36" s="1">
+        <f>AB36*AA$33</f>
+        <v>5520</v>
+      </c>
+      <c r="AB36" s="3">
+        <f>$H36*80</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="AC36" s="1">
+        <f>AD36*AC$33</f>
+        <v>4830</v>
+      </c>
+      <c r="AD36" s="3">
+        <f>$H36*60</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>AF36*AE$33</f>
+        <v>3680</v>
+      </c>
+      <c r="AF36" s="3">
+        <f>$H36*40</f>
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>49</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f>SUM(D38:F38)</f>
+        <v>89</v>
+      </c>
+      <c r="H38" s="20">
+        <f>G38/15000</f>
+        <v>5.933333333333333E-3</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="K38" s="1">
+        <f>L38*K$33</f>
+        <v>771.33333333333337</v>
+      </c>
+      <c r="L38" s="3">
+        <f>$H38*260</f>
+        <v>1.5426666666666666</v>
+      </c>
+      <c r="M38" s="1">
+        <f>N38*M$33</f>
+        <v>1424</v>
+      </c>
+      <c r="N38" s="3">
+        <f>$H38*240</f>
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="O38" s="1">
+        <f>P38*O$33</f>
+        <v>2610.6666666666665</v>
+      </c>
+      <c r="P38" s="3">
+        <f>$H38*220</f>
+        <v>1.3053333333333332</v>
+      </c>
+      <c r="Q38" s="1">
+        <f>R38*Q$33</f>
+        <v>4746.6666666666661</v>
+      </c>
+      <c r="R38" s="3">
+        <f>$H38*200</f>
+        <v>1.1866666666666665</v>
+      </c>
+      <c r="S38" s="1">
+        <f>T38*S$33</f>
+        <v>5339.9999999999991</v>
+      </c>
+      <c r="T38" s="3">
+        <f>$H38*180</f>
+        <v>1.0679999999999998</v>
+      </c>
+      <c r="U38" s="1">
+        <f>V38*U$33</f>
+        <v>7119.9999999999991</v>
+      </c>
+      <c r="V38" s="3">
+        <f>$H38*160</f>
+        <v>0.94933333333333325</v>
+      </c>
+      <c r="W38" s="1">
+        <f>X38*W$33</f>
+        <v>8306.6666666666661</v>
+      </c>
+      <c r="X38" s="3">
+        <f>$H38*140</f>
+        <v>0.83066666666666666</v>
+      </c>
+      <c r="Y38" s="1">
+        <f>Z38*Y$33</f>
+        <v>7416.6666666666661</v>
+      </c>
+      <c r="Z38" s="3">
+        <f>$H38*100</f>
+        <v>0.59333333333333327</v>
+      </c>
+      <c r="AA38" s="1">
+        <f>AB38*AA$33</f>
+        <v>7119.9999999999991</v>
+      </c>
+      <c r="AB38" s="3">
+        <f>$H38*80</f>
+        <v>0.47466666666666663</v>
+      </c>
+      <c r="AC38" s="1">
+        <f>AD38*AC$33</f>
+        <v>6230</v>
+      </c>
+      <c r="AD38" s="3">
+        <f>$H38*60</f>
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AE38" s="1">
+        <f>AF38*AE$33</f>
+        <v>4746.6666666666661</v>
+      </c>
+      <c r="AF38" s="3">
+        <f>$H38*40</f>
+        <v>0.23733333333333331</v>
+      </c>
+    </row>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>119</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f>SUM(D39:F39)</f>
+        <v>69</v>
+      </c>
+      <c r="H39" s="20">
+        <f>G39/15000</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="K39" s="1">
+        <f>L39*K$33</f>
+        <v>598</v>
+      </c>
+      <c r="L39" s="3">
+        <f>$H39*260</f>
+        <v>1.196</v>
+      </c>
+      <c r="M39" s="1">
+        <f>N39*M$33</f>
+        <v>1104</v>
+      </c>
+      <c r="N39" s="3">
+        <f>$H39*240</f>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="O39" s="1">
+        <f>P39*O$33</f>
+        <v>2024</v>
+      </c>
+      <c r="P39" s="3">
+        <f>$H39*220</f>
+        <v>1.012</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>R39*Q$33</f>
+        <v>3679.9999999999995</v>
+      </c>
+      <c r="R39" s="3">
+        <f>$H39*200</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="S39" s="1">
+        <f>T39*S$33</f>
+        <v>4140</v>
+      </c>
+      <c r="T39" s="3">
+        <f>$H39*180</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="U39" s="1">
+        <f>V39*U$33</f>
+        <v>5520</v>
+      </c>
+      <c r="V39" s="3">
+        <f>$H39*160</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="W39" s="1">
+        <f>X39*W$33</f>
+        <v>6440</v>
+      </c>
+      <c r="X39" s="3">
+        <f>$H39*140</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="Y39" s="1">
+        <f>Z39*Y$33</f>
+        <v>5750</v>
+      </c>
+      <c r="Z39" s="3">
+        <f>$H39*100</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="AA39" s="1">
+        <f>AB39*AA$33</f>
+        <v>5520</v>
+      </c>
+      <c r="AB39" s="3">
+        <f>$H39*80</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="AC39" s="1">
+        <f>AD39*AC$33</f>
+        <v>4830</v>
+      </c>
+      <c r="AD39" s="3">
+        <f>$H39*60</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AE39" s="1">
+        <f>AF39*AE$33</f>
+        <v>3680</v>
+      </c>
+      <c r="AF39" s="3">
+        <f>$H39*40</f>
+        <v>0.184</v>
       </c>
     </row>
   </sheetData>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7E872-3550-4FB5-970F-434F3678450B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093F663-4203-4A0A-9892-5566C4F5AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
   <si>
     <t>Shared Plus Hosting</t>
   </si>
@@ -416,40 +416,16 @@
     <t>avg results 15k</t>
   </si>
   <si>
-    <t>Cost ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Startpakket </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basispakket </t>
-  </si>
-  <si>
-    <t>Standaardpakket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groei Pakket </t>
-  </si>
-  <si>
-    <t>Geavanceerd Pakket</t>
-  </si>
-  <si>
-    <t>Premium Pakket</t>
-  </si>
-  <si>
-    <t>Pro Pakket</t>
-  </si>
-  <si>
-    <t>Elite Pakket</t>
-  </si>
-  <si>
-    <t>Zakelijk Pakket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ondernemingspakket </t>
-  </si>
-  <si>
-    <t>Ultiem Pakket</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Starter</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>Starter A</t>
   </si>
 </sst>
 </file>
@@ -462,7 +438,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-[$€-2]\ * #,##0_-;\-[$€-2]\ * #,##0_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$€-2]\ * #,##0.0000_-;\-[$€-2]\ * #,##0.0000_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.0000_-;\-[$€-2]\ * #,##0.0000_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -567,8 +543,8 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4218,10 +4194,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0D58-8F04-4886-8C8E-354108E90D0C}">
-  <dimension ref="C5:AF39"/>
+  <dimension ref="C5:BM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4237,10 +4213,19 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
@@ -4450,7 +4435,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>112</v>
       </c>
@@ -4480,7 +4465,7 @@
         <v>2278.4810126582279</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>113</v>
       </c>
@@ -4494,7 +4479,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>110</v>
       </c>
@@ -4524,12 +4509,12 @@
         <v>0.12222222222222222</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>500</v>
       </c>
@@ -4549,7 +4534,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>175</v>
       </c>
@@ -4569,7 +4554,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>D27/D26</f>
         <v>0.35</v>
@@ -4595,53 +4580,20 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="K32" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF32" s="8"/>
-    </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="K32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AE32" s="8"/>
+    </row>
+    <row r="33" spans="3:65" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>120</v>
       </c>
@@ -4657,74 +4609,89 @@
       <c r="H33" t="s">
         <v>124</v>
       </c>
-      <c r="K33">
-        <v>500</v>
+      <c r="K33" t="s">
+        <v>126</v>
       </c>
       <c r="L33" t="s">
         <v>125</v>
       </c>
-      <c r="M33">
-        <v>1000</v>
-      </c>
-      <c r="N33" t="s">
-        <v>125</v>
-      </c>
-      <c r="O33">
-        <v>2000</v>
+      <c r="M33" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" t="s">
+        <v>128</v>
       </c>
       <c r="P33" t="s">
         <v>125</v>
       </c>
-      <c r="Q33">
-        <v>4000</v>
-      </c>
-      <c r="R33" t="s">
-        <v>125</v>
-      </c>
-      <c r="S33">
-        <v>5000</v>
+      <c r="Q33" t="s">
+        <v>127</v>
+      </c>
+      <c r="S33" t="s">
+        <v>128</v>
       </c>
       <c r="T33" t="s">
         <v>125</v>
       </c>
-      <c r="U33">
-        <v>7500</v>
-      </c>
-      <c r="V33" t="s">
-        <v>125</v>
-      </c>
-      <c r="W33">
-        <v>10000</v>
+      <c r="U33" t="s">
+        <v>127</v>
+      </c>
+      <c r="W33" t="s">
+        <v>128</v>
       </c>
       <c r="X33" t="s">
         <v>125</v>
       </c>
-      <c r="Y33">
-        <v>12500</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA33">
-        <v>15000</v>
+      <c r="Y33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>128</v>
       </c>
       <c r="AB33" t="s">
         <v>125</v>
       </c>
-      <c r="AC33">
-        <v>17500</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE33">
-        <v>20000</v>
+      <c r="AC33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>128</v>
       </c>
       <c r="AF33" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="AG33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>115</v>
       </c>
@@ -4742,97 +4709,108 @@
         <f>G34/15000</f>
         <v>3.2666666666666669E-3</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="21">
+        <f>H34*200</f>
+        <v>0.65333333333333332</v>
+      </c>
       <c r="K34" s="1">
-        <f>L34*K$33</f>
-        <v>424.66666666666669</v>
-      </c>
-      <c r="L34" s="3">
-        <f>$H34*260</f>
-        <v>0.84933333333333338</v>
-      </c>
-      <c r="M34" s="1">
-        <f>N34*M$33</f>
-        <v>784</v>
-      </c>
-      <c r="N34" s="3">
-        <f>$H34*240</f>
-        <v>0.78400000000000003</v>
-      </c>
+        <f>M34*L34</f>
+        <v>172</v>
+      </c>
+      <c r="L34" s="2">
+        <v>200</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="N34" s="3"/>
       <c r="O34" s="1">
-        <f>P34*O$33</f>
-        <v>1437.3333333333333</v>
-      </c>
-      <c r="P34" s="3">
-        <f>$H34*220</f>
-        <v>0.71866666666666668</v>
-      </c>
-      <c r="Q34" s="1">
-        <f>R34*Q$33</f>
-        <v>2613.3333333333335</v>
-      </c>
-      <c r="R34" s="3">
-        <f>$H34*200</f>
-        <v>0.65333333333333332</v>
-      </c>
+        <f>Q34*P34</f>
+        <v>315</v>
+      </c>
+      <c r="P34" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="R34" s="3"/>
       <c r="S34" s="1">
-        <f>T34*S$33</f>
-        <v>2940.0000000000005</v>
-      </c>
-      <c r="T34" s="3">
-        <f>$H34*180</f>
-        <v>0.58800000000000008</v>
-      </c>
-      <c r="U34" s="1">
-        <f>V34*U$33</f>
-        <v>3920.0000000000005</v>
-      </c>
-      <c r="V34" s="3">
-        <f>$H34*160</f>
-        <v>0.52266666666666672</v>
-      </c>
+        <f>U34*T34</f>
+        <v>550</v>
+      </c>
+      <c r="T34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V34" s="3"/>
       <c r="W34" s="1">
-        <f>X34*W$33</f>
-        <v>4573.3333333333339</v>
-      </c>
-      <c r="X34" s="3">
-        <f>$H34*140</f>
-        <v>0.45733333333333337</v>
-      </c>
-      <c r="Y34" s="1">
-        <f>Z34*Y$33</f>
-        <v>4083.3333333333335</v>
-      </c>
-      <c r="Z34" s="3">
-        <f>$H34*100</f>
-        <v>0.32666666666666666</v>
+        <f>Y34*X34</f>
+        <v>735</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0.49</v>
       </c>
       <c r="AA34" s="1">
-        <f>AB34*AA$33</f>
-        <v>3920.0000000000005</v>
-      </c>
-      <c r="AB34" s="3">
-        <f>$H34*80</f>
-        <v>0.26133333333333336</v>
-      </c>
-      <c r="AC34" s="1">
-        <f>AD34*AC$33</f>
-        <v>3430</v>
-      </c>
-      <c r="AD34" s="3">
-        <f>$H34*60</f>
-        <v>0.19600000000000001</v>
+        <f>AC34*AB34</f>
+        <v>840</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0.42</v>
       </c>
       <c r="AE34" s="1">
-        <f>AF34*AE$33</f>
-        <v>2613.3333333333335</v>
-      </c>
-      <c r="AF34" s="3">
-        <f>$H34*40</f>
-        <v>0.13066666666666668</v>
-      </c>
-    </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.25">
+        <f>AG34*AF34</f>
+        <v>1650</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AI34" s="1">
+        <f>AK34*AJ34</f>
+        <v>2900</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AM34" s="1">
+        <f>AO34*AN34</f>
+        <v>3000</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AQ34" s="1">
+        <f>AS34*AR34</f>
+        <v>3600</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="BK34" s="1"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="3"/>
+    </row>
+    <row r="35" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>116</v>
       </c>
@@ -4853,97 +4831,105 @@
         <f>G35/15000</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="I35" s="21"/>
+      <c r="I35" s="21">
+        <f>H35*200</f>
+        <v>0.72</v>
+      </c>
       <c r="K35" s="1">
-        <f>L35*K$33</f>
-        <v>468</v>
-      </c>
-      <c r="L35" s="3">
-        <f>$H35*260</f>
-        <v>0.93599999999999994</v>
-      </c>
-      <c r="M35" s="1">
-        <f>N35*M$33</f>
-        <v>864</v>
-      </c>
-      <c r="N35" s="3">
-        <f>$H35*240</f>
-        <v>0.86399999999999999</v>
-      </c>
+        <f>M35*L35</f>
+        <v>184</v>
+      </c>
+      <c r="L35" s="2">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="N35" s="3"/>
       <c r="O35" s="1">
-        <f>P35*O$33</f>
-        <v>1583.9999999999998</v>
-      </c>
-      <c r="P35" s="3">
-        <f>$H35*220</f>
-        <v>0.79199999999999993</v>
-      </c>
-      <c r="Q35" s="1">
-        <f>R35*Q$33</f>
-        <v>2880</v>
-      </c>
-      <c r="R35" s="3">
-        <f>$H35*200</f>
-        <v>0.72</v>
-      </c>
+        <f>Q35*P35</f>
+        <v>430</v>
+      </c>
+      <c r="P35" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="R35" s="3"/>
       <c r="S35" s="1">
-        <f>T35*S$33</f>
-        <v>3240</v>
-      </c>
-      <c r="T35" s="3">
-        <f>$H35*180</f>
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="U35" s="1">
-        <f>V35*U$33</f>
-        <v>4320</v>
-      </c>
-      <c r="V35" s="3">
-        <f>$H35*160</f>
-        <v>0.57599999999999996</v>
-      </c>
+        <f>U35*T35</f>
+        <v>780</v>
+      </c>
+      <c r="T35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="V35" s="3"/>
       <c r="W35" s="1">
-        <f>X35*W$33</f>
-        <v>5040</v>
-      </c>
-      <c r="X35" s="3">
-        <f>$H35*140</f>
-        <v>0.504</v>
-      </c>
-      <c r="Y35" s="1">
-        <f>Z35*Y$33</f>
-        <v>4500</v>
-      </c>
-      <c r="Z35" s="3">
-        <f>$H35*100</f>
-        <v>0.36</v>
+        <f>Y35*X35</f>
+        <v>1035</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0.69</v>
       </c>
       <c r="AA35" s="1">
-        <f>AB35*AA$33</f>
-        <v>4320</v>
-      </c>
-      <c r="AB35" s="3">
-        <f>$H35*80</f>
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="AC35" s="1">
-        <f>AD35*AC$33</f>
-        <v>3780</v>
-      </c>
-      <c r="AD35" s="3">
-        <f>$H35*60</f>
-        <v>0.216</v>
+        <f>AC35*AB35</f>
+        <v>1260</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0.63</v>
       </c>
       <c r="AE35" s="1">
-        <f>AF35*AE$33</f>
-        <v>2880</v>
-      </c>
-      <c r="AF35" s="3">
-        <f>$H35*40</f>
-        <v>0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.25">
+        <f>AG35*AF35</f>
+        <v>2750</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI35" s="1">
+        <f>AK35*AJ35</f>
+        <v>3900</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="AM35" s="1">
+        <f>AO35*AN35</f>
+        <v>4800</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="AQ35" s="1">
+        <f>AS35*AR35</f>
+        <v>5000</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -4964,101 +4950,119 @@
         <f>G36/15000</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="21">
+        <f>H36*200</f>
+        <v>0.91999999999999993</v>
+      </c>
       <c r="K36" s="1">
-        <f>L36*K$33</f>
-        <v>598</v>
-      </c>
-      <c r="L36" s="3">
-        <f>$H36*260</f>
-        <v>1.196</v>
-      </c>
-      <c r="M36" s="1">
-        <f>N36*M$33</f>
-        <v>1104</v>
-      </c>
-      <c r="N36" s="3">
-        <f>$H36*240</f>
-        <v>1.1040000000000001</v>
-      </c>
+        <f>M36*L36</f>
+        <v>196</v>
+      </c>
+      <c r="L36" s="2">
+        <v>200</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="N36" s="3"/>
       <c r="O36" s="1">
-        <f>P36*O$33</f>
-        <v>2024</v>
-      </c>
-      <c r="P36" s="3">
-        <f>$H36*220</f>
-        <v>1.012</v>
-      </c>
-      <c r="Q36" s="1">
-        <f>R36*Q$33</f>
-        <v>3679.9999999999995</v>
-      </c>
-      <c r="R36" s="3">
-        <f>$H36*200</f>
-        <v>0.91999999999999993</v>
-      </c>
+        <f>Q36*P36</f>
+        <v>440</v>
+      </c>
+      <c r="P36" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="R36" s="3"/>
       <c r="S36" s="1">
-        <f>T36*S$33</f>
-        <v>4140</v>
-      </c>
-      <c r="T36" s="3">
-        <f>$H36*180</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="U36" s="1">
-        <f>V36*U$33</f>
-        <v>5520</v>
-      </c>
-      <c r="V36" s="3">
-        <f>$H36*160</f>
-        <v>0.73599999999999999</v>
-      </c>
+        <f>U36*T36</f>
+        <v>800</v>
+      </c>
+      <c r="T36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V36" s="3"/>
       <c r="W36" s="1">
-        <f>X36*W$33</f>
-        <v>6440</v>
-      </c>
-      <c r="X36" s="3">
-        <f>$H36*140</f>
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="Y36" s="1">
-        <f>Z36*Y$33</f>
-        <v>5750</v>
-      </c>
-      <c r="Z36" s="3">
-        <f>$H36*100</f>
-        <v>0.45999999999999996</v>
+        <f>Y36*X36</f>
+        <v>1125</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0.75</v>
       </c>
       <c r="AA36" s="1">
-        <f>AB36*AA$33</f>
-        <v>5520</v>
-      </c>
-      <c r="AB36" s="3">
-        <f>$H36*80</f>
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="AC36" s="1">
-        <f>AD36*AC$33</f>
-        <v>4830</v>
-      </c>
-      <c r="AD36" s="3">
-        <f>$H36*60</f>
-        <v>0.27600000000000002</v>
+        <f>AC36*AB36</f>
+        <v>1400</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0.7</v>
       </c>
       <c r="AE36" s="1">
-        <f>AF36*AE$33</f>
-        <v>3680</v>
-      </c>
-      <c r="AF36" s="3">
-        <f>$H36*40</f>
-        <v>0.184</v>
-      </c>
-    </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.25">
+        <f>AG36*AF36</f>
+        <v>3150</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="AI36" s="1">
+        <f>AK36*AJ36</f>
+        <v>5500</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AM36" s="1">
+        <f>AO36*AN36</f>
+        <v>5850</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="AQ36" s="1">
+        <f>AS36*AR36</f>
+        <v>6400</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:65" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="N37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AF37" s="3"/>
+    </row>
+    <row r="38" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>118</v>
       </c>
@@ -5079,97 +5083,105 @@
         <f>G38/15000</f>
         <v>5.933333333333333E-3</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="21">
+        <f>H38*200</f>
+        <v>1.1866666666666665</v>
+      </c>
       <c r="K38" s="1">
-        <f>L38*K$33</f>
-        <v>771.33333333333337</v>
-      </c>
-      <c r="L38" s="3">
-        <f>$H38*260</f>
-        <v>1.5426666666666666</v>
-      </c>
-      <c r="M38" s="1">
-        <f>N38*M$33</f>
-        <v>1424</v>
-      </c>
-      <c r="N38" s="3">
-        <f>$H38*240</f>
-        <v>1.4239999999999999</v>
-      </c>
+        <f>M38*L38</f>
+        <v>240</v>
+      </c>
+      <c r="L38" s="2">
+        <v>200</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="N38" s="3"/>
       <c r="O38" s="1">
-        <f>P38*O$33</f>
-        <v>2610.6666666666665</v>
-      </c>
-      <c r="P38" s="3">
-        <f>$H38*220</f>
-        <v>1.3053333333333332</v>
-      </c>
-      <c r="Q38" s="1">
-        <f>R38*Q$33</f>
-        <v>4746.6666666666661</v>
-      </c>
-      <c r="R38" s="3">
-        <f>$H38*200</f>
-        <v>1.1866666666666665</v>
-      </c>
+        <f>Q38*P38</f>
+        <v>550</v>
+      </c>
+      <c r="P38" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R38" s="3"/>
       <c r="S38" s="1">
-        <f>T38*S$33</f>
-        <v>5339.9999999999991</v>
-      </c>
-      <c r="T38" s="3">
-        <f>$H38*180</f>
-        <v>1.0679999999999998</v>
-      </c>
-      <c r="U38" s="1">
-        <f>V38*U$33</f>
-        <v>7119.9999999999991</v>
-      </c>
-      <c r="V38" s="3">
-        <f>$H38*160</f>
-        <v>0.94933333333333325</v>
-      </c>
+        <f>U38*T38</f>
+        <v>1030</v>
+      </c>
+      <c r="T38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1.03</v>
+      </c>
+      <c r="V38" s="3"/>
       <c r="W38" s="1">
-        <f>X38*W$33</f>
-        <v>8306.6666666666661</v>
-      </c>
-      <c r="X38" s="3">
-        <f>$H38*140</f>
-        <v>0.83066666666666666</v>
-      </c>
-      <c r="Y38" s="1">
-        <f>Z38*Y$33</f>
-        <v>7416.6666666666661</v>
-      </c>
-      <c r="Z38" s="3">
-        <f>$H38*100</f>
-        <v>0.59333333333333327</v>
+        <f>Y38*X38</f>
+        <v>1380</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.92</v>
       </c>
       <c r="AA38" s="1">
-        <f>AB38*AA$33</f>
-        <v>7119.9999999999991</v>
-      </c>
-      <c r="AB38" s="3">
-        <f>$H38*80</f>
-        <v>0.47466666666666663</v>
-      </c>
-      <c r="AC38" s="1">
-        <f>AD38*AC$33</f>
-        <v>6230</v>
-      </c>
-      <c r="AD38" s="3">
-        <f>$H38*60</f>
-        <v>0.35599999999999998</v>
+        <f>AC38*AB38</f>
+        <v>1720</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0.86</v>
       </c>
       <c r="AE38" s="1">
-        <f>AF38*AE$33</f>
-        <v>4746.6666666666661</v>
-      </c>
-      <c r="AF38" s="3">
-        <f>$H38*40</f>
-        <v>0.23733333333333331</v>
-      </c>
-    </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.25">
+        <f>AG38*AF38</f>
+        <v>3900</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="AI38" s="1">
+        <f>AK38*AJ38</f>
+        <v>6899.9999999999991</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="AM38" s="1">
+        <f>AO38*AN38</f>
+        <v>8250</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AQ38" s="1">
+        <f>AS38*AR38</f>
+        <v>9800</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="39" spans="3:65" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>119</v>
       </c>
@@ -5190,94 +5202,102 @@
         <f>G39/15000</f>
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="21">
+        <f>H39*200</f>
+        <v>0.91999999999999993</v>
+      </c>
       <c r="K39" s="1">
-        <f>L39*K$33</f>
-        <v>598</v>
-      </c>
-      <c r="L39" s="3">
-        <f>$H39*260</f>
-        <v>1.196</v>
-      </c>
-      <c r="M39" s="1">
-        <f>N39*M$33</f>
-        <v>1104</v>
-      </c>
-      <c r="N39" s="3">
-        <f>$H39*240</f>
-        <v>1.1040000000000001</v>
-      </c>
+        <f>M39*L39</f>
+        <v>196</v>
+      </c>
+      <c r="L39" s="2">
+        <v>200</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="N39" s="3"/>
       <c r="O39" s="1">
-        <f>P39*O$33</f>
-        <v>2024</v>
-      </c>
-      <c r="P39" s="3">
-        <f>$H39*220</f>
-        <v>1.012</v>
-      </c>
-      <c r="Q39" s="1">
-        <f>R39*Q$33</f>
-        <v>3679.9999999999995</v>
-      </c>
-      <c r="R39" s="3">
-        <f>$H39*200</f>
-        <v>0.91999999999999993</v>
-      </c>
+        <f>Q39*P39</f>
+        <v>440</v>
+      </c>
+      <c r="P39" s="2">
+        <v>500</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="R39" s="3"/>
       <c r="S39" s="1">
-        <f>T39*S$33</f>
-        <v>4140</v>
-      </c>
-      <c r="T39" s="3">
-        <f>$H39*180</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="U39" s="1">
-        <f>V39*U$33</f>
-        <v>5520</v>
-      </c>
-      <c r="V39" s="3">
-        <f>$H39*160</f>
-        <v>0.73599999999999999</v>
-      </c>
+        <f>U39*T39</f>
+        <v>800</v>
+      </c>
+      <c r="T39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="V39" s="3"/>
       <c r="W39" s="1">
-        <f>X39*W$33</f>
-        <v>6440</v>
-      </c>
-      <c r="X39" s="3">
-        <f>$H39*140</f>
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="Y39" s="1">
-        <f>Z39*Y$33</f>
-        <v>5750</v>
-      </c>
-      <c r="Z39" s="3">
-        <f>$H39*100</f>
-        <v>0.45999999999999996</v>
+        <f>Y39*X39</f>
+        <v>1125</v>
+      </c>
+      <c r="X39" s="2">
+        <v>1500</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.75</v>
       </c>
       <c r="AA39" s="1">
-        <f>AB39*AA$33</f>
-        <v>5520</v>
-      </c>
-      <c r="AB39" s="3">
-        <f>$H39*80</f>
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="AC39" s="1">
-        <f>AD39*AC$33</f>
-        <v>4830</v>
-      </c>
-      <c r="AD39" s="3">
-        <f>$H39*60</f>
-        <v>0.27600000000000002</v>
+        <f>AC39*AB39</f>
+        <v>1400</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0.7</v>
       </c>
       <c r="AE39" s="1">
-        <f>AF39*AE$33</f>
-        <v>3680</v>
-      </c>
-      <c r="AF39" s="3">
-        <f>$H39*40</f>
-        <v>0.184</v>
+        <f>AG39*AF39</f>
+        <v>3150</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="AI39" s="1">
+        <f>AK39*AJ39</f>
+        <v>5500</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AM39" s="1">
+        <f>AO39*AN39</f>
+        <v>5850</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>15000</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="AQ39" s="1">
+        <f>AS39*AR39</f>
+        <v>6400</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>20000</v>
+      </c>
+      <c r="AS39" s="3">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>

--- a/documents/business scraper plan.xlsx
+++ b/documents/business scraper plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gingg\Documents\GitHub\bolar\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093F663-4203-4A0A-9892-5566C4F5AE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E964B-FA27-40AC-B2C7-2868CD123B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{F65CDB09-F7AD-4761-AB37-8B010387F582}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4197,7 +4198,7 @@
   <dimension ref="C5:BM39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
